--- a/Documentation/Transaction Codes.xlsx
+++ b/Documentation/Transaction Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KennyHawkins\Documents\Canal\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A2414-1737-4B1E-B8D9-81F76B145C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5996D07B-9565-4234-BF7A-AC78B4990A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31140" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{B4990264-3A6B-44C5-97BD-91A98D01CBB8}"/>
   </bookViews>
@@ -912,8 +912,8 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Transaction Codes.xlsx
+++ b/Documentation/Transaction Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KennyHawkins\Documents\Canal\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5996D07B-9565-4234-BF7A-AC78B4990A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2945A7-F84B-4CFF-802C-019D665B1DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31140" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{B4990264-3A6B-44C5-97BD-91A98D01CBB8}"/>
   </bookViews>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
-  <si>
-    <t>Module</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
   <si>
     <t>Description</t>
   </si>
@@ -50,9 +47,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>Controller (All Available Actions)</t>
-  </si>
-  <si>
     <t>/CATS</t>
   </si>
   <si>
@@ -522,6 +516,24 @@
   </si>
   <si>
     <t>List of Organizations or find with Org ID</t>
+  </si>
+  <si>
+    <t>/WHS/MOD</t>
+  </si>
+  <si>
+    <t>Modify a Warehouse</t>
+  </si>
+  <si>
+    <t>/ORGS/MOD</t>
+  </si>
+  <si>
+    <t>Modify an Organization</t>
+  </si>
+  <si>
+    <t>Module/Canal/Tr. Code</t>
+  </si>
+  <si>
+    <t>Controller (All Available Actions, Always Open)</t>
   </si>
 </sst>
 </file>
@@ -909,665 +921,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Transaction Codes.xlsx
+++ b/Documentation/Transaction Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KennyHawkins\Documents\Canal\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2945A7-F84B-4CFF-802C-019D665B1DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15254B8-8D8E-4948-ACDF-9A733D52ACA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31140" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{B4990264-3A6B-44C5-97BD-91A98D01CBB8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
   <si>
     <t>Description</t>
   </si>
@@ -534,6 +534,30 @@
   </si>
   <si>
     <t>Controller (All Available Actions, Always Open)</t>
+  </si>
+  <si>
+    <t>/DPTS</t>
+  </si>
+  <si>
+    <t>/DPTS/F</t>
+  </si>
+  <si>
+    <t>/DPTS/NEW</t>
+  </si>
+  <si>
+    <t>/DPTS/MOD</t>
+  </si>
+  <si>
+    <t>Modify a Department</t>
+  </si>
+  <si>
+    <t>Create a Department</t>
+  </si>
+  <si>
+    <t>Find a Department with Name or ID</t>
+  </si>
+  <si>
+    <t>List of Departments of Org</t>
   </si>
 </sst>
 </file>
@@ -921,11 +945,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,551 +1080,583 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B86" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{96BBBF05-C596-4D1F-AA07-A6A23ADFC26F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B72">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B87">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/Documentation/Transaction Codes.xlsx
+++ b/Documentation/Transaction Codes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KennyHawkins\Documents\Canal\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15254B8-8D8E-4948-ACDF-9A733D52ACA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57081414-E3AB-46E0-B9CE-4064A9C23145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31140" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{B4990264-3A6B-44C5-97BD-91A98D01CBB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Available Modules" sheetId="1" r:id="rId1"/>
+    <sheet name="Available Canals" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Modules'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Canals'!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
   <si>
     <t>Description</t>
   </si>
@@ -558,13 +558,31 @@
   </si>
   <si>
     <t>List of Departments of Org</t>
+  </si>
+  <si>
+    <t>/CLEAR_DSK</t>
+  </si>
+  <si>
+    <t>Minimizes all Windows</t>
+  </si>
+  <si>
+    <t>/CLOSE_DSK</t>
+  </si>
+  <si>
+    <t>Closes all windows, no confirmation</t>
+  </si>
+  <si>
+    <t>/CNL</t>
+  </si>
+  <si>
+    <t>Canal Interface Settings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +593,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -607,10 +640,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,718 +980,742 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B61" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B62" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B64" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B65" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B68" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B69" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B71" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B72" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B73" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B74" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B75" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B76" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B77" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B78" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B79" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B80" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B81" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B82" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B85" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B86" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B87" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B88" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B89" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B90" s="4" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{96BBBF05-C596-4D1F-AA07-A6A23ADFC26F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B87">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B90">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/Documentation/Transaction Codes.xlsx
+++ b/Documentation/Transaction Codes.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KennyHawkins\Documents\Canal\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57081414-E3AB-46E0-B9CE-4064A9C23145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F522DC-1B6A-448F-84E3-E0846B9C11A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{B4990264-3A6B-44C5-97BD-91A98D01CBB8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4990264-3A6B-44C5-97BD-91A98D01CBB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Available Canals" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Canals'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Canals'!$A$1:$M$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="251">
   <si>
     <t>/</t>
   </si>
@@ -530,9 +527,6 @@
     <t>Modify an Organization</t>
   </si>
   <si>
-    <t>Module/Canal/Tr. Code</t>
-  </si>
-  <si>
     <t>Controller (All Available Actions, Always Open)</t>
   </si>
   <si>
@@ -576,13 +570,235 @@
   </si>
   <si>
     <t>Canal Interface Settings</t>
+  </si>
+  <si>
+    <t>Superuser</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Data Mngmt.</t>
+  </si>
+  <si>
+    <t>Firefight</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Supply Chain</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>/INV</t>
+  </si>
+  <si>
+    <t>Inventory Controller</t>
+  </si>
+  <si>
+    <t>Basic Description</t>
+  </si>
+  <si>
+    <t>/CNL/HR</t>
+  </si>
+  <si>
+    <t>Human Resources Controller</t>
+  </si>
+  <si>
+    <t>Provides necessary options for HR Department</t>
+  </si>
+  <si>
+    <t>Provides necessary options to manage inventory</t>
+  </si>
+  <si>
+    <t>/TM_CLCK</t>
+  </si>
+  <si>
+    <t>Employee Timeclock</t>
+  </si>
+  <si>
+    <t>Click hourly time action, enter Employee ID to confirm</t>
+  </si>
+  <si>
+    <t>/CNL/EXIT</t>
+  </si>
+  <si>
+    <t>Exit Canal with confirm dialogue</t>
+  </si>
+  <si>
+    <t>/CNL/EXIT/Y</t>
+  </si>
+  <si>
+    <t>Exit Canal without confirm dialogue</t>
+  </si>
+  <si>
+    <t>Will lose all open work, no saved state, yet</t>
+  </si>
+  <si>
+    <t>/DPTS/DEL</t>
+  </si>
+  <si>
+    <t>Deleta a Department</t>
+  </si>
+  <si>
+    <t>/CCS/MOD</t>
+  </si>
+  <si>
+    <t>/CCS/DEL</t>
+  </si>
+  <si>
+    <t>Delete a Cost Center</t>
+  </si>
+  <si>
+    <t>/CCS/ARCHV</t>
+  </si>
+  <si>
+    <t>Archive a Cost Center</t>
+  </si>
+  <si>
+    <t>Complete delete and all associated objects</t>
+  </si>
+  <si>
+    <t>Moves to archive folder with all associated objects</t>
+  </si>
+  <si>
+    <t>Modify a Cost Center</t>
+  </si>
+  <si>
+    <t>/CCS</t>
+  </si>
+  <si>
+    <t>View list of Cost Centers</t>
+  </si>
+  <si>
+    <t>/DPTS/ARCHV</t>
+  </si>
+  <si>
+    <t>Archive a Department</t>
+  </si>
+  <si>
+    <t>/HR/POS</t>
+  </si>
+  <si>
+    <t>List of Positions</t>
+  </si>
+  <si>
+    <t>/HR/POS/NEW</t>
+  </si>
+  <si>
+    <t>Create a Position</t>
+  </si>
+  <si>
+    <t>/HR/POS/F</t>
+  </si>
+  <si>
+    <t>/HR/POS/MOD</t>
+  </si>
+  <si>
+    <t>/HR/POS/DEL</t>
+  </si>
+  <si>
+    <t>/HR/POS/ARCHV</t>
+  </si>
+  <si>
+    <t>Archive a Position</t>
+  </si>
+  <si>
+    <t>Delete a Position</t>
+  </si>
+  <si>
+    <t>Modify a Position</t>
+  </si>
+  <si>
+    <t>/HR/POS/POST</t>
+  </si>
+  <si>
+    <t>Post Position to Open Positions</t>
+  </si>
+  <si>
+    <t>/LOGIN</t>
+  </si>
+  <si>
+    <t>Assign a User to this instance of Canal</t>
+  </si>
+  <si>
+    <t>Provide User ID and password</t>
+  </si>
+  <si>
+    <t>/USRS/CHG_PSSWD</t>
+  </si>
+  <si>
+    <t>Change password of assigned Canal User</t>
+  </si>
+  <si>
+    <t>/LGS</t>
+  </si>
+  <si>
+    <t>List of Ledgers</t>
+  </si>
+  <si>
+    <t>/LGS/NEW</t>
+  </si>
+  <si>
+    <t>Create a Ledger</t>
+  </si>
+  <si>
+    <t>/LGS/F</t>
+  </si>
+  <si>
+    <t>Find Ledger with Ledger ID or Name</t>
+  </si>
+  <si>
+    <t>/LGS/AUDIT</t>
+  </si>
+  <si>
+    <t>Audit a Ledger</t>
+  </si>
+  <si>
+    <t>/LGS/ARCHV</t>
+  </si>
+  <si>
+    <t>Archive a Ledger</t>
+  </si>
+  <si>
+    <t>Must have a fallback ledger that is not expired</t>
+  </si>
+  <si>
+    <t>Locke Code</t>
+  </si>
+  <si>
+    <t>/CNL/SMPL_FRMS</t>
+  </si>
+  <si>
+    <t>SimpleForms Controller</t>
+  </si>
+  <si>
+    <t>Manager SimpleForms in this window (create, mod, del)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,8 +829,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,11 +851,73 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -640,17 +926,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -980,745 +1331,3215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B27" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="13"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="B30" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M32" s="13"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B33" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B34" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C34" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B35" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C35" s="16"/>
+      <c r="D35" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B36" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C36" s="16"/>
+      <c r="D36" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M36" s="13"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B37" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C37" s="16"/>
+      <c r="D37" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M37" s="13"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L38" s="12"/>
+      <c r="M38" s="13"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L41" s="12"/>
+      <c r="M41" s="13"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L42" s="12"/>
+      <c r="M42" s="13"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="13"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="13"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B46" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C46" s="16"/>
+      <c r="D46" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M46" s="13"/>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B47" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C47" s="16"/>
+      <c r="D47" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M47" s="13"/>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="B48" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C48" s="16"/>
+      <c r="D48" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M48" s="13"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B49" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C49" s="16"/>
+      <c r="D49" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M49" s="13"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="B50" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C50" s="16"/>
+      <c r="D50" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M50" s="13"/>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B51" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C51" s="16"/>
+      <c r="D51" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M51" s="13"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="B52" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C52" s="16"/>
+      <c r="D52" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M52" s="13"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="13"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="13"/>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="13"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="13"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="13"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="13"/>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B59" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C59" s="16"/>
+      <c r="D59" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M59" s="13"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B60" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C60" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M60" s="13"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="B61" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C61" s="16"/>
+      <c r="D61" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M61" s="13"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B62" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C62" s="16"/>
+      <c r="D62" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M62" s="13"/>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="B63" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C63" s="16"/>
+      <c r="D63" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M63" s="13"/>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B64" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C64" s="16"/>
+      <c r="D64" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M64" s="13"/>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B65" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C65" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M65" s="13"/>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="B66" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C66" s="16"/>
+      <c r="D66" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M66" s="13"/>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="B67" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C67" s="16"/>
+      <c r="D67" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M67" s="13"/>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="B68" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C68" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M68" s="13"/>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="B69" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C69" s="16"/>
+      <c r="D69" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M69" s="13"/>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="B70" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C70" s="16"/>
+      <c r="D70" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M70" s="13"/>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="B71" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C71" s="16"/>
+      <c r="D71" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M71" s="13"/>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="B72" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C72" s="16"/>
+      <c r="D72" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M72" s="13"/>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="B73" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C73" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M73" s="13"/>
+    </row>
+    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="B74" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C74" s="16"/>
+      <c r="D74" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M74" s="13"/>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="B75" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C75" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M75" s="13"/>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="B76" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C76" s="16"/>
+      <c r="D76" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M76" s="13"/>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="B77" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C77" s="16"/>
+      <c r="D77" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M77" s="13"/>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="B78" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="C78" s="16"/>
+      <c r="D78" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M78" s="13"/>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="16"/>
+      <c r="D79" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M79" s="13"/>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M80" s="13"/>
+    </row>
+    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M81" s="13"/>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M82" s="13"/>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M83" s="13"/>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M84" s="13"/>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M85" s="13"/>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="16"/>
+      <c r="D86" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M86" s="13"/>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="B87" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="16"/>
+      <c r="D87" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M87" s="13"/>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M88" s="13"/>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="16"/>
+      <c r="D89" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M89" s="13"/>
+    </row>
+    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M90" s="13"/>
+    </row>
+    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="16"/>
+      <c r="D91" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M91" s="13"/>
+    </row>
+    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="16"/>
+      <c r="D92" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M92" s="13"/>
+    </row>
+    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="16"/>
+      <c r="D93" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M93" s="13"/>
+    </row>
+    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="16"/>
+      <c r="D94" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M94" s="13"/>
+    </row>
+    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B70" s="4" t="s">
+      <c r="B95" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="16"/>
+      <c r="D95" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M95" s="13"/>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M96" s="13"/>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="B97" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="16"/>
+      <c r="D97" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M97" s="13"/>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="13"/>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="16"/>
+      <c r="D99" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M99" s="13"/>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C100" s="16"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="13"/>
+    </row>
+    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" s="16"/>
+      <c r="D101" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M101" s="13"/>
+    </row>
+    <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="16"/>
+      <c r="D102" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M102" s="13"/>
+    </row>
+    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" s="16"/>
+      <c r="D103" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M103" s="13"/>
+    </row>
+    <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M104" s="13"/>
+    </row>
+    <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" s="16"/>
+      <c r="D105" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M105" s="13"/>
+    </row>
+    <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="16"/>
+      <c r="D106" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M106" s="13"/>
+    </row>
+    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" s="16"/>
+      <c r="D107" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M107" s="13"/>
+    </row>
+    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M108" s="13"/>
+    </row>
+    <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" s="16"/>
+      <c r="D109" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M109" s="13"/>
+    </row>
+    <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="16"/>
+      <c r="D110" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M110" s="13"/>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" s="16"/>
+      <c r="D111" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M111" s="13"/>
+    </row>
+    <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="16"/>
+      <c r="D112" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M112" s="13"/>
+    </row>
+    <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" s="16"/>
+      <c r="D113" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M113" s="13"/>
+    </row>
+    <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M114" s="13"/>
+    </row>
+    <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B88" s="4" t="s">
+      <c r="B115" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C115" s="16"/>
+      <c r="D115" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M115" s="13"/>
+    </row>
+    <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="B116" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="C116" s="16"/>
+      <c r="D116" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M116" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{96BBBF05-C596-4D1F-AA07-A6A23ADFC26F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B90">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="A1:M116" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M116">
+      <sortCondition ref="A1:A116"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="A2:M116">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentation/Transaction Codes.xlsx
+++ b/Documentation/Transaction Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KennyHawkins\Documents\Canal\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F522DC-1B6A-448F-84E3-E0846B9C11A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F687AE9F-B141-4C56-B11A-CDA0C265BC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4990264-3A6B-44C5-97BD-91A98D01CBB8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Available Canals" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Canals'!$A$1:$M$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Canals'!$A$1:$M$122</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="264">
   <si>
     <t>/</t>
   </si>
@@ -428,9 +428,6 @@
     <t>Find Vendor with ID</t>
   </si>
   <si>
-    <t>Find Vendor with Vendor ID</t>
-  </si>
-  <si>
     <t>/VEND/MOD</t>
   </si>
   <si>
@@ -792,6 +789,48 @@
   </si>
   <si>
     <t>Manager SimpleForms in this window (create, mod, del)</t>
+  </si>
+  <si>
+    <t>/MVMT/TSKS</t>
+  </si>
+  <si>
+    <t>/MVMT/TSKS/F</t>
+  </si>
+  <si>
+    <t>Task list for all users</t>
+  </si>
+  <si>
+    <t>Find Task by various Task properties</t>
+  </si>
+  <si>
+    <t>/MVMT/TSKS/NEW</t>
+  </si>
+  <si>
+    <t>Create new Task for User</t>
+  </si>
+  <si>
+    <t>/MVMT/WVS</t>
+  </si>
+  <si>
+    <t>/MVMT/WVS/F</t>
+  </si>
+  <si>
+    <t>/MVMT/WVS/NEW</t>
+  </si>
+  <si>
+    <t>List of Waves for all locations</t>
+  </si>
+  <si>
+    <t>Find Wave with Wave ID</t>
+  </si>
+  <si>
+    <t>Create a Wave for Location</t>
+  </si>
+  <si>
+    <t>/VEND/ARCVH</t>
+  </si>
+  <si>
+    <t>Archive a Vendor with ID</t>
   </si>
 </sst>
 </file>
@@ -1331,11 +1370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,43 +1396,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1401,38 +1440,38 @@
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1444,25 +1483,25 @@
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M3" s="13"/>
     </row>
@@ -1474,13 +1513,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1489,7 +1528,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M4" s="13"/>
     </row>
@@ -1502,23 +1541,23 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M5" s="13"/>
     </row>
@@ -1531,21 +1570,21 @@
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M6" s="13"/>
     </row>
@@ -1558,37 +1597,37 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>214</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>215</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -1601,16 +1640,16 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>210</v>
-      </c>
       <c r="C9" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1624,19 +1663,19 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>208</v>
-      </c>
       <c r="C10" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1656,37 +1695,37 @@
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1706,142 +1745,142 @@
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>172</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>174</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>199</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>200</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -1854,19 +1893,19 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>203</v>
-      </c>
       <c r="D18" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -1879,19 +1918,19 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="C19" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>194</v>
-      </c>
       <c r="D19" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -1904,13 +1943,13 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>249</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>250</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1932,29 +1971,29 @@
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M21" s="13"/>
     </row>
@@ -1967,29 +2006,29 @@
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M22" s="13"/>
     </row>
@@ -2002,29 +2041,29 @@
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M23" s="13"/>
     </row>
@@ -2037,21 +2076,21 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M24" s="13"/>
     </row>
@@ -2064,21 +2103,21 @@
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M25" s="13"/>
     </row>
@@ -2091,63 +2130,63 @@
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>217</v>
-      </c>
       <c r="C28" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -2161,19 +2200,19 @@
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>205</v>
-      </c>
       <c r="C29" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -2186,82 +2225,82 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>167</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M32" s="13"/>
     </row>
@@ -2274,21 +2313,21 @@
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M33" s="13"/>
     </row>
@@ -2300,13 +2339,13 @@
         <v>30</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -2315,7 +2354,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M34" s="13"/>
     </row>
@@ -2328,21 +2367,21 @@
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M35" s="13"/>
     </row>
@@ -2355,21 +2394,21 @@
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M36" s="13"/>
     </row>
@@ -2382,37 +2421,37 @@
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M37" s="13"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>219</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -2420,23 +2459,23 @@
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L38" s="12"/>
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>226</v>
-      </c>
       <c r="C39" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -2445,26 +2484,26 @@
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L39" s="12"/>
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
@@ -2477,15 +2516,15 @@
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="16"/>
       <c r="D41" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -2493,24 +2532,24 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="13"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -2518,24 +2557,24 @@
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L42" s="12"/>
       <c r="M42" s="13"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>220</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>221</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -2543,24 +2582,24 @@
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="13"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -2568,26 +2607,26 @@
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L44" s="12"/>
       <c r="M44" s="13"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>190</v>
-      </c>
       <c r="C45" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -2607,21 +2646,21 @@
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M46" s="13"/>
     </row>
@@ -2634,21 +2673,21 @@
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M47" s="13"/>
     </row>
@@ -2661,21 +2700,21 @@
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M48" s="13"/>
     </row>
@@ -2688,21 +2727,21 @@
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M49" s="13"/>
     </row>
@@ -2715,21 +2754,21 @@
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M50" s="13"/>
     </row>
@@ -2742,21 +2781,21 @@
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M51" s="13"/>
     </row>
@@ -2769,36 +2808,36 @@
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M52" s="13"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>236</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>237</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -2810,18 +2849,18 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="C54" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>246</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -2833,16 +2872,16 @@
     </row>
     <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>243</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -2854,16 +2893,16 @@
     </row>
     <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>240</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>241</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -2875,16 +2914,16 @@
     </row>
     <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" s="19" t="s">
         <v>238</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>239</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -2896,13 +2935,13 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="C58" s="16" t="s">
         <v>232</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>233</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -2924,21 +2963,21 @@
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M59" s="13"/>
     </row>
@@ -2950,13 +2989,13 @@
         <v>54</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
@@ -2965,7 +3004,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M60" s="13"/>
     </row>
@@ -2978,21 +3017,21 @@
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M61" s="13"/>
     </row>
@@ -3005,21 +3044,21 @@
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M62" s="13"/>
     </row>
@@ -3032,1167 +3071,1129 @@
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M63" s="13"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="C64" s="16"/>
-      <c r="D64" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
       <c r="G64" s="12"/>
-      <c r="H64" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
-      <c r="L64" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="L64" s="12"/>
       <c r="M64" s="13"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>178</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
-      <c r="L65" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="L65" s="12"/>
       <c r="M65" s="13"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>65</v>
+        <v>254</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="C66" s="16"/>
-      <c r="D66" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="H66" s="12"/>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
-      <c r="L66" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="L66" s="12"/>
       <c r="M66" s="13"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>67</v>
+        <v>256</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>68</v>
+        <v>259</v>
       </c>
       <c r="C67" s="16"/>
-      <c r="D67" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
       <c r="G67" s="12"/>
-      <c r="H67" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
-      <c r="L67" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="L67" s="12"/>
       <c r="M67" s="13"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>178</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="12"/>
       <c r="E68" s="12"/>
-      <c r="F68" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="F68" s="12"/>
       <c r="G68" s="12"/>
-      <c r="H68" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
-      <c r="L68" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="L68" s="12"/>
       <c r="M68" s="13"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>71</v>
+        <v>258</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="C69" s="16"/>
-      <c r="D69" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
       <c r="G69" s="12"/>
-      <c r="H69" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
-      <c r="L69" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="L69" s="12"/>
       <c r="M69" s="13"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M70" s="13"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="D71" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G71" s="12"/>
-      <c r="H71" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M71" s="13"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M72" s="13"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>212</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C73" s="16"/>
       <c r="D73" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E73" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F73" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G73" s="12"/>
       <c r="H73" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M73" s="13"/>
     </row>
     <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="16"/>
+        <v>70</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="D74" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E74" s="12"/>
       <c r="F74" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G74" s="12"/>
       <c r="H74" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>211</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C75" s="16"/>
       <c r="D75" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
+      <c r="H75" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M75" s="13"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M76" s="13"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M77" s="13"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M78" s="13"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C79" s="16"/>
+        <v>80</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="D79" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E79" s="12"/>
       <c r="F79" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M79" s="13"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>212</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C80" s="16"/>
       <c r="D80" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E80" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F80" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="H80" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M80" s="13"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C81" s="16"/>
+        <v>84</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="D81" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G81" s="12"/>
-      <c r="H81" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M81" s="13"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>211</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C82" s="16"/>
       <c r="D82" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
+      <c r="H82" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M82" s="13"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
       <c r="L83" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M83" s="13"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
       <c r="L84" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M84" s="13"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M85" s="13"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C86" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="D86" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E86" s="12"/>
       <c r="F86" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G86" s="12"/>
-      <c r="H86" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M86" s="13"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
       <c r="L87" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M87" s="13"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E88" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F88" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G88" s="12"/>
-      <c r="H88" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M88" s="13"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
       <c r="L89" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M89" s="13"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>211</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C90" s="16"/>
       <c r="D90" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
+      <c r="H90" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M90" s="13"/>
     </row>
     <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M91" s="13"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
       <c r="L92" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M92" s="13"/>
     </row>
     <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
       <c r="L93" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M93" s="13"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C94" s="16"/>
+        <v>94</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="D94" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F94" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M94" s="13"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F95" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G95" s="12"/>
       <c r="H95" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M95" s="13"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C96" s="16"/>
+        <v>98</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="D96" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F96" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G96" s="12"/>
-      <c r="H96" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M96" s="13"/>
     </row>
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F97" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G97" s="12"/>
       <c r="H97" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
       <c r="L97" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M97" s="13"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>198</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C98" s="16"/>
       <c r="D98" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F98" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
+      <c r="H98" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
+      <c r="L98" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="M98" s="13"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F99" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G99" s="12"/>
       <c r="H99" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
       <c r="L99" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M99" s="13"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="21" t="s">
-        <v>234</v>
+      <c r="A100" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="C100" s="16"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="D100" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
+      <c r="H100" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
+      <c r="L100" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="M100" s="13"/>
     </row>
     <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
       <c r="L101" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M101" s="13"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
       <c r="L102" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M102" s="13"/>
     </row>
     <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
       <c r="L103" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M103" s="13"/>
     </row>
     <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
@@ -4200,342 +4201,494 @@
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
-      <c r="L104" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="L104" s="12"/>
       <c r="M104" s="13"/>
     </row>
     <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
       <c r="L105" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M105" s="13"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
-        <v>121</v>
+      <c r="A106" s="21" t="s">
+        <v>233</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="C106" s="16"/>
-      <c r="D106" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
-      <c r="H106" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
-      <c r="L106" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="L106" s="12"/>
       <c r="M106" s="13"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M107" s="13"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>211</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C108" s="16"/>
       <c r="D108" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
+      <c r="H108" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M108" s="13"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M109" s="13"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C110" s="16"/>
+        <v>118</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="D110" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
-      <c r="H110" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M110" s="13"/>
     </row>
     <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M111" s="13"/>
     </row>
     <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
       <c r="L112" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M112" s="13"/>
     </row>
     <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
       <c r="L113" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M113" s="13"/>
     </row>
     <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
       <c r="L114" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M114" s="13"/>
     </row>
     <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C115" s="16"/>
+        <v>126</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="D115" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
-      <c r="H115" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M115" s="13"/>
     </row>
     <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
       <c r="H116" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
       <c r="L116" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M116" s="13"/>
     </row>
+    <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" s="16"/>
+      <c r="D117" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M117" s="13"/>
+    </row>
+    <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" s="16"/>
+      <c r="D118" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M118" s="13"/>
+    </row>
+    <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119" s="16"/>
+      <c r="D119" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M119" s="13"/>
+    </row>
+    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" s="16"/>
+      <c r="D120" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M120" s="13"/>
+    </row>
+    <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="16"/>
+      <c r="D121" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M121" s="13"/>
+    </row>
+    <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="16"/>
+      <c r="D122" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M122" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M116" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M116">
-      <sortCondition ref="A1:A116"/>
+  <autoFilter ref="A1:M122" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M122">
+      <sortCondition ref="A1:A122"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:M116">
+  <conditionalFormatting sqref="A2:M122">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>

--- a/Documentation/Transaction Codes.xlsx
+++ b/Documentation/Transaction Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KennyHawkins\Documents\Canal\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F687AE9F-B141-4C56-B11A-CDA0C265BC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B514D8E-5D85-4FD0-9DE7-5C783272F662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4990264-3A6B-44C5-97BD-91A98D01CBB8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Available Canals" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Canals'!$A$1:$M$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Canals'!$A$1:$M$159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="337">
   <si>
     <t>/</t>
   </si>
@@ -671,12 +671,6 @@
     <t>Archive a Cost Center</t>
   </si>
   <si>
-    <t>Complete delete and all associated objects</t>
-  </si>
-  <si>
-    <t>Moves to archive folder with all associated objects</t>
-  </si>
-  <si>
     <t>Modify a Cost Center</t>
   </si>
   <si>
@@ -776,9 +770,6 @@
     <t>Archive a Ledger</t>
   </si>
   <si>
-    <t>Must have a fallback ledger that is not expired</t>
-  </si>
-  <si>
     <t>Locke Code</t>
   </si>
   <si>
@@ -831,6 +822,234 @@
   </si>
   <si>
     <t>Archive a Vendor with ID</t>
+  </si>
+  <si>
+    <t>/AREAS/AUTO_MK</t>
+  </si>
+  <si>
+    <t>/BNS</t>
+  </si>
+  <si>
+    <t>List of all Bins</t>
+  </si>
+  <si>
+    <t>/BNS/F</t>
+  </si>
+  <si>
+    <t>Find Bin with Bin ID</t>
+  </si>
+  <si>
+    <t>/BNS/NEW</t>
+  </si>
+  <si>
+    <t>Create a Bin</t>
+  </si>
+  <si>
+    <t>/BNS/ARCHV</t>
+  </si>
+  <si>
+    <t>Archive a Bin</t>
+  </si>
+  <si>
+    <t>/BNS/MOD</t>
+  </si>
+  <si>
+    <t>Modify a Bin</t>
+  </si>
+  <si>
+    <t>Delete a Bin</t>
+  </si>
+  <si>
+    <t>/BNS/DEL</t>
+  </si>
+  <si>
+    <t>/AREAS</t>
+  </si>
+  <si>
+    <t>List of all Areas</t>
+  </si>
+  <si>
+    <t>/AREAS/F</t>
+  </si>
+  <si>
+    <t>Find Area with Area ID</t>
+  </si>
+  <si>
+    <t>/AREAS/NEW</t>
+  </si>
+  <si>
+    <t>Create an Area for Location</t>
+  </si>
+  <si>
+    <t>/AREAS/MOD</t>
+  </si>
+  <si>
+    <t>Modify an Area</t>
+  </si>
+  <si>
+    <t>/AREAS/DEL</t>
+  </si>
+  <si>
+    <t>Delete an Area</t>
+  </si>
+  <si>
+    <t>Archive an Area</t>
+  </si>
+  <si>
+    <t>/AREAS/ARCHV</t>
+  </si>
+  <si>
+    <t>/WHS/DEL</t>
+  </si>
+  <si>
+    <t>Delete a Warehouse</t>
+  </si>
+  <si>
+    <t>/WHS/ARCHV</t>
+  </si>
+  <si>
+    <t>Archive a Warehouse</t>
+  </si>
+  <si>
+    <t>/USRS/ARCHV</t>
+  </si>
+  <si>
+    <t>Archive a User</t>
+  </si>
+  <si>
+    <t>AutoMake Areas and Bins</t>
+  </si>
+  <si>
+    <t>/CATS/ARCHV</t>
+  </si>
+  <si>
+    <t>Archive a Catalog</t>
+  </si>
+  <si>
+    <t>/TRANS/CRRS</t>
+  </si>
+  <si>
+    <t>List of Carriers for transportation/shipping</t>
+  </si>
+  <si>
+    <t>/TRANS/CRRS/F</t>
+  </si>
+  <si>
+    <t>Find Carrier with Carrier properties</t>
+  </si>
+  <si>
+    <t>/TRANS/CRRS/NEW</t>
+  </si>
+  <si>
+    <t>Create a transporation Carrier</t>
+  </si>
+  <si>
+    <t>/TRANS/CRRS/MOD</t>
+  </si>
+  <si>
+    <t>Modify a Carrier</t>
+  </si>
+  <si>
+    <t>/TRANS/CRRS/DEL</t>
+  </si>
+  <si>
+    <t>Delete a Carrier</t>
+  </si>
+  <si>
+    <t>/TRANS/CRRS/ARCHV</t>
+  </si>
+  <si>
+    <t>Archive a Carrier</t>
+  </si>
+  <si>
+    <t>List of Inbound Delivery Orders</t>
+  </si>
+  <si>
+    <t>Find Inbound Delivery Order with IBD ID</t>
+  </si>
+  <si>
+    <t>Create Inbound Delivery Order</t>
+  </si>
+  <si>
+    <t>Modify Inbound Delivery Order</t>
+  </si>
+  <si>
+    <t>Delete Inbound Delivery Order</t>
+  </si>
+  <si>
+    <t>Archive an Inbound Delivery Order</t>
+  </si>
+  <si>
+    <t>List of Outbound Delivery Orders</t>
+  </si>
+  <si>
+    <t>Find a Outbound Delivery Order with OBD ID</t>
+  </si>
+  <si>
+    <t>Create an Outbound Delivery Order</t>
+  </si>
+  <si>
+    <t>Modify an Outbound Delivery Order</t>
+  </si>
+  <si>
+    <t>Delete an Outbound Delivery Order</t>
+  </si>
+  <si>
+    <t>Archive an Outbound Delivery Order</t>
+  </si>
+  <si>
+    <t>/LGS/DEL</t>
+  </si>
+  <si>
+    <t>Delete a Ledger with Ledger ID</t>
+  </si>
+  <si>
+    <t>/MTS/ARCHV</t>
+  </si>
+  <si>
+    <t>Archive a Material</t>
+  </si>
+  <si>
+    <t>Moves to archive folder with all associations</t>
+  </si>
+  <si>
+    <t>Complete delete and all associations</t>
+  </si>
+  <si>
+    <t>/TRANS/IDO</t>
+  </si>
+  <si>
+    <t>/TRANS/IDO/ARCHV</t>
+  </si>
+  <si>
+    <t>/TRANS/IDO/DEL</t>
+  </si>
+  <si>
+    <t>/TRANS/IDO/F</t>
+  </si>
+  <si>
+    <t>/TRANS/IDO/MOD</t>
+  </si>
+  <si>
+    <t>/TRANS/IDO/NEW</t>
+  </si>
+  <si>
+    <t>/TRANS/ODO</t>
+  </si>
+  <si>
+    <t>/TRANS/ODO/ARCHV</t>
+  </si>
+  <si>
+    <t>/TRANS/ODO/DEL</t>
+  </si>
+  <si>
+    <t>/TRANS/ODO/F</t>
+  </si>
+  <si>
+    <t>/TRANS/ODO/MOD</t>
+  </si>
+  <si>
+    <t>/TRANS/ODO/NEW</t>
   </si>
 </sst>
 </file>
@@ -871,7 +1090,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1370,11 +1588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,7 +1614,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>190</v>
@@ -1476,44 +1694,34 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="C3" s="16"/>
-      <c r="D3" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M3" s="13"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>3</v>
+        <v>285</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>177</v>
@@ -1523,7 +1731,9 @@
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -1534,101 +1744,77 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>5</v>
+        <v>261</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M5" s="13"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L6" s="12"/>
       <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>9</v>
+        <v>276</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M7" s="13"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1636,21 +1822,19 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
+      <c r="M8" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1659,24 +1843,20 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -1684,16 +1864,20 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
+      <c r="M10" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>11</v>
+        <v>268</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="16"/>
+        <v>269</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="D11" s="12" t="s">
         <v>177</v>
       </c>
@@ -1715,18 +1899,16 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -1738,115 +1920,73 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>13</v>
+        <v>264</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M13" s="13"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="13" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="13" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="12" t="s">
@@ -1855,8 +1995,12 @@
       <c r="E16" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H16" s="12" t="s">
         <v>177</v>
       </c>
@@ -1866,16 +2010,20 @@
       <c r="L16" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M16" s="13"/>
+      <c r="M16" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="16"/>
+        <v>294</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="D17" s="12" t="s">
         <v>177</v>
       </c>
@@ -1884,22 +2032,26 @@
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="L17" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>201</v>
+        <v>4</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>202</v>
+        <v>324</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>177</v>
@@ -1913,61 +2065,77 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="L18" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>193</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C19" s="16"/>
       <c r="D19" s="12" t="s">
         <v>177</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="13"/>
+      <c r="L19" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>247</v>
+        <v>7</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13"/>
+      <c r="L20" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="12" t="s">
@@ -1976,33 +2144,27 @@
       <c r="E21" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M21" s="13"/>
+      <c r="M21" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="12" t="s">
@@ -2011,56 +2173,40 @@
       <c r="E22" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M22" s="13"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="16"/>
+        <v>209</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="D23" s="12" t="s">
         <v>177</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12" t="s">
         <v>177</v>
@@ -2069,12 +2215,14 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="16"/>
+        <v>207</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="D24" s="12" t="s">
         <v>177</v>
       </c>
@@ -2083,23 +2231,19 @@
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L24" s="12"/>
       <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="12" t="s">
@@ -2119,14 +2263,16 @@
       <c r="L25" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M25" s="13"/>
+      <c r="M25" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="12" t="s">
@@ -2137,23 +2283,21 @@
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M26" s="13"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="12" t="s">
@@ -2173,62 +2317,94 @@
       <c r="L27" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M27" s="13"/>
+      <c r="M27" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>211</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C28" s="16"/>
       <c r="D28" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13"/>
+      <c r="E28" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>210</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C29" s="16"/>
       <c r="D29" s="12" t="s">
         <v>177</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="13"/>
+      <c r="F29" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="12" t="s">
@@ -2237,25 +2413,37 @@
       <c r="E30" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="F30" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H30" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="I30" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="L30" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M30" s="13"/>
+      <c r="M30" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="12" t="s">
@@ -2264,68 +2452,104 @@
       <c r="E31" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H31" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="I31" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="L31" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M31" s="13"/>
+      <c r="M31" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="16"/>
+        <v>201</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>202</v>
+      </c>
       <c r="D32" s="12" t="s">
         <v>177</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H32" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="I32" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="L32" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M32" s="13"/>
+      <c r="M32" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="16"/>
+        <v>192</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>193</v>
+      </c>
       <c r="D33" s="12" t="s">
         <v>177</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="F33" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H33" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="K33" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="L33" s="12" t="s">
         <v>177</v>
       </c>
@@ -2333,13 +2557,13 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>177</v>
@@ -2347,23 +2571,37 @@
       <c r="E34" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="L34" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M34" s="13"/>
+      <c r="M34" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="12" t="s">
@@ -2372,25 +2610,35 @@
       <c r="E35" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H35" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
+      <c r="I35" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="K35" s="12"/>
       <c r="L35" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M35" s="13"/>
+      <c r="M35" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="12" t="s">
@@ -2399,25 +2647,35 @@
       <c r="E36" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="F36" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H36" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="I36" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="K36" s="12"/>
       <c r="L36" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M36" s="13"/>
+      <c r="M36" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="12" t="s">
@@ -2426,25 +2684,35 @@
       <c r="E37" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="F37" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H37" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="I37" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="K37" s="12"/>
       <c r="L37" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M37" s="13"/>
+      <c r="M37" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="12" t="s">
@@ -2455,50 +2723,56 @@
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="H38" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="13"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>211</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C39" s="16"/>
       <c r="D39" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="H39" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>223</v>
+        <v>25</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>210</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C40" s="16"/>
       <c r="D40" s="12" t="s">
         <v>177</v>
       </c>
@@ -2507,18 +2781,26 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="H40" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="13"/>
+      <c r="L40" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B41" s="19"/>
+        <v>162</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="C41" s="16"/>
       <c r="D41" s="12" t="s">
         <v>177</v>
@@ -2528,23 +2810,29 @@
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="H41" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L41" s="12"/>
-      <c r="M41" s="13"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C42" s="16"/>
+        <v>214</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="D42" s="12" t="s">
         <v>177</v>
       </c>
@@ -2553,23 +2841,29 @@
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="H42" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="L42" s="12"/>
+      <c r="L42" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="M42" s="13"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C43" s="16"/>
+        <v>204</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="D43" s="12" t="s">
         <v>177</v>
       </c>
@@ -2581,18 +2875,16 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="13"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="12" t="s">
@@ -2603,25 +2895,27 @@
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="H44" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L44" s="12"/>
-      <c r="M44" s="13"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>194</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C45" s="16"/>
       <c r="D45" s="12" t="s">
         <v>177</v>
       </c>
@@ -2630,19 +2924,25 @@
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="H45" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="13"/>
+      <c r="L45" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="12" t="s">
@@ -2662,14 +2962,16 @@
       <c r="L46" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M46" s="13"/>
+      <c r="M46" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="12" t="s">
@@ -2689,16 +2991,20 @@
       <c r="L47" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M47" s="13"/>
+      <c r="M47" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="D48" s="12" t="s">
         <v>177</v>
       </c>
@@ -2707,9 +3013,7 @@
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
@@ -2720,10 +3024,10 @@
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="12" t="s">
@@ -2743,14 +3047,16 @@
       <c r="L49" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M49" s="13"/>
+      <c r="M49" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="12" t="s">
@@ -2770,14 +3076,16 @@
       <c r="L50" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M50" s="13"/>
+      <c r="M50" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="12" t="s">
@@ -2797,14 +3105,16 @@
       <c r="L51" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M51" s="13"/>
+      <c r="M51" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="12" t="s">
@@ -2815,53 +3125,63 @@
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="K52" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L52" s="12"/>
       <c r="M52" s="13"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53" s="12"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
+      <c r="H53" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
+      <c r="K53" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="M53" s="13"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -2872,96 +3192,112 @@
     </row>
     <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>242</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B55" s="19"/>
       <c r="C55" s="16"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D55" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
+      <c r="K55" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="L55" s="12"/>
       <c r="M55" s="13"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C56" s="16"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D56" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
+      <c r="K56" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="L56" s="12"/>
       <c r="M56" s="13"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C57" s="16"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D57" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
+      <c r="K57" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="L57" s="12"/>
       <c r="M57" s="13"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+        <v>227</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
+      <c r="K58" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="L58" s="12"/>
       <c r="M58" s="13"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="16"/>
+        <v>189</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="D59" s="12" t="s">
         <v>177</v>
       </c>
@@ -2970,27 +3306,23 @@
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
-      <c r="H59" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H59" s="12"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
-      <c r="L59" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M59" s="13"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>210</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C60" s="16"/>
       <c r="D60" s="12" t="s">
         <v>177</v>
       </c>
@@ -2999,21 +3331,25 @@
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="H60" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M60" s="13"/>
+      <c r="M60" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="12" t="s">
@@ -3033,14 +3369,16 @@
       <c r="L61" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M61" s="13"/>
+      <c r="M61" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="12" t="s">
@@ -3060,14 +3398,16 @@
       <c r="L62" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M62" s="13"/>
+      <c r="M62" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="12" t="s">
@@ -3087,76 +3427,110 @@
       <c r="L63" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M63" s="13"/>
+      <c r="M63" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>252</v>
+        <v>46</v>
       </c>
       <c r="C64" s="16"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
+      <c r="D64" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
+      <c r="H64" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="13"/>
+      <c r="L64" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>251</v>
+        <v>47</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="C65" s="16"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
+      <c r="D65" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
+      <c r="H65" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="13"/>
+      <c r="L65" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="C66" s="16"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
+      <c r="D66" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="H66" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="13"/>
+      <c r="L66" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
+      <c r="F67" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
@@ -3167,34 +3541,48 @@
     </row>
     <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+        <v>242</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="H68" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
+      <c r="L68" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="M68" s="13"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
+      <c r="F69" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
@@ -3205,49 +3593,35 @@
     </row>
     <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>61</v>
+        <v>319</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="12"/>
-      <c r="H70" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
-      <c r="L70" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L70" s="12"/>
       <c r="M70" s="13"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
       <c r="F71" s="12" t="s">
         <v>177</v>
       </c>
@@ -3256,48 +3630,40 @@
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
-      <c r="L71" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L71" s="12"/>
       <c r="M71" s="13"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="C72" s="16"/>
-      <c r="D72" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="12" t="s">
         <v>177</v>
       </c>
       <c r="G72" s="12"/>
-      <c r="H72" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
-      <c r="L72" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L72" s="12"/>
       <c r="M72" s="13"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="16"/>
+        <v>229</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="D73" s="12" t="s">
         <v>177</v>
       </c>
@@ -3307,35 +3673,43 @@
       <c r="F73" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="G73" s="12"/>
+      <c r="G73" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H73" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
+      <c r="I73" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="L73" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M73" s="13"/>
+      <c r="M73" s="12" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>211</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C74" s="16"/>
       <c r="D74" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="E74" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12" t="s">
         <v>177</v>
@@ -3346,58 +3720,50 @@
       <c r="L74" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M74" s="13"/>
+      <c r="M74" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>71</v>
+        <v>321</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
       <c r="G75" s="12"/>
-      <c r="H75" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
-      <c r="L75" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L75" s="12"/>
       <c r="M75" s="13"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="D76" s="12" t="s">
         <v>177</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F76" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="F76" s="12"/>
       <c r="G76" s="12"/>
-      <c r="H76" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
@@ -3408,10 +3774,10 @@
     </row>
     <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="12" t="s">
@@ -3420,9 +3786,7 @@
       <c r="E77" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F77" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12" t="s">
         <v>177</v>
@@ -3433,14 +3797,16 @@
       <c r="L77" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M77" s="13"/>
+      <c r="M77" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="12" t="s">
@@ -3449,9 +3815,7 @@
       <c r="E78" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F78" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12" t="s">
         <v>177</v>
@@ -3462,25 +3826,25 @@
       <c r="L78" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M78" s="13"/>
+      <c r="M78" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>211</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C79" s="16"/>
       <c r="D79" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="E79" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12" t="s">
         <v>177</v>
@@ -3491,217 +3855,177 @@
       <c r="L79" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M79" s="13"/>
+      <c r="M79" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="C80" s="16"/>
-      <c r="D80" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
       <c r="G80" s="12"/>
-      <c r="H80" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H80" s="12"/>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
-      <c r="L80" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M80" s="13"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
-      <c r="L81" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M81" s="13"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>85</v>
+        <v>251</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>86</v>
+        <v>252</v>
       </c>
       <c r="C82" s="16"/>
-      <c r="D82" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
       <c r="G82" s="12"/>
-      <c r="H82" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
-      <c r="L82" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M82" s="13"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>88</v>
+        <v>256</v>
       </c>
       <c r="C83" s="16"/>
-      <c r="D83" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
       <c r="G83" s="12"/>
-      <c r="H83" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
-      <c r="L83" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M83" s="13"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>90</v>
+        <v>257</v>
       </c>
       <c r="C84" s="16"/>
-      <c r="D84" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
       <c r="G84" s="12"/>
-      <c r="H84" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
-      <c r="L84" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M84" s="13"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="C85" s="16"/>
-      <c r="D85" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
       <c r="G85" s="12"/>
-      <c r="H85" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
-      <c r="L85" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M85" s="13"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>211</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C86" s="16"/>
       <c r="D86" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E86" s="12"/>
+      <c r="E86" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F86" s="12" t="s">
         <v>177</v>
       </c>
       <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
+      <c r="H86" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M86" s="13"/>
+      <c r="M86" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C87" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="D87" s="12" t="s">
         <v>177</v>
       </c>
@@ -3712,9 +4036,7 @@
         <v>177</v>
       </c>
       <c r="G87" s="12"/>
-      <c r="H87" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
@@ -3725,14 +4047,12 @@
     </row>
     <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>210</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C88" s="16"/>
       <c r="D88" s="12" t="s">
         <v>177</v>
       </c>
@@ -3743,21 +4063,25 @@
         <v>177</v>
       </c>
       <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
+      <c r="H88" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M88" s="13"/>
+      <c r="M88" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="12" t="s">
@@ -3779,16 +4103,20 @@
       <c r="L89" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M89" s="13"/>
+      <c r="M89" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C90" s="16"/>
+        <v>70</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="D90" s="12" t="s">
         <v>177</v>
       </c>
@@ -3812,10 +4140,10 @@
     </row>
     <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="12" t="s">
@@ -3837,14 +4165,16 @@
       <c r="L91" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M91" s="13"/>
+      <c r="M91" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="12" t="s">
@@ -3866,14 +4196,16 @@
       <c r="L92" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M92" s="13"/>
+      <c r="M92" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="12" t="s">
@@ -3895,22 +4227,24 @@
       <c r="L93" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M93" s="13"/>
+      <c r="M93" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>211</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C94" s="16"/>
       <c r="D94" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E94" s="12"/>
+      <c r="E94" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F94" s="12" t="s">
         <v>177</v>
       </c>
@@ -3924,16 +4258,20 @@
       <c r="L94" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M94" s="13"/>
+      <c r="M94" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" s="16"/>
+        <v>80</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="D95" s="12" t="s">
         <v>177</v>
       </c>
@@ -3957,14 +4295,12 @@
     </row>
     <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>210</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C96" s="16"/>
       <c r="D96" s="12" t="s">
         <v>177</v>
       </c>
@@ -3975,23 +4311,29 @@
         <v>177</v>
       </c>
       <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
+      <c r="H96" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M96" s="13"/>
+      <c r="M96" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C97" s="16"/>
+        <v>84</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="D97" s="12" t="s">
         <v>177</v>
       </c>
@@ -4002,9 +4344,7 @@
         <v>177</v>
       </c>
       <c r="G97" s="12"/>
-      <c r="H97" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
@@ -4015,10 +4355,10 @@
     </row>
     <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="12" t="s">
@@ -4040,14 +4380,16 @@
       <c r="L98" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M98" s="13"/>
+      <c r="M98" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="12" t="s">
@@ -4069,14 +4411,16 @@
       <c r="L99" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M99" s="13"/>
+      <c r="M99" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="12" t="s">
@@ -4085,7 +4429,9 @@
       <c r="E100" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F100" s="12"/>
+      <c r="F100" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G100" s="12"/>
       <c r="H100" s="12" t="s">
         <v>177</v>
@@ -4096,14 +4442,16 @@
       <c r="L100" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M100" s="13"/>
+      <c r="M100" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="12" t="s">
@@ -4112,7 +4460,9 @@
       <c r="E101" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F101" s="12"/>
+      <c r="F101" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G101" s="12"/>
       <c r="H101" s="12" t="s">
         <v>177</v>
@@ -4123,23 +4473,29 @@
       <c r="L101" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M101" s="13"/>
+      <c r="M101" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C102" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="D102" s="12" t="s">
         <v>177</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F102" s="12"/>
+      <c r="F102" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G102" s="12"/>
       <c r="H102" s="12" t="s">
         <v>177</v>
@@ -4154,10 +4510,10 @@
     </row>
     <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="12" t="s">
@@ -4166,7 +4522,9 @@
       <c r="E103" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F103" s="12"/>
+      <c r="F103" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G103" s="12"/>
       <c r="H103" s="12" t="s">
         <v>177</v>
@@ -4177,17 +4535,19 @@
       <c r="L103" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M103" s="13"/>
+      <c r="M103" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>197</v>
+        <v>324</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>177</v>
@@ -4195,21 +4555,25 @@
       <c r="E104" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F104" s="12"/>
+      <c r="F104" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
+      <c r="L104" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="M104" s="13"/>
     </row>
     <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="12" t="s">
@@ -4218,7 +4582,9 @@
       <c r="E105" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F105" s="12"/>
+      <c r="F105" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G105" s="12"/>
       <c r="H105" s="12" t="s">
         <v>177</v>
@@ -4229,33 +4595,47 @@
       <c r="L105" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M105" s="13"/>
+      <c r="M105" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="21" t="s">
-        <v>233</v>
+      <c r="A106" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="C106" s="16"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
+      <c r="D106" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
+      <c r="H106" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="13"/>
+      <c r="L106" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M106" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="12" t="s">
@@ -4264,7 +4644,9 @@
       <c r="E107" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F107" s="12"/>
+      <c r="F107" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G107" s="12"/>
       <c r="H107" s="12" t="s">
         <v>177</v>
@@ -4275,14 +4657,16 @@
       <c r="L107" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M107" s="13"/>
+      <c r="M107" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="C108" s="16"/>
       <c r="D108" s="12" t="s">
@@ -4291,7 +4675,9 @@
       <c r="E108" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F108" s="12"/>
+      <c r="F108" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G108" s="12"/>
       <c r="H108" s="12" t="s">
         <v>177</v>
@@ -4302,14 +4688,16 @@
       <c r="L108" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M108" s="13"/>
+      <c r="M108" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="12" t="s">
@@ -4318,7 +4706,9 @@
       <c r="E109" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F109" s="12"/>
+      <c r="F109" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G109" s="12"/>
       <c r="H109" s="12" t="s">
         <v>177</v>
@@ -4329,17 +4719,19 @@
       <c r="L109" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M109" s="13"/>
+      <c r="M109" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>177</v>
@@ -4347,9 +4739,13 @@
       <c r="E110" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F110" s="12"/>
+      <c r="F110" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
+      <c r="H110" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
@@ -4360,10 +4756,10 @@
     </row>
     <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="12" t="s">
@@ -4372,7 +4768,9 @@
       <c r="E111" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F111" s="12"/>
+      <c r="F111" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G111" s="12"/>
       <c r="H111" s="12" t="s">
         <v>177</v>
@@ -4383,27 +4781,31 @@
       <c r="L111" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M111" s="13"/>
+      <c r="M111" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C112" s="16"/>
+        <v>98</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="D112" s="12" t="s">
         <v>177</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F112" s="12"/>
+      <c r="F112" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G112" s="12"/>
-      <c r="H112" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
@@ -4414,10 +4816,10 @@
     </row>
     <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="12" t="s">
@@ -4426,7 +4828,9 @@
       <c r="E113" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F113" s="12"/>
+      <c r="F113" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G113" s="12"/>
       <c r="H113" s="12" t="s">
         <v>177</v>
@@ -4437,14 +4841,16 @@
       <c r="L113" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M113" s="13"/>
+      <c r="M113" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="12" t="s">
@@ -4453,7 +4859,9 @@
       <c r="E114" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F114" s="12"/>
+      <c r="F114" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G114" s="12"/>
       <c r="H114" s="12" t="s">
         <v>177</v>
@@ -4464,41 +4872,47 @@
       <c r="L114" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M114" s="13"/>
+      <c r="M114" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>210</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C115" s="16"/>
       <c r="D115" s="12" t="s">
         <v>177</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F115" s="12"/>
+      <c r="F115" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
+      <c r="H115" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M115" s="13"/>
+      <c r="M115" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="12" t="s">
@@ -4518,14 +4932,16 @@
       <c r="L116" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M116" s="13"/>
+      <c r="M116" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C117" s="16"/>
       <c r="D117" s="12" t="s">
@@ -4545,14 +4961,16 @@
       <c r="L117" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M117" s="13"/>
+      <c r="M117" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="12" t="s">
@@ -4572,14 +4990,16 @@
       <c r="L118" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M118" s="13"/>
+      <c r="M118" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C119" s="16"/>
       <c r="D119" s="12" t="s">
@@ -4599,16 +5019,20 @@
       <c r="L119" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M119" s="13"/>
+      <c r="M119" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C120" s="16"/>
+        <v>196</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="D120" s="12" t="s">
         <v>177</v>
       </c>
@@ -4617,78 +5041,981 @@
       </c>
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
-      <c r="H120" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H120" s="12"/>
       <c r="I120" s="12"/>
       <c r="J120" s="12"/>
       <c r="K120" s="12"/>
-      <c r="L120" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M120" s="13"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>157</v>
+        <v>295</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="C121" s="16"/>
-      <c r="D121" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
-      <c r="H121" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
-      <c r="L121" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M121" s="13"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>137</v>
+        <v>305</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C122" s="16"/>
-      <c r="D122" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
-      <c r="H122" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H122" s="12"/>
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
-      <c r="L122" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L122" s="12"/>
       <c r="M122" s="13"/>
     </row>
+    <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="13"/>
+    </row>
+    <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C124" s="16"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C125" s="16"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C126" s="16"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C127" s="16"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="13"/>
+    </row>
+    <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="13"/>
+    </row>
+    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C130" s="16"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C131" s="16"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C132" s="16"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C133" s="16"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="13"/>
+    </row>
+    <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="13"/>
+    </row>
+    <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C136" s="16"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C137" s="16"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C138" s="16"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C139" s="16"/>
+      <c r="D139" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M139" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M140" s="13"/>
+    </row>
+    <row r="141" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C141" s="16"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C142" s="16"/>
+      <c r="D142" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M142" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" s="16"/>
+      <c r="D143" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M143" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C144" s="16"/>
+      <c r="D144" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M144" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M145" s="13"/>
+    </row>
+    <row r="146" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C146" s="16"/>
+      <c r="D146" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M146" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C147" s="16"/>
+      <c r="D147" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M147" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C148" s="16"/>
+      <c r="D148" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M148" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C149" s="16"/>
+      <c r="D149" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M149" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M150" s="13"/>
+    </row>
+    <row r="151" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C151" s="16"/>
+      <c r="D151" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M151" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C152" s="16"/>
+      <c r="D152" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M152" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C153" s="16"/>
+      <c r="D153" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M153" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C154" s="16"/>
+      <c r="D154" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M154" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="13"/>
+    </row>
+    <row r="156" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="13"/>
+    </row>
+    <row r="157" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C157" s="16"/>
+      <c r="D157" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M157" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" s="16"/>
+      <c r="D158" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M158" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C159" s="16"/>
+      <c r="D159" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M159" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M122" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M122">
-      <sortCondition ref="A1:A122"/>
+  <autoFilter ref="A1:M159" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M159">
+      <sortCondition ref="A1:A159"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:M122">
+  <conditionalFormatting sqref="A2:M159">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>

--- a/Documentation/Transaction Codes.xlsx
+++ b/Documentation/Transaction Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KennyHawkins\Documents\Canal\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B514D8E-5D85-4FD0-9DE7-5C783272F662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35031008-8AE7-4FEE-B4D4-54881655049D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4990264-3A6B-44C5-97BD-91A98D01CBB8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Available Canals" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Canals'!$A$1:$M$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Canals'!$A$1:$M$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="343">
   <si>
     <t>/</t>
   </si>
@@ -1050,6 +1050,24 @@
   </si>
   <si>
     <t>/TRANS/ODO/NEW</t>
+  </si>
+  <si>
+    <t>/TRANS/TRCK</t>
+  </si>
+  <si>
+    <t>/TRANS/TRCK/F</t>
+  </si>
+  <si>
+    <t>/TRANS/TRCK/NEW</t>
+  </si>
+  <si>
+    <t>/TRANS/TRCK/MOD</t>
+  </si>
+  <si>
+    <t>/TRANS/TRCK/DEL</t>
+  </si>
+  <si>
+    <t>/TRANS/TRCK/ARCHV</t>
   </si>
 </sst>
 </file>
@@ -1588,11 +1606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5430,69 +5448,43 @@
     </row>
     <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>110</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B139" s="19"/>
       <c r="C139" s="16"/>
-      <c r="D139" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
-      <c r="H139" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="12"/>
       <c r="K139" s="12"/>
-      <c r="L139" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M139" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L139" s="12"/>
+      <c r="M139" s="13"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B140" s="19"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
-      <c r="H140" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H140" s="12"/>
       <c r="I140" s="12"/>
       <c r="J140" s="12"/>
       <c r="K140" s="12"/>
-      <c r="L140" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L140" s="12"/>
       <c r="M140" s="13"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>232</v>
-      </c>
+      <c r="A141" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B141" s="19"/>
       <c r="C141" s="16"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
@@ -5503,107 +5495,67 @@
       <c r="J141" s="12"/>
       <c r="K141" s="12"/>
       <c r="L141" s="12"/>
-      <c r="M141" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M141" s="13"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>112</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B142" s="19"/>
       <c r="C142" s="16"/>
-      <c r="D142" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E142" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
-      <c r="H142" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H142" s="12"/>
       <c r="I142" s="12"/>
       <c r="J142" s="12"/>
       <c r="K142" s="12"/>
-      <c r="L142" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M142" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L142" s="12"/>
+      <c r="M142" s="13"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B143" s="19" t="s">
-        <v>114</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B143" s="19"/>
       <c r="C143" s="16"/>
-      <c r="D143" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
-      <c r="H143" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H143" s="12"/>
       <c r="I143" s="12"/>
       <c r="J143" s="12"/>
       <c r="K143" s="12"/>
-      <c r="L143" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M143" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L143" s="12"/>
+      <c r="M143" s="13"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B144" s="19" t="s">
-        <v>116</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B144" s="19"/>
       <c r="C144" s="16"/>
-      <c r="D144" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E144" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
-      <c r="H144" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H144" s="12"/>
       <c r="I144" s="12"/>
       <c r="J144" s="12"/>
       <c r="K144" s="12"/>
-      <c r="L144" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M144" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L144" s="12"/>
+      <c r="M144" s="13"/>
     </row>
     <row r="145" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>324</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C145" s="16"/>
       <c r="D145" s="12" t="s">
         <v>177</v>
       </c>
@@ -5612,23 +5564,29 @@
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
+      <c r="H145" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I145" s="12"/>
       <c r="J145" s="12"/>
       <c r="K145" s="12"/>
       <c r="L145" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M145" s="13"/>
+      <c r="M145" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="146" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C146" s="16"/>
+        <v>291</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="D146" s="12" t="s">
         <v>177</v>
       </c>
@@ -5646,45 +5604,35 @@
       <c r="L146" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M146" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M146" s="13"/>
     </row>
     <row r="147" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="14" t="s">
-        <v>121</v>
+      <c r="A147" s="21" t="s">
+        <v>231</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="C147" s="16"/>
-      <c r="D147" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
-      <c r="H147" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H147" s="12"/>
       <c r="I147" s="12"/>
       <c r="J147" s="12"/>
       <c r="K147" s="12"/>
-      <c r="L147" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L147" s="12"/>
       <c r="M147" s="13" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C148" s="16"/>
       <c r="D148" s="12" t="s">
@@ -5710,10 +5658,10 @@
     </row>
     <row r="149" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>260</v>
+        <v>114</v>
       </c>
       <c r="C149" s="16"/>
       <c r="D149" s="12" t="s">
@@ -5739,14 +5687,12 @@
     </row>
     <row r="150" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>324</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C150" s="16"/>
       <c r="D150" s="12" t="s">
         <v>177</v>
       </c>
@@ -5755,23 +5701,29 @@
       </c>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
+      <c r="H150" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I150" s="12"/>
       <c r="J150" s="12"/>
       <c r="K150" s="12"/>
       <c r="L150" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M150" s="13"/>
+      <c r="M150" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="151" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C151" s="16"/>
+        <v>118</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="D151" s="12" t="s">
         <v>177</v>
       </c>
@@ -5780,25 +5732,21 @@
       </c>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
-      <c r="H151" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
       <c r="K151" s="12"/>
       <c r="L151" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M151" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M151" s="13"/>
     </row>
     <row r="152" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C152" s="16"/>
       <c r="D152" s="12" t="s">
@@ -5824,10 +5772,10 @@
     </row>
     <row r="153" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C153" s="16"/>
       <c r="D153" s="12" t="s">
@@ -5853,10 +5801,10 @@
     </row>
     <row r="154" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C154" s="16"/>
       <c r="D154" s="12" t="s">
@@ -5882,52 +5830,66 @@
     </row>
     <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
+        <v>260</v>
+      </c>
+      <c r="C155" s="16"/>
+      <c r="D155" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
+      <c r="H155" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I155" s="12"/>
       <c r="J155" s="12"/>
       <c r="K155" s="12"/>
-      <c r="L155" s="12"/>
-      <c r="M155" s="13"/>
+      <c r="L155" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M155" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="156" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>286</v>
+        <v>125</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="C156" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
+      <c r="D156" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
       <c r="J156" s="12"/>
       <c r="K156" s="12"/>
-      <c r="L156" s="12"/>
+      <c r="L156" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="M156" s="13"/>
     </row>
     <row r="157" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C157" s="16"/>
       <c r="D157" s="12" t="s">
@@ -5953,10 +5915,10 @@
     </row>
     <row r="158" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C158" s="16"/>
       <c r="D158" s="12" t="s">
@@ -5982,10 +5944,10 @@
     </row>
     <row r="159" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C159" s="16"/>
       <c r="D159" s="12" t="s">
@@ -6009,13 +5971,171 @@
         <v>177</v>
       </c>
     </row>
+    <row r="160" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C160" s="16"/>
+      <c r="D160" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M160" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="13"/>
+    </row>
+    <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="13"/>
+    </row>
+    <row r="163" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C163" s="16"/>
+      <c r="D163" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M163" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C164" s="16"/>
+      <c r="D164" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M164" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C165" s="16"/>
+      <c r="D165" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M165" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M159" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M159">
-      <sortCondition ref="A1:A159"/>
+  <autoFilter ref="A1:M165" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M165">
+      <sortCondition ref="A1:A165"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:M159">
+  <conditionalFormatting sqref="A2:M165">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>

--- a/Documentation/Transaction Codes.xlsx
+++ b/Documentation/Transaction Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KennyHawkins\Documents\Canal\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35031008-8AE7-4FEE-B4D4-54881655049D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6900A3-09C5-4A69-A9A7-6FD40B589D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4990264-3A6B-44C5-97BD-91A98D01CBB8}"/>
   </bookViews>
@@ -1609,8 +1609,8 @@
   <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Transaction Codes.xlsx
+++ b/Documentation/Transaction Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KennyHawkins\Documents\Canal\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6900A3-09C5-4A69-A9A7-6FD40B589D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9140D1F8-51E4-4AE6-8105-AC8A94BA6429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4990264-3A6B-44C5-97BD-91A98D01CBB8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Available Canals" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Canals'!$A$1:$M$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Canals'!$A$1:$M$171</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="354">
   <si>
     <t>/</t>
   </si>
@@ -1068,6 +1068,39 @@
   </si>
   <si>
     <t>/TRANS/TRCK/ARCHV</t>
+  </si>
+  <si>
+    <t>/TMS/NEW</t>
+  </si>
+  <si>
+    <t>Create a Team</t>
+  </si>
+  <si>
+    <t>/TMS/MOD</t>
+  </si>
+  <si>
+    <t>Modify a Team</t>
+  </si>
+  <si>
+    <t>/TMS/DEL</t>
+  </si>
+  <si>
+    <t>Remove a Team</t>
+  </si>
+  <si>
+    <t>/TMS/ARCHV</t>
+  </si>
+  <si>
+    <t>Archive a Team</t>
+  </si>
+  <si>
+    <t>/TMS</t>
+  </si>
+  <si>
+    <t>/TMS/F</t>
+  </si>
+  <si>
+    <t>Find a Team</t>
   </si>
 </sst>
 </file>
@@ -1606,11 +1639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3709,7 +3742,7 @@
       <c r="L73" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M73" s="12" t="s">
+      <c r="M73" s="13" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3873,7 +3906,7 @@
       <c r="L79" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M79" s="13" t="s">
+      <c r="M79" s="12" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5070,11 +5103,9 @@
     </row>
     <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>296</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="B121" s="19"/>
       <c r="C121" s="16"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
@@ -5085,20 +5116,16 @@
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
       <c r="L121" s="12"/>
-      <c r="M121" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M121" s="13"/>
     </row>
     <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>323</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C122" s="16"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
@@ -5112,14 +5139,12 @@
     </row>
     <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>324</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C123" s="16"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
@@ -5133,10 +5158,10 @@
     </row>
     <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="C124" s="16"/>
       <c r="D124" s="12"/>
@@ -5148,16 +5173,14 @@
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
-      <c r="M124" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M124" s="13"/>
     </row>
     <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="C125" s="16"/>
       <c r="D125" s="12"/>
@@ -5169,16 +5192,14 @@
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
       <c r="L125" s="12"/>
-      <c r="M125" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M125" s="13"/>
     </row>
     <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="C126" s="16"/>
       <c r="D126" s="12"/>
@@ -5190,16 +5211,14 @@
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
       <c r="L126" s="12"/>
-      <c r="M126" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M126" s="13"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C127" s="16"/>
       <c r="D127" s="12"/>
@@ -5217,10 +5236,10 @@
     </row>
     <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>323</v>
@@ -5238,10 +5257,10 @@
     </row>
     <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>324</v>
@@ -5259,10 +5278,10 @@
     </row>
     <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C130" s="16"/>
       <c r="D130" s="12"/>
@@ -5280,10 +5299,10 @@
     </row>
     <row r="131" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="12"/>
@@ -5301,10 +5320,10 @@
     </row>
     <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="12"/>
@@ -5322,10 +5341,10 @@
     </row>
     <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="12"/>
@@ -5343,10 +5362,10 @@
     </row>
     <row r="134" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>323</v>
@@ -5364,10 +5383,10 @@
     </row>
     <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>324</v>
@@ -5385,10 +5404,10 @@
     </row>
     <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="12"/>
@@ -5406,10 +5425,10 @@
     </row>
     <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C137" s="16"/>
       <c r="D137" s="12"/>
@@ -5427,10 +5446,10 @@
     </row>
     <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="12"/>
@@ -5448,9 +5467,11 @@
     </row>
     <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B139" s="19"/>
+        <v>331</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>313</v>
+      </c>
       <c r="C139" s="16"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
@@ -5461,14 +5482,20 @@
       <c r="J139" s="12"/>
       <c r="K139" s="12"/>
       <c r="L139" s="12"/>
-      <c r="M139" s="13"/>
+      <c r="M139" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="140" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="B140" s="19"/>
-      <c r="C140" s="16"/>
+        <v>332</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
@@ -5482,10 +5509,14 @@
     </row>
     <row r="141" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B141" s="19"/>
-      <c r="C141" s="16"/>
+        <v>333</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
@@ -5499,9 +5530,11 @@
     </row>
     <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B142" s="19"/>
+        <v>334</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>314</v>
+      </c>
       <c r="C142" s="16"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
@@ -5512,13 +5545,17 @@
       <c r="J142" s="12"/>
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
-      <c r="M142" s="13"/>
+      <c r="M142" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="143" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B143" s="19"/>
+        <v>335</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>316</v>
+      </c>
       <c r="C143" s="16"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
@@ -5529,13 +5566,17 @@
       <c r="J143" s="12"/>
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
-      <c r="M143" s="13"/>
+      <c r="M143" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="144" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B144" s="19"/>
+        <v>336</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>315</v>
+      </c>
       <c r="C144" s="16"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
@@ -5546,73 +5587,49 @@
       <c r="J144" s="12"/>
       <c r="K144" s="12"/>
       <c r="L144" s="12"/>
-      <c r="M144" s="13"/>
+      <c r="M144" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="145" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>110</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B145" s="19"/>
       <c r="C145" s="16"/>
-      <c r="D145" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E145" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
-      <c r="H145" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H145" s="12"/>
       <c r="I145" s="12"/>
       <c r="J145" s="12"/>
       <c r="K145" s="12"/>
-      <c r="L145" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M145" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L145" s="12"/>
+      <c r="M145" s="13"/>
     </row>
     <row r="146" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E146" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B146" s="19"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
-      <c r="H146" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H146" s="12"/>
       <c r="I146" s="12"/>
       <c r="J146" s="12"/>
       <c r="K146" s="12"/>
-      <c r="L146" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L146" s="12"/>
       <c r="M146" s="13"/>
     </row>
     <row r="147" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>232</v>
-      </c>
+      <c r="A147" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B147" s="19"/>
       <c r="C147" s="16"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
@@ -5623,107 +5640,67 @@
       <c r="J147" s="12"/>
       <c r="K147" s="12"/>
       <c r="L147" s="12"/>
-      <c r="M147" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M147" s="13"/>
     </row>
     <row r="148" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>112</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B148" s="19"/>
       <c r="C148" s="16"/>
-      <c r="D148" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
-      <c r="H148" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H148" s="12"/>
       <c r="I148" s="12"/>
       <c r="J148" s="12"/>
       <c r="K148" s="12"/>
-      <c r="L148" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M148" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L148" s="12"/>
+      <c r="M148" s="13"/>
     </row>
     <row r="149" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B149" s="19" t="s">
-        <v>114</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B149" s="19"/>
       <c r="C149" s="16"/>
-      <c r="D149" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E149" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
-      <c r="H149" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H149" s="12"/>
       <c r="I149" s="12"/>
       <c r="J149" s="12"/>
       <c r="K149" s="12"/>
-      <c r="L149" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M149" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L149" s="12"/>
+      <c r="M149" s="13"/>
     </row>
     <row r="150" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B150" s="19" t="s">
-        <v>116</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B150" s="19"/>
       <c r="C150" s="16"/>
-      <c r="D150" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E150" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
-      <c r="H150" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H150" s="12"/>
       <c r="I150" s="12"/>
       <c r="J150" s="12"/>
       <c r="K150" s="12"/>
-      <c r="L150" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M150" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L150" s="12"/>
+      <c r="M150" s="13"/>
     </row>
     <row r="151" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>324</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C151" s="16"/>
       <c r="D151" s="12" t="s">
         <v>177</v>
       </c>
@@ -5732,23 +5709,29 @@
       </c>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
+      <c r="H151" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
       <c r="K151" s="12"/>
       <c r="L151" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M151" s="13"/>
+      <c r="M151" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="152" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C152" s="16"/>
+        <v>291</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="D152" s="12" t="s">
         <v>177</v>
       </c>
@@ -5766,45 +5749,35 @@
       <c r="L152" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M152" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M152" s="13"/>
     </row>
     <row r="153" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="s">
-        <v>121</v>
+      <c r="A153" s="21" t="s">
+        <v>231</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="C153" s="16"/>
-      <c r="D153" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E153" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
-      <c r="H153" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H153" s="12"/>
       <c r="I153" s="12"/>
       <c r="J153" s="12"/>
       <c r="K153" s="12"/>
-      <c r="L153" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L153" s="12"/>
       <c r="M153" s="13" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C154" s="16"/>
       <c r="D154" s="12" t="s">
@@ -5830,10 +5803,10 @@
     </row>
     <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>260</v>
+        <v>114</v>
       </c>
       <c r="C155" s="16"/>
       <c r="D155" s="12" t="s">
@@ -5859,14 +5832,12 @@
     </row>
     <row r="156" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>324</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C156" s="16"/>
       <c r="D156" s="12" t="s">
         <v>177</v>
       </c>
@@ -5875,23 +5846,29 @@
       </c>
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
+      <c r="H156" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I156" s="12"/>
       <c r="J156" s="12"/>
       <c r="K156" s="12"/>
       <c r="L156" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M156" s="13"/>
+      <c r="M156" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="157" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C157" s="16"/>
+        <v>118</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="D157" s="12" t="s">
         <v>177</v>
       </c>
@@ -5900,25 +5877,21 @@
       </c>
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
-      <c r="H157" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="12"/>
       <c r="K157" s="12"/>
       <c r="L157" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M157" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M157" s="13"/>
     </row>
     <row r="158" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C158" s="16"/>
       <c r="D158" s="12" t="s">
@@ -5944,10 +5917,10 @@
     </row>
     <row r="159" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C159" s="16"/>
       <c r="D159" s="12" t="s">
@@ -5973,10 +5946,10 @@
     </row>
     <row r="160" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C160" s="16"/>
       <c r="D160" s="12" t="s">
@@ -6002,52 +5975,66 @@
     </row>
     <row r="161" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
+        <v>260</v>
+      </c>
+      <c r="C161" s="16"/>
+      <c r="D161" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
+      <c r="H161" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="I161" s="12"/>
       <c r="J161" s="12"/>
       <c r="K161" s="12"/>
-      <c r="L161" s="12"/>
-      <c r="M161" s="13"/>
+      <c r="L161" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M161" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>286</v>
+        <v>125</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="C162" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
+      <c r="D162" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
       <c r="J162" s="12"/>
       <c r="K162" s="12"/>
-      <c r="L162" s="12"/>
+      <c r="L162" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="M162" s="13"/>
     </row>
     <row r="163" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="12" t="s">
@@ -6073,10 +6060,10 @@
     </row>
     <row r="164" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C164" s="16"/>
       <c r="D164" s="12" t="s">
@@ -6102,10 +6089,10 @@
     </row>
     <row r="165" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C165" s="16"/>
       <c r="D165" s="12" t="s">
@@ -6129,13 +6116,171 @@
         <v>177</v>
       </c>
     </row>
+    <row r="166" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C166" s="16"/>
+      <c r="D166" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M166" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="13"/>
+    </row>
+    <row r="168" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="13"/>
+    </row>
+    <row r="169" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C169" s="16"/>
+      <c r="D169" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M169" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C170" s="16"/>
+      <c r="D170" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M170" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C171" s="16"/>
+      <c r="D171" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M171" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M165" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M165">
-      <sortCondition ref="A1:A165"/>
+  <autoFilter ref="A1:M171" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M171">
+      <sortCondition ref="A1:A171"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:M165">
+  <conditionalFormatting sqref="A2:M171">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>

--- a/Documentation/Transaction Codes.xlsx
+++ b/Documentation/Transaction Codes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KennyHawkins\Documents\Canal\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\~Standard Computers Inc\Canal\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9140D1F8-51E4-4AE6-8105-AC8A94BA6429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934EA99B-3785-44E2-AA52-A7D2875B183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4990264-3A6B-44C5-97BD-91A98D01CBB8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Available Canals" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Canals'!$A$1:$M$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Canals'!$A$1:$M$204</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="395">
   <si>
     <t>/</t>
   </si>
@@ -572,9 +572,6 @@
     <t>Superuser</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Accounting</t>
   </si>
   <si>
@@ -1101,6 +1098,132 @@
   </si>
   <si>
     <t>Find a Team</t>
+  </si>
+  <si>
+    <t>/AREAS/O</t>
+  </si>
+  <si>
+    <t>Open Area with Area ID</t>
+  </si>
+  <si>
+    <t>/BNS/O</t>
+  </si>
+  <si>
+    <t>Open Bin with Bin ID</t>
+  </si>
+  <si>
+    <t>/CATS/O</t>
+  </si>
+  <si>
+    <t>Open Catalog with Catalog ID</t>
+  </si>
+  <si>
+    <t>/CCS/O</t>
+  </si>
+  <si>
+    <t>Open Cost Center with ID</t>
+  </si>
+  <si>
+    <t>/OFFS</t>
+  </si>
+  <si>
+    <t>/OFFS/ARCHV</t>
+  </si>
+  <si>
+    <t>/OFFS/DEL</t>
+  </si>
+  <si>
+    <t>/OFFS/F</t>
+  </si>
+  <si>
+    <t>/OFFS/MOD</t>
+  </si>
+  <si>
+    <t>/OFFS/NEW</t>
+  </si>
+  <si>
+    <t>/OFFS/O</t>
+  </si>
+  <si>
+    <t>/CSTS/O</t>
+  </si>
+  <si>
+    <t>Open Customer with Customer ID</t>
+  </si>
+  <si>
+    <t>/DCSS/O</t>
+  </si>
+  <si>
+    <t>Open DC with DC ID</t>
+  </si>
+  <si>
+    <t>/DPTS/O</t>
+  </si>
+  <si>
+    <t>/EMPS/O</t>
+  </si>
+  <si>
+    <t>Open Employee with ID</t>
+  </si>
+  <si>
+    <t>Open Department with ID</t>
+  </si>
+  <si>
+    <t>/HR/POS/O</t>
+  </si>
+  <si>
+    <t>Open Position with ID</t>
+  </si>
+  <si>
+    <t>/WHS/O</t>
+  </si>
+  <si>
+    <t>Open Warehouse with Warehouse ID</t>
+  </si>
+  <si>
+    <t>/CSTS/MOD</t>
+  </si>
+  <si>
+    <t>/CSTS/ARCHV</t>
+  </si>
+  <si>
+    <t>/BOMS</t>
+  </si>
+  <si>
+    <t>/BOMS/NEW</t>
+  </si>
+  <si>
+    <t>/BOMS/F</t>
+  </si>
+  <si>
+    <t>/BOMS/MOD</t>
+  </si>
+  <si>
+    <t>/BOMS/O</t>
+  </si>
+  <si>
+    <t>/BOMS/DEL</t>
+  </si>
+  <si>
+    <t>/BOMS/ARCHV</t>
+  </si>
+  <si>
+    <t>/MOS</t>
+  </si>
+  <si>
+    <t>/MOS/NEW</t>
+  </si>
+  <si>
+    <t>/MOS/F</t>
+  </si>
+  <si>
+    <t>/MOS/DEL</t>
+  </si>
+  <si>
+    <t>/MOS/ARCHV</t>
+  </si>
+  <si>
+    <t>/MOS/O</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1665,43 +1788,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1712,43 +1835,23 @@
         <v>161</v>
       </c>
       <c r="C2" s="16"/>
-      <c r="D2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>274</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>275</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="12"/>
@@ -1760,45 +1863,35 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="12"/>
@@ -1810,19 +1903,17 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>283</v>
-      </c>
       <c r="C6" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1837,10 +1928,10 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>276</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>277</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="12"/>
@@ -1852,16 +1943,14 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>280</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>281</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="12"/>
@@ -1873,16 +1962,14 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>278</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>279</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="12"/>
@@ -1894,16 +1981,14 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="12"/>
@@ -1915,48 +2000,36 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1971,12 +2044,14 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" s="16"/>
+        <v>271</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1986,16 +2061,14 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="12"/>
@@ -2007,16 +2080,14 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="12"/>
@@ -2028,202 +2099,122 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L17" s="12"/>
       <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L18" s="12"/>
       <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>6</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>8</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="B20" s="19"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>212</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="B22" s="19"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -2231,55 +2222,33 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L23" s="12"/>
       <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -2291,47 +2260,35 @@
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C25" s="16"/>
-      <c r="D25" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -2339,588 +2296,330 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
-      <c r="M26" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="C28" s="16"/>
-      <c r="D28" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C29" s="16"/>
-      <c r="D29" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="C30" s="16"/>
-      <c r="D30" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>198</v>
+        <v>357</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
       <c r="C31" s="16"/>
-      <c r="D31" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>177</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-      <c r="K33" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
       <c r="M33" s="13"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>177</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C35" s="16"/>
-      <c r="D35" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M35" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L35" s="12"/>
+      <c r="M35" s="13"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="C36" s="16"/>
-      <c r="D36" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
       <c r="K36" s="12"/>
-      <c r="L36" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M36" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L36" s="12"/>
+      <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C37" s="16"/>
-      <c r="D37" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L37" s="12"/>
+      <c r="M37" s="13"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>21</v>
+        <v>359</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>22</v>
+        <v>360</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="D38" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
-      <c r="L38" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M38" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L38" s="12"/>
+      <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="C39" s="16"/>
-      <c r="D39" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="C40" s="16"/>
-      <c r="D40" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M40" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C41" s="16"/>
-      <c r="D41" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
-      <c r="L41" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L41" s="12"/>
+      <c r="M41" s="13"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
       <c r="M42" s="13"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -2932,306 +2631,204 @@
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
-      <c r="L44" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="13"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M45" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L45" s="12"/>
+      <c r="M45" s="13"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C46" s="16"/>
-      <c r="D46" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L46" s="12"/>
+      <c r="M46" s="13"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>28</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B47" s="19"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H47" s="12"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
-      <c r="L47" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M47" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L47" s="12"/>
+      <c r="M47" s="13"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
-      <c r="L48" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L48" s="12"/>
       <c r="M48" s="13"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>32</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="B49" s="19"/>
       <c r="C49" s="16"/>
-      <c r="D49" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
-      <c r="L49" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M49" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L49" s="12"/>
+      <c r="M49" s="13"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C50" s="16"/>
-      <c r="D50" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
-      <c r="L50" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M50" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L50" s="12"/>
+      <c r="M50" s="13"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>35</v>
+        <v>368</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>36</v>
+        <v>369</v>
       </c>
       <c r="C51" s="16"/>
-      <c r="D51" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
-      <c r="L51" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M51" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L51" s="12"/>
+      <c r="M51" s="13"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="C52" s="16"/>
-      <c r="D52" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
-      <c r="K52" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="13"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
       <c r="M53" s="13"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -3243,118 +2840,94 @@
     </row>
     <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B55" s="19"/>
+        <v>370</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>371</v>
+      </c>
       <c r="C55" s="16"/>
-      <c r="D55" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
-      <c r="K55" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="13"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="C56" s="16"/>
-      <c r="D56" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
-      <c r="K56" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="13"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
-      <c r="K57" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="13"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
-      <c r="K58" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="13"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -3362,226 +2935,154 @@
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
-      <c r="M59" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M59" s="13"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="C60" s="16"/>
-      <c r="D60" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
-      <c r="H60" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
-      <c r="L60" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M60" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L60" s="12"/>
+      <c r="M60" s="13"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="C61" s="16"/>
-      <c r="D61" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
-      <c r="H61" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
-      <c r="L61" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M61" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L61" s="12"/>
+      <c r="M61" s="13"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="C62" s="16"/>
-      <c r="D62" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
-      <c r="H62" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
-      <c r="L62" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M62" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L62" s="12"/>
+      <c r="M62" s="13"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C63" s="16"/>
-      <c r="D63" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
-      <c r="H63" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
-      <c r="L63" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M63" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L63" s="12"/>
+      <c r="M63" s="13"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
-      <c r="H64" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
-      <c r="L64" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M64" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L64" s="12"/>
+      <c r="M64" s="13"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C65" s="16"/>
-      <c r="D65" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
-      <c r="H65" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
-      <c r="L65" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M65" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L65" s="12"/>
+      <c r="M65" s="13"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C66" s="16"/>
-      <c r="D66" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H66" s="12"/>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
-      <c r="L66" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M66" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L66" s="12"/>
+      <c r="M66" s="13"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
-      <c r="F67" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
@@ -3592,48 +3093,34 @@
     </row>
     <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>241</v>
+        <v>373</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
       <c r="G68" s="12"/>
-      <c r="H68" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
-      <c r="L68" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L68" s="12"/>
       <c r="M68" s="13"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
-      <c r="F69" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
@@ -3644,13 +3131,13 @@
     </row>
     <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -3665,17 +3152,17 @@
     </row>
     <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C71" s="16"/>
+        <v>223</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
-      <c r="F71" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
@@ -3686,17 +3173,13 @@
     </row>
     <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>236</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B72" s="19"/>
       <c r="C72" s="16"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
-      <c r="F72" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
@@ -3707,84 +3190,50 @@
     </row>
     <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M73" s="13" t="s">
-        <v>177</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="13"/>
     </row>
     <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="C74" s="16"/>
-      <c r="D74" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
-      <c r="H74" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
-      <c r="L74" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M74" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L74" s="12"/>
+      <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>321</v>
+        <v>376</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>323</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C75" s="16"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -3798,124 +3247,88 @@
     </row>
     <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
-      <c r="L76" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L76" s="12"/>
       <c r="M76" s="13"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
-      <c r="H77" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
-      <c r="L77" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M77" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L77" s="12"/>
+      <c r="M77" s="13"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C78" s="16"/>
-      <c r="D78" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
-      <c r="H78" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
-      <c r="L78" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M78" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L78" s="12"/>
+      <c r="M78" s="13"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C79" s="16"/>
-      <c r="D79" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
-      <c r="H79" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
-      <c r="L79" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M79" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L79" s="12"/>
+      <c r="M79" s="13"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="12"/>
@@ -3927,16 +3340,14 @@
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
-      <c r="M80" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M80" s="13"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>248</v>
+        <v>43</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="12"/>
@@ -3948,16 +3359,14 @@
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
-      <c r="M81" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M81" s="13"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>252</v>
+        <v>46</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="12"/>
@@ -3969,16 +3378,14 @@
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
-      <c r="M82" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M82" s="13"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>253</v>
+        <v>47</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="12"/>
@@ -3990,16 +3397,14 @@
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
-      <c r="M83" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M83" s="13"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>257</v>
+        <v>50</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="12"/>
@@ -4011,16 +3416,14 @@
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
-      <c r="M84" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M84" s="13"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="12"/>
@@ -4032,1064 +3435,650 @@
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
-      <c r="M85" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M85" s="13"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
       <c r="G86" s="12"/>
-      <c r="H86" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
-      <c r="L86" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M86" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L86" s="12"/>
+      <c r="M86" s="13"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C87" s="16"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
-      <c r="L87" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L87" s="12"/>
       <c r="M87" s="13"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>65</v>
+        <v>318</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
       <c r="G88" s="12"/>
-      <c r="H88" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
-      <c r="L88" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M88" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L88" s="12"/>
+      <c r="M88" s="13"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="C89" s="16"/>
-      <c r="D89" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
       <c r="G89" s="12"/>
-      <c r="H89" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H89" s="12"/>
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
-      <c r="L89" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M89" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L89" s="12"/>
+      <c r="M89" s="13"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C90" s="16"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
       <c r="G90" s="12"/>
-      <c r="H90" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
-      <c r="L90" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L90" s="12"/>
       <c r="M90" s="13"/>
     </row>
     <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
       <c r="G91" s="12"/>
-      <c r="H91" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H91" s="12"/>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
-      <c r="L91" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M91" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L91" s="12"/>
+      <c r="M91" s="13"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>74</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="B92" s="19"/>
       <c r="C92" s="16"/>
-      <c r="D92" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
       <c r="G92" s="12"/>
-      <c r="H92" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H92" s="12"/>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
-      <c r="L92" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M92" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L92" s="12"/>
+      <c r="M92" s="13"/>
     </row>
     <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>76</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="B93" s="19"/>
       <c r="C93" s="16"/>
-      <c r="D93" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
       <c r="G93" s="12"/>
-      <c r="H93" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H93" s="12"/>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
-      <c r="L93" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M93" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L93" s="12"/>
+      <c r="M93" s="13"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>78</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="B94" s="19"/>
       <c r="C94" s="16"/>
-      <c r="D94" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
       <c r="G94" s="12"/>
-      <c r="H94" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
-      <c r="L94" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M94" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L94" s="12"/>
+      <c r="M94" s="13"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="B95" s="19"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
       <c r="G95" s="12"/>
-      <c r="H95" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H95" s="12"/>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
-      <c r="L95" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L95" s="12"/>
       <c r="M95" s="13"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>82</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="B96" s="19"/>
       <c r="C96" s="16"/>
-      <c r="D96" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
       <c r="G96" s="12"/>
-      <c r="H96" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
-      <c r="L96" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M96" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L96" s="12"/>
+      <c r="M96" s="13"/>
     </row>
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="B97" s="19"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
-      <c r="L97" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L97" s="12"/>
       <c r="M97" s="13"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C98" s="16"/>
-      <c r="D98" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
       <c r="G98" s="12"/>
-      <c r="H98" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H98" s="12"/>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
-      <c r="L98" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M98" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L98" s="12"/>
+      <c r="M98" s="13"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>87</v>
+        <v>320</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
       <c r="G99" s="12"/>
-      <c r="H99" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H99" s="12"/>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
-      <c r="L99" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M99" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L99" s="12"/>
+      <c r="M99" s="13"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
       <c r="G100" s="12"/>
-      <c r="H100" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H100" s="12"/>
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
-      <c r="L100" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M100" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L100" s="12"/>
+      <c r="M100" s="13"/>
     </row>
     <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="C101" s="16"/>
-      <c r="D101" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
       <c r="G101" s="12"/>
-      <c r="H101" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H101" s="12"/>
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
-      <c r="L101" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M101" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L101" s="12"/>
+      <c r="M101" s="13"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C102" s="16"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
       <c r="G102" s="12"/>
-      <c r="H102" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
-      <c r="L102" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L102" s="12"/>
       <c r="M102" s="13"/>
     </row>
     <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C103" s="16"/>
-      <c r="D103" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
       <c r="G103" s="12"/>
-      <c r="H103" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
-      <c r="L103" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M103" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L103" s="12"/>
+      <c r="M103" s="13"/>
     </row>
     <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C104" s="16"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
-      <c r="L104" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L104" s="12"/>
       <c r="M104" s="13"/>
     </row>
     <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="C105" s="16"/>
-      <c r="D105" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F105" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
       <c r="G105" s="12"/>
-      <c r="H105" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
-      <c r="L105" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M105" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L105" s="12"/>
+      <c r="M105" s="13"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="C106" s="16"/>
-      <c r="D106" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
       <c r="G106" s="12"/>
-      <c r="H106" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
-      <c r="L106" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M106" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L106" s="12"/>
+      <c r="M106" s="13"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="C107" s="16"/>
-      <c r="D107" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
       <c r="G107" s="12"/>
-      <c r="H107" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H107" s="12"/>
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
-      <c r="L107" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M107" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L107" s="12"/>
+      <c r="M107" s="13"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="C108" s="16"/>
-      <c r="D108" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F108" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
       <c r="G108" s="12"/>
-      <c r="H108" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
-      <c r="L108" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M108" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L108" s="12"/>
+      <c r="M108" s="13"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>92</v>
+        <v>257</v>
       </c>
       <c r="C109" s="16"/>
-      <c r="D109" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
       <c r="G109" s="12"/>
-      <c r="H109" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
-      <c r="L109" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M109" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L109" s="12"/>
+      <c r="M109" s="13"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="B110" s="19"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
       <c r="G110" s="12"/>
-      <c r="H110" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
-      <c r="L110" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L110" s="12"/>
       <c r="M110" s="13"/>
     </row>
     <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>96</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B111" s="19"/>
       <c r="C111" s="16"/>
-      <c r="D111" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
       <c r="G111" s="12"/>
-      <c r="H111" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
-      <c r="L111" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M111" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
     </row>
     <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B112" s="19"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
-      <c r="L112" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L112" s="12"/>
       <c r="M112" s="13"/>
     </row>
     <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>100</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="B113" s="19"/>
       <c r="C113" s="16"/>
-      <c r="D113" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
       <c r="G113" s="12"/>
-      <c r="H113" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
-      <c r="L113" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M113" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L113" s="12"/>
+      <c r="M113" s="13"/>
     </row>
     <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>102</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B114" s="19"/>
       <c r="C114" s="16"/>
-      <c r="D114" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
       <c r="G114" s="12"/>
-      <c r="H114" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
-      <c r="L114" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M114" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L114" s="12"/>
+      <c r="M114" s="13"/>
     </row>
     <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>104</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B115" s="19"/>
       <c r="C115" s="16"/>
-      <c r="D115" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
       <c r="G115" s="12"/>
-      <c r="H115" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
-      <c r="L115" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M115" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L115" s="12"/>
+      <c r="M115" s="13"/>
     </row>
     <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>106</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="B116" s="19"/>
       <c r="C116" s="16"/>
-      <c r="D116" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
-      <c r="H116" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H116" s="12"/>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
-      <c r="L116" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M116" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L116" s="12"/>
+      <c r="M116" s="13"/>
     </row>
     <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="C117" s="16"/>
-      <c r="D117" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
-      <c r="H117" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
-      <c r="L117" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M117" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L117" s="12"/>
+      <c r="M117" s="13"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
-      <c r="H118" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H118" s="12"/>
       <c r="I118" s="12"/>
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
-      <c r="L118" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M118" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L118" s="12"/>
+      <c r="M118" s="13"/>
     </row>
     <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C119" s="16"/>
-      <c r="D119" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
-      <c r="H119" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
-      <c r="L119" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M119" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L119" s="12"/>
+      <c r="M119" s="13"/>
     </row>
     <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C120" s="16"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
@@ -5097,16 +4086,18 @@
       <c r="J120" s="12"/>
       <c r="K120" s="12"/>
       <c r="L120" s="12"/>
-      <c r="M120" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M120" s="13"/>
     </row>
     <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="B121" s="19"/>
-      <c r="C121" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>322</v>
+      </c>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
@@ -5120,10 +4111,10 @@
     </row>
     <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>349</v>
+        <v>71</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>350</v>
+        <v>72</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="12"/>
@@ -5139,10 +4130,10 @@
     </row>
     <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="C123" s="16"/>
       <c r="D123" s="12"/>
@@ -5158,10 +4149,10 @@
     </row>
     <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>352</v>
+        <v>75</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="C124" s="16"/>
       <c r="D124" s="12"/>
@@ -5177,10 +4168,10 @@
     </row>
     <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="C125" s="16"/>
       <c r="D125" s="12"/>
@@ -5196,12 +4187,14 @@
     </row>
     <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="C126" s="16"/>
+        <v>80</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>322</v>
+      </c>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
@@ -5215,10 +4208,10 @@
     </row>
     <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="C127" s="16"/>
       <c r="D127" s="12"/>
@@ -5230,16 +4223,14 @@
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
       <c r="L127" s="12"/>
-      <c r="M127" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M127" s="13"/>
     </row>
     <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>306</v>
+        <v>84</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>323</v>
@@ -5257,14 +4248,12 @@
     </row>
     <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>303</v>
+        <v>85</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>324</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C129" s="16"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -5278,10 +4267,10 @@
     </row>
     <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>298</v>
+        <v>88</v>
       </c>
       <c r="C130" s="16"/>
       <c r="D130" s="12"/>
@@ -5293,16 +4282,14 @@
       <c r="J130" s="12"/>
       <c r="K130" s="12"/>
       <c r="L130" s="12"/>
-      <c r="M130" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M130" s="13"/>
     </row>
     <row r="131" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>301</v>
+        <v>89</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>302</v>
+        <v>90</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="12"/>
@@ -5314,16 +4301,14 @@
       <c r="J131" s="12"/>
       <c r="K131" s="12"/>
       <c r="L131" s="12"/>
-      <c r="M131" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M131" s="13"/>
     </row>
     <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>299</v>
+        <v>139</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>300</v>
+        <v>148</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="12"/>
@@ -5335,18 +4320,18 @@
       <c r="J132" s="12"/>
       <c r="K132" s="12"/>
       <c r="L132" s="12"/>
-      <c r="M132" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M132" s="13"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>325</v>
+        <v>140</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="C133" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>322</v>
+      </c>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
@@ -5356,20 +4341,16 @@
       <c r="J133" s="12"/>
       <c r="K133" s="12"/>
       <c r="L133" s="12"/>
-      <c r="M133" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M133" s="13"/>
     </row>
     <row r="134" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>326</v>
+        <v>141</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>323</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C134" s="16"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -5383,13 +4364,13 @@
     </row>
     <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
@@ -5404,10 +4385,10 @@
     </row>
     <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>328</v>
+        <v>146</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>308</v>
+        <v>147</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="12"/>
@@ -5419,16 +4400,14 @@
       <c r="J136" s="12"/>
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
-      <c r="M136" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M136" s="13"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>310</v>
+        <v>152</v>
       </c>
       <c r="C137" s="16"/>
       <c r="D137" s="12"/>
@@ -5440,16 +4419,14 @@
       <c r="J137" s="12"/>
       <c r="K137" s="12"/>
       <c r="L137" s="12"/>
-      <c r="M137" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M137" s="13"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>309</v>
+        <v>153</v>
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="12"/>
@@ -5461,16 +4438,14 @@
       <c r="J138" s="12"/>
       <c r="K138" s="12"/>
       <c r="L138" s="12"/>
-      <c r="M138" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M138" s="13"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>331</v>
+        <v>145</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>313</v>
+        <v>154</v>
       </c>
       <c r="C139" s="16"/>
       <c r="D139" s="12"/>
@@ -5482,20 +4457,16 @@
       <c r="J139" s="12"/>
       <c r="K139" s="12"/>
       <c r="L139" s="12"/>
-      <c r="M139" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M139" s="13"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>323</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C140" s="16"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
@@ -5509,13 +4480,13 @@
     </row>
     <row r="141" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>333</v>
+        <v>93</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>317</v>
+        <v>94</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
@@ -5530,10 +4501,10 @@
     </row>
     <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>334</v>
+        <v>95</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>314</v>
+        <v>96</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="12"/>
@@ -5545,18 +4516,18 @@
       <c r="J142" s="12"/>
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
-      <c r="M142" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M142" s="13"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>335</v>
+        <v>97</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="C143" s="16"/>
+        <v>98</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>323</v>
+      </c>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
@@ -5566,16 +4537,14 @@
       <c r="J143" s="12"/>
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
-      <c r="M143" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M143" s="13"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
-        <v>336</v>
+        <v>99</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="C144" s="16"/>
       <c r="D144" s="12"/>
@@ -5587,15 +4556,15 @@
       <c r="J144" s="12"/>
       <c r="K144" s="12"/>
       <c r="L144" s="12"/>
-      <c r="M144" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M144" s="13"/>
     </row>
     <row r="145" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B145" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="C145" s="16"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
@@ -5610,9 +4579,11 @@
     </row>
     <row r="146" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="B146" s="19"/>
+        <v>103</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="C146" s="16"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
@@ -5627,9 +4598,11 @@
     </row>
     <row r="147" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B147" s="19"/>
+        <v>105</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="C147" s="16"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
@@ -5644,9 +4617,11 @@
     </row>
     <row r="148" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B148" s="19"/>
+        <v>155</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="C148" s="16"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
@@ -5661,9 +4636,11 @@
     </row>
     <row r="149" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B149" s="19"/>
+        <v>159</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="C149" s="16"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
@@ -5678,9 +4655,11 @@
     </row>
     <row r="150" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B150" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="C150" s="16"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
@@ -5695,68 +4674,48 @@
     </row>
     <row r="151" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C151" s="16"/>
-      <c r="D151" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
-      <c r="H151" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
       <c r="K151" s="12"/>
-      <c r="L151" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M151" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L151" s="12"/>
+      <c r="M151" s="13"/>
     </row>
     <row r="152" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B152" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D152" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="B152" s="19"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
-      <c r="H152" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H152" s="12"/>
       <c r="I152" s="12"/>
       <c r="J152" s="12"/>
       <c r="K152" s="12"/>
-      <c r="L152" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L152" s="12"/>
       <c r="M152" s="13"/>
     </row>
     <row r="153" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="21" t="s">
-        <v>231</v>
+      <c r="A153" s="14" t="s">
+        <v>348</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>232</v>
+        <v>349</v>
       </c>
       <c r="C153" s="16"/>
       <c r="D153" s="12"/>
@@ -5768,393 +4727,271 @@
       <c r="J153" s="12"/>
       <c r="K153" s="12"/>
       <c r="L153" s="12"/>
-      <c r="M153" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="M153" s="13"/>
     </row>
     <row r="154" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>111</v>
+        <v>346</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>112</v>
+        <v>347</v>
       </c>
       <c r="C154" s="16"/>
-      <c r="D154" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E154" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
-      <c r="H154" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H154" s="12"/>
       <c r="I154" s="12"/>
       <c r="J154" s="12"/>
       <c r="K154" s="12"/>
-      <c r="L154" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M154" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L154" s="12"/>
+      <c r="M154" s="13"/>
     </row>
     <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>113</v>
+        <v>351</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>114</v>
+        <v>352</v>
       </c>
       <c r="C155" s="16"/>
-      <c r="D155" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E155" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
-      <c r="H155" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="12"/>
       <c r="K155" s="12"/>
-      <c r="L155" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M155" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L155" s="12"/>
+      <c r="M155" s="13"/>
     </row>
     <row r="156" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>115</v>
+        <v>344</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>116</v>
+        <v>345</v>
       </c>
       <c r="C156" s="16"/>
-      <c r="D156" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
-      <c r="H156" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H156" s="12"/>
       <c r="I156" s="12"/>
       <c r="J156" s="12"/>
       <c r="K156" s="12"/>
-      <c r="L156" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M156" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L156" s="12"/>
+      <c r="M156" s="13"/>
     </row>
     <row r="157" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>117</v>
+        <v>342</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C157" s="16"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="12"/>
       <c r="K157" s="12"/>
-      <c r="L157" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L157" s="12"/>
       <c r="M157" s="13"/>
     </row>
     <row r="158" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="C158" s="16"/>
-      <c r="D158" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E158" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
-      <c r="H158" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H158" s="12"/>
       <c r="I158" s="12"/>
       <c r="J158" s="12"/>
       <c r="K158" s="12"/>
-      <c r="L158" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M158" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L158" s="12"/>
+      <c r="M158" s="13"/>
     </row>
     <row r="159" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
-        <v>121</v>
+        <v>304</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C159" s="16"/>
-      <c r="D159" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E159" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
-      <c r="H159" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H159" s="12"/>
       <c r="I159" s="12"/>
       <c r="J159" s="12"/>
       <c r="K159" s="12"/>
-      <c r="L159" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M159" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L159" s="12"/>
+      <c r="M159" s="13"/>
     </row>
     <row r="160" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>123</v>
+        <v>302</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C160" s="16"/>
-      <c r="D160" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E160" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
       <c r="F160" s="12"/>
       <c r="G160" s="12"/>
-      <c r="H160" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H160" s="12"/>
       <c r="I160" s="12"/>
       <c r="J160" s="12"/>
       <c r="K160" s="12"/>
-      <c r="L160" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M160" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L160" s="12"/>
+      <c r="M160" s="13"/>
     </row>
     <row r="161" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="C161" s="16"/>
-      <c r="D161" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E161" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
-      <c r="H161" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H161" s="12"/>
       <c r="I161" s="12"/>
       <c r="J161" s="12"/>
       <c r="K161" s="12"/>
-      <c r="L161" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M161" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L161" s="12"/>
+      <c r="M161" s="13"/>
     </row>
     <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D162" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E162" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C162" s="16"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
       <c r="J162" s="12"/>
       <c r="K162" s="12"/>
-      <c r="L162" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="L162" s="12"/>
       <c r="M162" s="13"/>
     </row>
     <row r="163" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
-        <v>127</v>
+        <v>298</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>128</v>
+        <v>299</v>
       </c>
       <c r="C163" s="16"/>
-      <c r="D163" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E163" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
-      <c r="H163" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H163" s="12"/>
       <c r="I163" s="12"/>
       <c r="J163" s="12"/>
       <c r="K163" s="12"/>
-      <c r="L163" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M163" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L163" s="12"/>
+      <c r="M163" s="13"/>
     </row>
     <row r="164" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
-        <v>129</v>
+        <v>324</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="C164" s="16"/>
-      <c r="D164" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E164" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
-      <c r="H164" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H164" s="12"/>
       <c r="I164" s="12"/>
       <c r="J164" s="12"/>
       <c r="K164" s="12"/>
-      <c r="L164" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M164" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L164" s="12"/>
+      <c r="M164" s="13"/>
     </row>
     <row r="165" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
-        <v>131</v>
+        <v>325</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C165" s="16"/>
-      <c r="D165" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E165" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
-      <c r="H165" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H165" s="12"/>
       <c r="I165" s="12"/>
       <c r="J165" s="12"/>
       <c r="K165" s="12"/>
-      <c r="L165" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M165" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L165" s="12"/>
+      <c r="M165" s="13"/>
     </row>
     <row r="166" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
-        <v>133</v>
+        <v>326</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C166" s="16"/>
-      <c r="D166" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E166" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
-      <c r="H166" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H166" s="12"/>
       <c r="I166" s="12"/>
       <c r="J166" s="12"/>
       <c r="K166" s="12"/>
-      <c r="L166" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M166" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L166" s="12"/>
+      <c r="M166" s="13"/>
     </row>
     <row r="167" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>323</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C167" s="16"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
@@ -6168,14 +5005,12 @@
     </row>
     <row r="168" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>324</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C168" s="16"/>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
@@ -6189,98 +5024,693 @@
     </row>
     <row r="169" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
-        <v>135</v>
+        <v>329</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>136</v>
+        <v>308</v>
       </c>
       <c r="C169" s="16"/>
-      <c r="D169" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E169" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
-      <c r="H169" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
       <c r="K169" s="12"/>
-      <c r="L169" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M169" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L169" s="12"/>
+      <c r="M169" s="13"/>
     </row>
     <row r="170" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>158</v>
+        <v>312</v>
       </c>
       <c r="C170" s="16"/>
-      <c r="D170" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E170" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
-      <c r="H170" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H170" s="12"/>
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
       <c r="K170" s="12"/>
-      <c r="L170" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M170" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L170" s="12"/>
+      <c r="M170" s="13"/>
     </row>
     <row r="171" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
-        <v>137</v>
+        <v>331</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C171" s="16"/>
-      <c r="D171" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E171" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
-      <c r="H171" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="H171" s="12"/>
       <c r="I171" s="12"/>
       <c r="J171" s="12"/>
       <c r="K171" s="12"/>
-      <c r="L171" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="M171" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="L171" s="12"/>
+      <c r="M171" s="13"/>
+    </row>
+    <row r="172" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="13"/>
+    </row>
+    <row r="173" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C173" s="16"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="13"/>
+    </row>
+    <row r="174" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C174" s="16"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="13"/>
+    </row>
+    <row r="175" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C175" s="16"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="13"/>
+    </row>
+    <row r="176" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B176" s="19"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="13"/>
+    </row>
+    <row r="177" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B177" s="19"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="13"/>
+    </row>
+    <row r="178" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B178" s="19"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="13"/>
+    </row>
+    <row r="179" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B179" s="19"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="13"/>
+    </row>
+    <row r="180" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B180" s="19"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="13"/>
+    </row>
+    <row r="181" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B181" s="19"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="12"/>
+      <c r="M181" s="13"/>
+    </row>
+    <row r="182" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C182" s="16"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="12"/>
+      <c r="M182" s="13"/>
+    </row>
+    <row r="183" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="12"/>
+      <c r="M183" s="13"/>
+    </row>
+    <row r="184" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C184" s="16"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="12"/>
+      <c r="M184" s="13"/>
+    </row>
+    <row r="185" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C185" s="16"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="12"/>
+      <c r="M185" s="13"/>
+    </row>
+    <row r="186" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C186" s="16"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="13"/>
+    </row>
+    <row r="187" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C187" s="16"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="13"/>
+    </row>
+    <row r="188" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="12"/>
+      <c r="M188" s="13"/>
+    </row>
+    <row r="189" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C189" s="16"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+      <c r="M189" s="13"/>
+    </row>
+    <row r="190" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C190" s="16"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="12"/>
+      <c r="M190" s="13"/>
+    </row>
+    <row r="191" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C191" s="16"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+      <c r="M191" s="13"/>
+    </row>
+    <row r="192" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C192" s="16"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="12"/>
+      <c r="M192" s="13"/>
+    </row>
+    <row r="193" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="12"/>
+      <c r="M193" s="13"/>
+    </row>
+    <row r="194" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C194" s="16"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="13"/>
+    </row>
+    <row r="195" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C195" s="16"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="13"/>
+    </row>
+    <row r="196" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C196" s="16"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="13"/>
+    </row>
+    <row r="197" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B197" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C197" s="16"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="13"/>
+    </row>
+    <row r="198" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B198" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C198" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="13"/>
+    </row>
+    <row r="199" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B199" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="12"/>
+      <c r="L199" s="12"/>
+      <c r="M199" s="13"/>
+    </row>
+    <row r="200" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C200" s="16"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="13"/>
+    </row>
+    <row r="201" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C201" s="16"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="13"/>
+    </row>
+    <row r="202" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C202" s="16"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
+      <c r="L202" s="12"/>
+      <c r="M202" s="13"/>
+    </row>
+    <row r="203" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B203" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C203" s="16"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="13"/>
+    </row>
+    <row r="204" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="14"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="12"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="12"/>
+      <c r="L204" s="12"/>
+      <c r="M204" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M171" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M171">
-      <sortCondition ref="A1:A171"/>
+  <autoFilter ref="A1:M204" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M204">
+      <sortCondition ref="A1:A204"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:M171">
+  <conditionalFormatting sqref="A2:M204">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>

--- a/Documentation/Transaction Codes.xlsx
+++ b/Documentation/Transaction Codes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C1316592\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\~Standard Computers Corp\Canal\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7433DCC-0889-465D-A101-2E3A8A225B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3054C78E-77DE-4EF5-97D9-36E0E365E898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4990264-3A6B-44C5-97BD-91A98D01CBB8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4990264-3A6B-44C5-97BD-91A98D01CBB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Available Canals" sheetId="1" r:id="rId1"/>
+    <sheet name="Locke Codes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Available Canals'!$A$1:$M$298</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Locke Codes'!$A$1:$N$309</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="631">
   <si>
     <t>/</t>
   </si>
@@ -1727,9 +1727,6 @@
     <t>/BOMS/BLK</t>
   </si>
   <si>
-    <t>Block a BOM from Use</t>
-  </si>
-  <si>
     <t>/CNL/DATA_CNTR</t>
   </si>
   <si>
@@ -1863,6 +1860,78 @@
   </si>
   <si>
     <t>Convert Purchase Orders to Sales Orders</t>
+  </si>
+  <si>
+    <t>/STK</t>
+  </si>
+  <si>
+    <t>View Stock (Inventory) for Location</t>
+  </si>
+  <si>
+    <t>/STK/MV/DFULL</t>
+  </si>
+  <si>
+    <t>Directed Move Full HU to Bin</t>
+  </si>
+  <si>
+    <t>/STK/MV/FULL</t>
+  </si>
+  <si>
+    <t>Move Full HU to Bin</t>
+  </si>
+  <si>
+    <t>/STK/MV/BB</t>
+  </si>
+  <si>
+    <t>Move Stock Bin to Bin</t>
+  </si>
+  <si>
+    <t>/STK/MV/BN</t>
+  </si>
+  <si>
+    <t>Move Stock Internally with HU, Bin, and Quantity</t>
+  </si>
+  <si>
+    <t>/STK/MOD/MV</t>
+  </si>
+  <si>
+    <t>Move Stock Internally (Move)</t>
+  </si>
+  <si>
+    <t>Block a BOM from Use (With Split Divisior)</t>
+  </si>
+  <si>
+    <t>Works?</t>
+  </si>
+  <si>
+    <t>/USRS/MOD/ALKS</t>
+  </si>
+  <si>
+    <t>Add Locke to User Access</t>
+  </si>
+  <si>
+    <t>/LGS/TRS/ADD</t>
+  </si>
+  <si>
+    <t>/LGS/TRS/CHG</t>
+  </si>
+  <si>
+    <t>Change Transaction Value</t>
+  </si>
+  <si>
+    <t>/LGS/TRS/ZR</t>
+  </si>
+  <si>
+    <t>Zero Transaction (Set Value to Zero)</t>
+  </si>
+  <si>
+    <t>Add Transaction to Ledger (By Value)</t>
+  </si>
+  <si>
+    <t>/LGS/TRS/STL</t>
+  </si>
+  <si>
+    <t>Settle Transaction</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2095,6 +2164,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2439,82 +2517,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-  <dimension ref="A1:M298"/>
+  <dimension ref="A1:N309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L142" sqref="L142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="D2" s="23"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="22" t="s">
+        <v>575</v>
+      </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -2523,19 +2605,20 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>255</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="D3" s="23"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="21" t="s">
+        <v>575</v>
+      </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -2544,17 +2627,18 @@
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>398</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -2563,17 +2647,18 @@
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>266</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -2582,17 +2667,18 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>242</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -2601,17 +2687,18 @@
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M6" s="23"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>517</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -2620,17 +2707,18 @@
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
-      <c r="M7" s="24"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>263</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -2639,17 +2727,18 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>373</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
@@ -2658,19 +2747,20 @@
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>257</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="D10" s="23"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="21" t="s">
+        <v>575</v>
+      </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -2679,17 +2769,18 @@
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="24"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>372</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
@@ -2698,17 +2789,18 @@
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
-      <c r="M11" s="24"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M11" s="23"/>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>261</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -2717,17 +2809,18 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>259</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
@@ -2736,19 +2829,20 @@
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="24"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>330</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="D14" s="23"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="21" t="s">
+        <v>575</v>
+      </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -2757,17 +2851,18 @@
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
@@ -2776,19 +2871,20 @@
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>243</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="D16" s="23"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="21" t="s">
+        <v>575</v>
+      </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
@@ -2797,17 +2893,18 @@
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="24"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>249</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
@@ -2816,17 +2913,18 @@
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>503</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -2835,17 +2933,18 @@
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
-      <c r="M18" s="24"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>518</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
@@ -2854,17 +2953,18 @@
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
-      <c r="M19" s="24"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>254</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
@@ -2873,17 +2973,18 @@
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
-      <c r="M20" s="24"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>377</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -2892,19 +2993,20 @@
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
-      <c r="M21" s="24"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>245</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="D22" s="23"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="21" t="s">
+        <v>575</v>
+      </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -2913,17 +3015,18 @@
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
-      <c r="M22" s="24"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>376</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
@@ -2932,17 +3035,18 @@
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
-      <c r="M23" s="24"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>251</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
@@ -2951,17 +3055,18 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
-      <c r="M24" s="24"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M24" s="23"/>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>247</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
@@ -2970,19 +3075,20 @@
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
-      <c r="M25" s="24"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M25" s="23"/>
+      <c r="N25" s="24"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>332</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="D26" s="23"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="21" t="s">
+        <v>575</v>
+      </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
@@ -2991,17 +3097,18 @@
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
-      <c r="M26" s="24"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M26" s="23"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>460</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -3010,17 +3117,18 @@
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M27" s="23"/>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>359</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -3029,17 +3137,18 @@
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
-      <c r="M28" s="24"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>365</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -3048,17 +3157,18 @@
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
-      <c r="M29" s="24"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M29" s="23"/>
+      <c r="N29" s="24"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>561</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="23"/>
+        <v>619</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
@@ -3067,17 +3177,18 @@
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
-      <c r="M30" s="24"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M30" s="23"/>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>364</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
@@ -3086,17 +3197,18 @@
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M31" s="23"/>
+      <c r="N31" s="24"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>361</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
@@ -3105,17 +3217,18 @@
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
-      <c r="M32" s="24"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M32" s="23"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>362</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
@@ -3124,17 +3237,18 @@
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
-      <c r="M33" s="24"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M33" s="23"/>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>360</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
@@ -3143,17 +3257,18 @@
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
-      <c r="M34" s="24"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M34" s="23"/>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>363</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
@@ -3162,17 +3277,18 @@
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
-      <c r="M35" s="24"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M35" s="23"/>
+      <c r="N35" s="24"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>401</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
@@ -3181,17 +3297,18 @@
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
-      <c r="M36" s="24"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M36" s="23"/>
+      <c r="N36" s="24"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
@@ -3200,17 +3317,18 @@
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
-      <c r="M37" s="24"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M37" s="23"/>
+      <c r="N37" s="24"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>274</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="23"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
@@ -3219,17 +3337,18 @@
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
-      <c r="M38" s="24"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M38" s="23"/>
+      <c r="N38" s="24"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>520</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
@@ -3238,17 +3357,18 @@
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
-      <c r="M39" s="24"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M39" s="23"/>
+      <c r="N39" s="24"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
@@ -3257,17 +3377,18 @@
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
-      <c r="M40" s="24"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M40" s="23"/>
+      <c r="N40" s="24"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
@@ -3276,17 +3397,18 @@
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="24"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M41" s="23"/>
+      <c r="N41" s="24"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
@@ -3295,17 +3417,18 @@
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
-      <c r="M42" s="24"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M42" s="23"/>
+      <c r="N42" s="24"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="23"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
@@ -3314,17 +3437,18 @@
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
-      <c r="M43" s="24"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M43" s="23"/>
+      <c r="N43" s="24"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>334</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
@@ -3333,17 +3457,18 @@
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="24"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M44" s="23"/>
+      <c r="N44" s="24"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>403</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="23"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
@@ -3352,19 +3477,20 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="24"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M45" s="23"/>
+      <c r="N45" s="24"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>195</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="D46" s="23"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="21" t="s">
+        <v>575</v>
+      </c>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
@@ -3373,17 +3499,18 @@
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="24"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M46" s="23"/>
+      <c r="N46" s="24"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>462</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="23"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
@@ -3392,17 +3519,18 @@
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
-      <c r="M47" s="24"/>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M47" s="23"/>
+      <c r="N47" s="24"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>192</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="23"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
@@ -3411,17 +3539,18 @@
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
-      <c r="M48" s="24"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M48" s="23"/>
+      <c r="N48" s="24"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>463</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="23"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
@@ -3430,17 +3559,18 @@
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
-      <c r="M49" s="24"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M49" s="23"/>
+      <c r="N49" s="24"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>190</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="23"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
@@ -3449,17 +3579,18 @@
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
-      <c r="M50" s="24"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M50" s="23"/>
+      <c r="N50" s="24"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>388</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="23"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
@@ -3468,19 +3599,20 @@
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
-      <c r="M51" s="24"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M51" s="23"/>
+      <c r="N51" s="24"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="D52" s="23"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="21" t="s">
+        <v>575</v>
+      </c>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
@@ -3489,17 +3621,18 @@
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
-      <c r="M52" s="24"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M52" s="23"/>
+      <c r="N52" s="24"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>387</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="23"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
@@ -3508,17 +3641,18 @@
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
-      <c r="M53" s="24"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M53" s="23"/>
+      <c r="N53" s="24"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>189</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="23"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
@@ -3527,17 +3661,18 @@
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
-      <c r="M54" s="24"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M54" s="23"/>
+      <c r="N54" s="24"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="23"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
@@ -3546,19 +3681,20 @@
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
-      <c r="M55" s="24"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M55" s="23"/>
+      <c r="N55" s="24"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>336</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="D56" s="23"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="21" t="s">
+        <v>575</v>
+      </c>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
@@ -3567,19 +3703,20 @@
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
-      <c r="M56" s="24"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M56" s="23"/>
+      <c r="N56" s="24"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>160</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="D57" s="23"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="22" t="s">
+        <v>575</v>
+      </c>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
@@ -3588,19 +3725,20 @@
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
-      <c r="M57" s="24"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M57" s="23"/>
+      <c r="N57" s="24"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>162</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="D58" s="23"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="22" t="s">
+        <v>575</v>
+      </c>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
@@ -3609,19 +3747,20 @@
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
-      <c r="M58" s="24"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M58" s="23"/>
+      <c r="N58" s="24"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="D59" s="23"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="22" t="s">
+        <v>575</v>
+      </c>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
@@ -3630,44 +3769,46 @@
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
-      <c r="M59" s="24"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M59" s="23"/>
+      <c r="N59" s="24"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="23" t="s">
-        <v>576</v>
-      </c>
+      <c r="C60" s="30"/>
+      <c r="D60" s="21"/>
       <c r="E60" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="F60" s="23"/>
+        <v>575</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="G60" s="23"/>
-      <c r="H60" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="I60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="J60" s="23"/>
       <c r="K60" s="23"/>
-      <c r="L60" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="M60" s="24"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L60" s="23"/>
+      <c r="M60" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="N60" s="24"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="23"/>
+        <v>579</v>
+      </c>
+      <c r="C61" s="30"/>
+      <c r="D61" s="21"/>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
@@ -3676,19 +3817,20 @@
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
-      <c r="M61" s="24"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M61" s="23"/>
+      <c r="N61" s="24"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>183</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="D62" s="23"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="22" t="s">
+        <v>575</v>
+      </c>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
@@ -3697,19 +3839,20 @@
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
-      <c r="M62" s="24"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M62" s="23"/>
+      <c r="N62" s="24"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>185</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="D63" s="23"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="22" t="s">
+        <v>575</v>
+      </c>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
@@ -3718,17 +3861,18 @@
       <c r="J63" s="23"/>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
-      <c r="M63" s="24"/>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M63" s="23"/>
+      <c r="N63" s="24"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>179</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="23"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="21"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
@@ -3737,17 +3881,18 @@
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
-      <c r="M64" s="24"/>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M64" s="23"/>
+      <c r="N64" s="24"/>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>227</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="23"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="21"/>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
@@ -3756,17 +3901,18 @@
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
-      <c r="M65" s="24"/>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M65" s="23"/>
+      <c r="N65" s="24"/>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="23"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="21"/>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
@@ -3775,17 +3921,18 @@
       <c r="J66" s="23"/>
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
-      <c r="M66" s="24"/>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M66" s="23"/>
+      <c r="N66" s="24"/>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>358</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="23"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="21"/>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
@@ -3794,17 +3941,18 @@
       <c r="J67" s="23"/>
       <c r="K67" s="23"/>
       <c r="L67" s="23"/>
-      <c r="M67" s="24"/>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M67" s="23"/>
+      <c r="N67" s="24"/>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>522</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="23"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="21"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
@@ -3813,17 +3961,18 @@
       <c r="J68" s="23"/>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
-      <c r="M68" s="24"/>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M68" s="23"/>
+      <c r="N68" s="24"/>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>407</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="23"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="21"/>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
@@ -3832,17 +3981,18 @@
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
-      <c r="M69" s="24"/>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M69" s="23"/>
+      <c r="N69" s="24"/>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="23"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="21"/>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
@@ -3851,17 +4001,18 @@
       <c r="J70" s="23"/>
       <c r="K70" s="23"/>
       <c r="L70" s="23"/>
-      <c r="M70" s="24"/>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M70" s="23"/>
+      <c r="N70" s="24"/>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>406</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="23"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="21"/>
       <c r="E71" s="23"/>
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
@@ -3870,17 +4021,18 @@
       <c r="J71" s="23"/>
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
-      <c r="M71" s="24"/>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M71" s="23"/>
+      <c r="N71" s="24"/>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>357</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="23"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="21"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
@@ -3889,17 +4041,18 @@
       <c r="J72" s="23"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
-      <c r="M72" s="24"/>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M72" s="23"/>
+      <c r="N72" s="24"/>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="23"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="21"/>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
@@ -3908,17 +4061,18 @@
       <c r="J73" s="23"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
-      <c r="M73" s="24"/>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M73" s="23"/>
+      <c r="N73" s="24"/>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>345</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="23"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="21"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
@@ -3927,17 +4081,18 @@
       <c r="J74" s="23"/>
       <c r="K74" s="23"/>
       <c r="L74" s="23"/>
-      <c r="M74" s="24"/>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M74" s="23"/>
+      <c r="N74" s="24"/>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>405</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="C75" s="21"/>
-      <c r="D75" s="23"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="21"/>
       <c r="E75" s="23"/>
       <c r="F75" s="23"/>
       <c r="G75" s="23"/>
@@ -3946,17 +4101,18 @@
       <c r="J75" s="23"/>
       <c r="K75" s="23"/>
       <c r="L75" s="23"/>
-      <c r="M75" s="24"/>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M75" s="23"/>
+      <c r="N75" s="24"/>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="23"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="21"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
       <c r="G76" s="23"/>
@@ -3965,17 +4121,18 @@
       <c r="J76" s="23"/>
       <c r="K76" s="23"/>
       <c r="L76" s="23"/>
-      <c r="M76" s="24"/>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M76" s="23"/>
+      <c r="N76" s="24"/>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>420</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="23"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="21"/>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
       <c r="G77" s="23"/>
@@ -3984,17 +4141,18 @@
       <c r="J77" s="23"/>
       <c r="K77" s="23"/>
       <c r="L77" s="23"/>
-      <c r="M77" s="24"/>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M77" s="23"/>
+      <c r="N77" s="24"/>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>524</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="23"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="21"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
@@ -4003,17 +4161,18 @@
       <c r="J78" s="23"/>
       <c r="K78" s="23"/>
       <c r="L78" s="23"/>
-      <c r="M78" s="24"/>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M78" s="23"/>
+      <c r="N78" s="24"/>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>419</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="23"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="21"/>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
@@ -4022,17 +4181,18 @@
       <c r="J79" s="23"/>
       <c r="K79" s="23"/>
       <c r="L79" s="23"/>
-      <c r="M79" s="24"/>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M79" s="23"/>
+      <c r="N79" s="24"/>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>414</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="23"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="21"/>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
       <c r="G80" s="23"/>
@@ -4041,17 +4201,18 @@
       <c r="J80" s="23"/>
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
-      <c r="M80" s="24"/>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M80" s="23"/>
+      <c r="N80" s="24"/>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="23"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="21"/>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
@@ -4060,17 +4221,18 @@
       <c r="J81" s="23"/>
       <c r="K81" s="23"/>
       <c r="L81" s="23"/>
-      <c r="M81" s="24"/>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M81" s="23"/>
+      <c r="N81" s="24"/>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>413</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="23"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="21"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
@@ -4079,17 +4241,18 @@
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
-      <c r="M82" s="24"/>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M82" s="23"/>
+      <c r="N82" s="24"/>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="21"/>
-      <c r="D83" s="23"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="21"/>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
       <c r="G83" s="23"/>
@@ -4098,17 +4261,18 @@
       <c r="J83" s="23"/>
       <c r="K83" s="23"/>
       <c r="L83" s="23"/>
-      <c r="M83" s="24"/>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M83" s="23"/>
+      <c r="N83" s="24"/>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>347</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="23"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="21"/>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
       <c r="G84" s="23"/>
@@ -4117,17 +4281,18 @@
       <c r="J84" s="23"/>
       <c r="K84" s="23"/>
       <c r="L84" s="23"/>
-      <c r="M84" s="24"/>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M84" s="23"/>
+      <c r="N84" s="24"/>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>415</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="23"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="21"/>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
@@ -4136,17 +4301,18 @@
       <c r="J85" s="23"/>
       <c r="K85" s="23"/>
       <c r="L85" s="23"/>
-      <c r="M85" s="24"/>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M85" s="23"/>
+      <c r="N85" s="24"/>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>152</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C86" s="21"/>
-      <c r="D86" s="23"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="21"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
       <c r="G86" s="23"/>
@@ -4155,17 +4321,18 @@
       <c r="J86" s="23"/>
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
-      <c r="M86" s="24"/>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M86" s="23"/>
+      <c r="N86" s="24"/>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>197</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C87" s="21"/>
-      <c r="D87" s="23"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="21"/>
       <c r="E87" s="23"/>
       <c r="F87" s="23"/>
       <c r="G87" s="23"/>
@@ -4174,17 +4341,18 @@
       <c r="J87" s="23"/>
       <c r="K87" s="23"/>
       <c r="L87" s="23"/>
-      <c r="M87" s="24"/>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M87" s="23"/>
+      <c r="N87" s="24"/>
+    </row>
+    <row r="88" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>187</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C88" s="21"/>
-      <c r="D88" s="23"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="21"/>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
       <c r="G88" s="23"/>
@@ -4193,17 +4361,18 @@
       <c r="J88" s="23"/>
       <c r="K88" s="23"/>
       <c r="L88" s="23"/>
-      <c r="M88" s="24"/>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M88" s="23"/>
+      <c r="N88" s="24"/>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>467</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="C89" s="21"/>
-      <c r="D89" s="23"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="21"/>
       <c r="E89" s="23"/>
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
@@ -4212,17 +4381,18 @@
       <c r="J89" s="23"/>
       <c r="K89" s="23"/>
       <c r="L89" s="23"/>
-      <c r="M89" s="24"/>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M89" s="23"/>
+      <c r="N89" s="24"/>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>153</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="23"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="21"/>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
@@ -4231,17 +4401,18 @@
       <c r="J90" s="23"/>
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
-      <c r="M90" s="24"/>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M90" s="23"/>
+      <c r="N90" s="24"/>
+    </row>
+    <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>466</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="C91" s="21"/>
-      <c r="D91" s="23"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="21"/>
       <c r="E91" s="23"/>
       <c r="F91" s="23"/>
       <c r="G91" s="23"/>
@@ -4250,17 +4421,18 @@
       <c r="J91" s="23"/>
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
-      <c r="M91" s="24"/>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M91" s="23"/>
+      <c r="N91" s="24"/>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>155</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="23"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="21"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
       <c r="G92" s="23"/>
@@ -4269,17 +4441,18 @@
       <c r="J92" s="23"/>
       <c r="K92" s="23"/>
       <c r="L92" s="23"/>
-      <c r="M92" s="24"/>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M92" s="23"/>
+      <c r="N92" s="24"/>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>154</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="21"/>
-      <c r="D93" s="23"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="21"/>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
       <c r="G93" s="23"/>
@@ -4288,17 +4461,18 @@
       <c r="J93" s="23"/>
       <c r="K93" s="23"/>
       <c r="L93" s="23"/>
-      <c r="M93" s="24"/>
-    </row>
-    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M93" s="23"/>
+      <c r="N93" s="24"/>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>349</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="23"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="21"/>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
       <c r="G94" s="23"/>
@@ -4307,17 +4481,18 @@
       <c r="J94" s="23"/>
       <c r="K94" s="23"/>
       <c r="L94" s="23"/>
-      <c r="M94" s="24"/>
-    </row>
-    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M94" s="23"/>
+      <c r="N94" s="24"/>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>468</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="C95" s="21"/>
-      <c r="D95" s="23"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="21"/>
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
       <c r="G95" s="23"/>
@@ -4326,19 +4501,20 @@
       <c r="J95" s="23"/>
       <c r="K95" s="23"/>
       <c r="L95" s="23"/>
-      <c r="M95" s="24"/>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M95" s="23"/>
+      <c r="N95" s="24"/>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="D96" s="23"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="22" t="s">
+        <v>575</v>
+      </c>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
       <c r="G96" s="23"/>
@@ -4347,17 +4523,18 @@
       <c r="J96" s="23"/>
       <c r="K96" s="23"/>
       <c r="L96" s="23"/>
-      <c r="M96" s="24"/>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M96" s="23"/>
+      <c r="N96" s="24"/>
+    </row>
+    <row r="97" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="B97" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="B97" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="C97" s="22"/>
-      <c r="D97" s="23"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="22"/>
       <c r="E97" s="23"/>
       <c r="F97" s="23"/>
       <c r="G97" s="23"/>
@@ -4366,17 +4543,18 @@
       <c r="J97" s="23"/>
       <c r="K97" s="23"/>
       <c r="L97" s="23"/>
-      <c r="M97" s="24"/>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M97" s="23"/>
+      <c r="N97" s="24"/>
+    </row>
+    <row r="98" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>526</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="C98" s="21"/>
-      <c r="D98" s="23"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="21"/>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
       <c r="G98" s="23"/>
@@ -4385,17 +4563,18 @@
       <c r="J98" s="23"/>
       <c r="K98" s="23"/>
       <c r="L98" s="23"/>
-      <c r="M98" s="24"/>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M98" s="23"/>
+      <c r="N98" s="24"/>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C99" s="21"/>
-      <c r="D99" s="23"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="21"/>
       <c r="E99" s="23"/>
       <c r="F99" s="23"/>
       <c r="G99" s="23"/>
@@ -4404,17 +4583,18 @@
       <c r="J99" s="23"/>
       <c r="K99" s="23"/>
       <c r="L99" s="23"/>
-      <c r="M99" s="24"/>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M99" s="23"/>
+      <c r="N99" s="24"/>
+    </row>
+    <row r="100" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>456</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="C100" s="21"/>
-      <c r="D100" s="23"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="21"/>
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
       <c r="G100" s="23"/>
@@ -4423,17 +4603,18 @@
       <c r="J100" s="23"/>
       <c r="K100" s="23"/>
       <c r="L100" s="23"/>
-      <c r="M100" s="24"/>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M100" s="23"/>
+      <c r="N100" s="24"/>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="21"/>
-      <c r="D101" s="23"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="21"/>
       <c r="E101" s="23"/>
       <c r="F101" s="23"/>
       <c r="G101" s="23"/>
@@ -4442,17 +4623,18 @@
       <c r="J101" s="23"/>
       <c r="K101" s="23"/>
       <c r="L101" s="23"/>
-      <c r="M101" s="24"/>
-    </row>
-    <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M101" s="23"/>
+      <c r="N101" s="24"/>
+    </row>
+    <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>455</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="C102" s="21"/>
-      <c r="D102" s="23"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="21"/>
       <c r="E102" s="23"/>
       <c r="F102" s="23"/>
       <c r="G102" s="23"/>
@@ -4461,17 +4643,18 @@
       <c r="J102" s="23"/>
       <c r="K102" s="23"/>
       <c r="L102" s="23"/>
-      <c r="M102" s="24"/>
-    </row>
-    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M102" s="23"/>
+      <c r="N102" s="24"/>
+    </row>
+    <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C103" s="21"/>
-      <c r="D103" s="23"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="21"/>
       <c r="E103" s="23"/>
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
@@ -4480,17 +4663,18 @@
       <c r="J103" s="23"/>
       <c r="K103" s="23"/>
       <c r="L103" s="23"/>
-      <c r="M103" s="24"/>
-    </row>
-    <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M103" s="23"/>
+      <c r="N103" s="24"/>
+    </row>
+    <row r="104" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C104" s="21"/>
-      <c r="D104" s="23"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="21"/>
       <c r="E104" s="23"/>
       <c r="F104" s="23"/>
       <c r="G104" s="23"/>
@@ -4499,19 +4683,20 @@
       <c r="J104" s="23"/>
       <c r="K104" s="23"/>
       <c r="L104" s="23"/>
-      <c r="M104" s="24"/>
-    </row>
-    <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M104" s="23"/>
+      <c r="N104" s="24"/>
+    </row>
+    <row r="105" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>350</v>
       </c>
       <c r="B105" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C105" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="D105" s="23"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="22" t="s">
+        <v>575</v>
+      </c>
       <c r="E105" s="23"/>
       <c r="F105" s="23"/>
       <c r="G105" s="23"/>
@@ -4520,19 +4705,20 @@
       <c r="J105" s="23"/>
       <c r="K105" s="23"/>
       <c r="L105" s="23"/>
-      <c r="M105" s="24"/>
-    </row>
-    <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M105" s="23"/>
+      <c r="N105" s="24"/>
+    </row>
+    <row r="106" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>454</v>
       </c>
       <c r="B106" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="C106" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="D106" s="23"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="22" t="s">
+        <v>575</v>
+      </c>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
       <c r="G106" s="23"/>
@@ -4541,17 +4727,18 @@
       <c r="J106" s="23"/>
       <c r="K106" s="23"/>
       <c r="L106" s="23"/>
-      <c r="M106" s="24"/>
-    </row>
-    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M106" s="23"/>
+      <c r="N106" s="24"/>
+    </row>
+    <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>476</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="C107" s="21"/>
-      <c r="D107" s="23"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="21"/>
       <c r="E107" s="23"/>
       <c r="F107" s="23"/>
       <c r="G107" s="23"/>
@@ -4560,17 +4747,18 @@
       <c r="J107" s="23"/>
       <c r="K107" s="23"/>
       <c r="L107" s="23"/>
-      <c r="M107" s="24"/>
-    </row>
-    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M107" s="23"/>
+      <c r="N107" s="24"/>
+    </row>
+    <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C108" s="21"/>
-      <c r="D108" s="23"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="21"/>
       <c r="E108" s="23"/>
       <c r="F108" s="23"/>
       <c r="G108" s="23"/>
@@ -4579,17 +4767,18 @@
       <c r="J108" s="23"/>
       <c r="K108" s="23"/>
       <c r="L108" s="23"/>
-      <c r="M108" s="24"/>
-    </row>
-    <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M108" s="23"/>
+      <c r="N108" s="24"/>
+    </row>
+    <row r="109" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>206</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C109" s="21"/>
-      <c r="D109" s="23"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="21"/>
       <c r="E109" s="23"/>
       <c r="F109" s="23"/>
       <c r="G109" s="23"/>
@@ -4598,17 +4787,18 @@
       <c r="J109" s="23"/>
       <c r="K109" s="23"/>
       <c r="L109" s="23"/>
-      <c r="M109" s="24"/>
-    </row>
-    <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M109" s="23"/>
+      <c r="N109" s="24"/>
+    </row>
+    <row r="110" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>205</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C110" s="21"/>
-      <c r="D110" s="23"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="21"/>
       <c r="E110" s="23"/>
       <c r="F110" s="23"/>
       <c r="G110" s="23"/>
@@ -4617,17 +4807,18 @@
       <c r="J110" s="23"/>
       <c r="K110" s="23"/>
       <c r="L110" s="23"/>
-      <c r="M110" s="24"/>
-    </row>
-    <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M110" s="23"/>
+      <c r="N110" s="24"/>
+    </row>
+    <row r="111" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>475</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C111" s="21"/>
-      <c r="D111" s="23"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="21"/>
       <c r="E111" s="23"/>
       <c r="F111" s="23"/>
       <c r="G111" s="23"/>
@@ -4636,17 +4827,18 @@
       <c r="J111" s="23"/>
       <c r="K111" s="23"/>
       <c r="L111" s="23"/>
-      <c r="M111" s="24"/>
-    </row>
-    <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M111" s="23"/>
+      <c r="N111" s="24"/>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>203</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="C112" s="21"/>
-      <c r="D112" s="23"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="21"/>
       <c r="E112" s="23"/>
       <c r="F112" s="23"/>
       <c r="G112" s="23"/>
@@ -4655,17 +4847,18 @@
       <c r="J112" s="23"/>
       <c r="K112" s="23"/>
       <c r="L112" s="23"/>
-      <c r="M112" s="24"/>
-    </row>
-    <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M112" s="23"/>
+      <c r="N112" s="24"/>
+    </row>
+    <row r="113" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>474</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="C113" s="21"/>
-      <c r="D113" s="23"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="21"/>
       <c r="E113" s="23"/>
       <c r="F113" s="23"/>
       <c r="G113" s="23"/>
@@ -4674,17 +4867,18 @@
       <c r="J113" s="23"/>
       <c r="K113" s="23"/>
       <c r="L113" s="23"/>
-      <c r="M113" s="24"/>
-    </row>
-    <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M113" s="23"/>
+      <c r="N113" s="24"/>
+    </row>
+    <row r="114" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>204</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C114" s="21"/>
-      <c r="D114" s="23"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="21"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
       <c r="G114" s="23"/>
@@ -4693,17 +4887,18 @@
       <c r="J114" s="23"/>
       <c r="K114" s="23"/>
       <c r="L114" s="23"/>
-      <c r="M114" s="24"/>
-    </row>
-    <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M114" s="23"/>
+      <c r="N114" s="24"/>
+    </row>
+    <row r="115" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>201</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C115" s="21"/>
-      <c r="D115" s="23"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="21"/>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
       <c r="G115" s="23"/>
@@ -4712,17 +4907,18 @@
       <c r="J115" s="23"/>
       <c r="K115" s="23"/>
       <c r="L115" s="23"/>
-      <c r="M115" s="24"/>
-    </row>
-    <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M115" s="23"/>
+      <c r="N115" s="24"/>
+    </row>
+    <row r="116" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>353</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C116" s="21"/>
-      <c r="D116" s="23"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="21"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
       <c r="G116" s="23"/>
@@ -4731,17 +4927,18 @@
       <c r="J116" s="23"/>
       <c r="K116" s="23"/>
       <c r="L116" s="23"/>
-      <c r="M116" s="24"/>
-    </row>
-    <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M116" s="23"/>
+      <c r="N116" s="24"/>
+    </row>
+    <row r="117" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>210</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C117" s="21"/>
-      <c r="D117" s="23"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="21"/>
       <c r="E117" s="23"/>
       <c r="F117" s="23"/>
       <c r="G117" s="23"/>
@@ -4750,17 +4947,18 @@
       <c r="J117" s="23"/>
       <c r="K117" s="23"/>
       <c r="L117" s="23"/>
-      <c r="M117" s="24"/>
-    </row>
-    <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M117" s="23"/>
+      <c r="N117" s="24"/>
+    </row>
+    <row r="118" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>176</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C118" s="21"/>
-      <c r="D118" s="23"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="21"/>
       <c r="E118" s="23"/>
       <c r="F118" s="23"/>
       <c r="G118" s="23"/>
@@ -4769,17 +4967,18 @@
       <c r="J118" s="23"/>
       <c r="K118" s="23"/>
       <c r="L118" s="23"/>
-      <c r="M118" s="24"/>
-    </row>
-    <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M118" s="23"/>
+      <c r="N118" s="24"/>
+    </row>
+    <row r="119" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C119" s="21"/>
-      <c r="D119" s="23"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="21"/>
       <c r="E119" s="23"/>
       <c r="F119" s="23"/>
       <c r="G119" s="23"/>
@@ -4788,17 +4987,18 @@
       <c r="J119" s="23"/>
       <c r="K119" s="23"/>
       <c r="L119" s="23"/>
-      <c r="M119" s="24"/>
-    </row>
-    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M119" s="23"/>
+      <c r="N119" s="24"/>
+    </row>
+    <row r="120" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>528</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="C120" s="21"/>
-      <c r="D120" s="23"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="21"/>
       <c r="E120" s="23"/>
       <c r="F120" s="23"/>
       <c r="G120" s="23"/>
@@ -4807,17 +5007,18 @@
       <c r="J120" s="23"/>
       <c r="K120" s="23"/>
       <c r="L120" s="23"/>
-      <c r="M120" s="24"/>
-    </row>
-    <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M120" s="23"/>
+      <c r="N120" s="24"/>
+    </row>
+    <row r="121" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>480</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="C121" s="21"/>
-      <c r="D121" s="23"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="21"/>
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
       <c r="G121" s="23"/>
@@ -4826,17 +5027,18 @@
       <c r="J121" s="23"/>
       <c r="K121" s="23"/>
       <c r="L121" s="23"/>
-      <c r="M121" s="24"/>
-    </row>
-    <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M121" s="23"/>
+      <c r="N121" s="24"/>
+    </row>
+    <row r="122" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="23"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="21"/>
       <c r="E122" s="23"/>
       <c r="F122" s="23"/>
       <c r="G122" s="23"/>
@@ -4845,17 +5047,18 @@
       <c r="J122" s="23"/>
       <c r="K122" s="23"/>
       <c r="L122" s="23"/>
-      <c r="M122" s="24"/>
-    </row>
-    <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M122" s="23"/>
+      <c r="N122" s="24"/>
+    </row>
+    <row r="123" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>481</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="C123" s="21"/>
-      <c r="D123" s="23"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="21"/>
       <c r="E123" s="23"/>
       <c r="F123" s="23"/>
       <c r="G123" s="23"/>
@@ -4864,17 +5067,18 @@
       <c r="J123" s="23"/>
       <c r="K123" s="23"/>
       <c r="L123" s="23"/>
-      <c r="M123" s="24"/>
-    </row>
-    <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M123" s="23"/>
+      <c r="N123" s="24"/>
+    </row>
+    <row r="124" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C124" s="21"/>
-      <c r="D124" s="23"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="21"/>
       <c r="E124" s="23"/>
       <c r="F124" s="23"/>
       <c r="G124" s="23"/>
@@ -4883,17 +5087,18 @@
       <c r="J124" s="23"/>
       <c r="K124" s="23"/>
       <c r="L124" s="23"/>
-      <c r="M124" s="24"/>
-    </row>
-    <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M124" s="23"/>
+      <c r="N124" s="24"/>
+    </row>
+    <row r="125" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C125" s="21"/>
-      <c r="D125" s="23"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="21"/>
       <c r="E125" s="23"/>
       <c r="F125" s="23"/>
       <c r="G125" s="23"/>
@@ -4902,17 +5107,18 @@
       <c r="J125" s="23"/>
       <c r="K125" s="23"/>
       <c r="L125" s="23"/>
-      <c r="M125" s="24"/>
-    </row>
-    <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M125" s="23"/>
+      <c r="N125" s="24"/>
+    </row>
+    <row r="126" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>482</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="C126" s="21"/>
-      <c r="D126" s="23"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="21"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
       <c r="G126" s="23"/>
@@ -4921,17 +5127,18 @@
       <c r="J126" s="23"/>
       <c r="K126" s="23"/>
       <c r="L126" s="23"/>
-      <c r="M126" s="24"/>
-    </row>
-    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M126" s="23"/>
+      <c r="N126" s="24"/>
+    </row>
+    <row r="127" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C127" s="21"/>
-      <c r="D127" s="23"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="21"/>
       <c r="E127" s="23"/>
       <c r="F127" s="23"/>
       <c r="G127" s="23"/>
@@ -4940,17 +5147,18 @@
       <c r="J127" s="23"/>
       <c r="K127" s="23"/>
       <c r="L127" s="23"/>
-      <c r="M127" s="24"/>
-    </row>
-    <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M127" s="23"/>
+      <c r="N127" s="24"/>
+    </row>
+    <row r="128" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>486</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="C128" s="21"/>
-      <c r="D128" s="23"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="21"/>
       <c r="E128" s="23"/>
       <c r="F128" s="23"/>
       <c r="G128" s="23"/>
@@ -4959,17 +5167,18 @@
       <c r="J128" s="23"/>
       <c r="K128" s="23"/>
       <c r="L128" s="23"/>
-      <c r="M128" s="24"/>
-    </row>
-    <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M128" s="23"/>
+      <c r="N128" s="24"/>
+    </row>
+    <row r="129" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>530</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="C129" s="21"/>
-      <c r="D129" s="23"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="21"/>
       <c r="E129" s="23"/>
       <c r="F129" s="23"/>
       <c r="G129" s="23"/>
@@ -4978,17 +5187,18 @@
       <c r="J129" s="23"/>
       <c r="K129" s="23"/>
       <c r="L129" s="23"/>
-      <c r="M129" s="24"/>
-    </row>
-    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M129" s="23"/>
+      <c r="N129" s="24"/>
+    </row>
+    <row r="130" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>488</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="C130" s="21"/>
-      <c r="D130" s="23"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="21"/>
       <c r="E130" s="23"/>
       <c r="F130" s="23"/>
       <c r="G130" s="23"/>
@@ -4997,17 +5207,18 @@
       <c r="J130" s="23"/>
       <c r="K130" s="23"/>
       <c r="L130" s="23"/>
-      <c r="M130" s="24"/>
-    </row>
-    <row r="131" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M130" s="23"/>
+      <c r="N130" s="24"/>
+    </row>
+    <row r="131" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C131" s="21"/>
-      <c r="D131" s="23"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="21"/>
       <c r="E131" s="23"/>
       <c r="F131" s="23"/>
       <c r="G131" s="23"/>
@@ -5016,17 +5227,18 @@
       <c r="J131" s="23"/>
       <c r="K131" s="23"/>
       <c r="L131" s="23"/>
-      <c r="M131" s="24"/>
-    </row>
-    <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M131" s="23"/>
+      <c r="N131" s="24"/>
+    </row>
+    <row r="132" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>493</v>
       </c>
       <c r="B132" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="C132" s="21"/>
-      <c r="D132" s="23"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="21"/>
       <c r="E132" s="23"/>
       <c r="F132" s="23"/>
       <c r="G132" s="23"/>
@@ -5035,17 +5247,18 @@
       <c r="J132" s="23"/>
       <c r="K132" s="23"/>
       <c r="L132" s="23"/>
-      <c r="M132" s="24"/>
-    </row>
-    <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M132" s="23"/>
+      <c r="N132" s="24"/>
+    </row>
+    <row r="133" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B133" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C133" s="21"/>
-      <c r="D133" s="23"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="21"/>
       <c r="E133" s="23"/>
       <c r="F133" s="23"/>
       <c r="G133" s="23"/>
@@ -5054,17 +5267,18 @@
       <c r="J133" s="23"/>
       <c r="K133" s="23"/>
       <c r="L133" s="23"/>
-      <c r="M133" s="24"/>
-    </row>
-    <row r="134" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M133" s="23"/>
+      <c r="N133" s="24"/>
+    </row>
+    <row r="134" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>491</v>
       </c>
       <c r="B134" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="C134" s="21"/>
-      <c r="D134" s="23"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="21"/>
       <c r="E134" s="23"/>
       <c r="F134" s="23"/>
       <c r="G134" s="23"/>
@@ -5073,36 +5287,48 @@
       <c r="J134" s="23"/>
       <c r="K134" s="23"/>
       <c r="L134" s="23"/>
-      <c r="M134" s="24"/>
-    </row>
-    <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M134" s="23"/>
+      <c r="N134" s="24"/>
+    </row>
+    <row r="135" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>216</v>
       </c>
       <c r="B135" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C135" s="21"/>
-      <c r="D135" s="23"/>
+      <c r="C135" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="D135" s="21"/>
       <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23"/>
+      <c r="F135" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="G135" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="H135" s="23"/>
-      <c r="I135" s="23"/>
+      <c r="I135" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="J135" s="23"/>
       <c r="K135" s="23"/>
       <c r="L135" s="23"/>
-      <c r="M135" s="24"/>
-    </row>
-    <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M135" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="N135" s="24"/>
+    </row>
+    <row r="136" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>224</v>
       </c>
       <c r="B136" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C136" s="21"/>
-      <c r="D136" s="23"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="21"/>
       <c r="E136" s="23"/>
       <c r="F136" s="23"/>
       <c r="G136" s="23"/>
@@ -5111,17 +5337,18 @@
       <c r="J136" s="23"/>
       <c r="K136" s="23"/>
       <c r="L136" s="23"/>
-      <c r="M136" s="24"/>
-    </row>
-    <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M136" s="23"/>
+      <c r="N136" s="24"/>
+    </row>
+    <row r="137" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>222</v>
       </c>
       <c r="B137" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C137" s="21"/>
-      <c r="D137" s="23"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="21"/>
       <c r="E137" s="23"/>
       <c r="F137" s="23"/>
       <c r="G137" s="23"/>
@@ -5130,17 +5357,18 @@
       <c r="J137" s="23"/>
       <c r="K137" s="23"/>
       <c r="L137" s="23"/>
-      <c r="M137" s="24"/>
-    </row>
-    <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M137" s="23"/>
+      <c r="N137" s="24"/>
+    </row>
+    <row r="138" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>531</v>
       </c>
       <c r="B138" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="C138" s="21"/>
-      <c r="D138" s="23"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="21"/>
       <c r="E138" s="23"/>
       <c r="F138" s="23"/>
       <c r="G138" s="23"/>
@@ -5149,17 +5377,18 @@
       <c r="J138" s="23"/>
       <c r="K138" s="23"/>
       <c r="L138" s="23"/>
-      <c r="M138" s="24"/>
-    </row>
-    <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M138" s="23"/>
+      <c r="N138" s="24"/>
+    </row>
+    <row r="139" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>299</v>
       </c>
       <c r="B139" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C139" s="21"/>
-      <c r="D139" s="23"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="21"/>
       <c r="E139" s="23"/>
       <c r="F139" s="23"/>
       <c r="G139" s="23"/>
@@ -5168,17 +5397,18 @@
       <c r="J139" s="23"/>
       <c r="K139" s="23"/>
       <c r="L139" s="23"/>
-      <c r="M139" s="24"/>
-    </row>
-    <row r="140" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M139" s="23"/>
+      <c r="N139" s="24"/>
+    </row>
+    <row r="140" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>495</v>
       </c>
       <c r="B140" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="C140" s="21"/>
-      <c r="D140" s="23"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="21"/>
       <c r="E140" s="23"/>
       <c r="F140" s="23"/>
       <c r="G140" s="23"/>
@@ -5187,17 +5417,18 @@
       <c r="J140" s="23"/>
       <c r="K140" s="23"/>
       <c r="L140" s="23"/>
-      <c r="M140" s="24"/>
-    </row>
-    <row r="141" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M140" s="23"/>
+      <c r="N140" s="24"/>
+    </row>
+    <row r="141" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>220</v>
       </c>
       <c r="B141" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C141" s="21"/>
-      <c r="D141" s="23"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="21"/>
       <c r="E141" s="23"/>
       <c r="F141" s="23"/>
       <c r="G141" s="23"/>
@@ -5206,36 +5437,48 @@
       <c r="J141" s="23"/>
       <c r="K141" s="23"/>
       <c r="L141" s="23"/>
-      <c r="M141" s="24"/>
-    </row>
-    <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M141" s="23"/>
+      <c r="N141" s="24"/>
+    </row>
+    <row r="142" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="C142" s="21"/>
-      <c r="D142" s="23"/>
+        <v>592</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="D142" s="21"/>
       <c r="E142" s="23"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="23"/>
+      <c r="F142" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="G142" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="H142" s="23"/>
-      <c r="I142" s="23"/>
+      <c r="I142" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="J142" s="23"/>
       <c r="K142" s="23"/>
       <c r="L142" s="23"/>
-      <c r="M142" s="24"/>
-    </row>
-    <row r="143" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M142" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="N142" s="24"/>
+    </row>
+    <row r="143" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>218</v>
       </c>
       <c r="B143" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C143" s="21"/>
-      <c r="D143" s="23"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="21"/>
       <c r="E143" s="23"/>
       <c r="F143" s="23"/>
       <c r="G143" s="23"/>
@@ -5244,17 +5487,18 @@
       <c r="J143" s="23"/>
       <c r="K143" s="23"/>
       <c r="L143" s="23"/>
-      <c r="M143" s="24"/>
-    </row>
-    <row r="144" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M143" s="23"/>
+      <c r="N143" s="24"/>
+    </row>
+    <row r="144" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="B144" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="B144" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="C144" s="21"/>
-      <c r="D144" s="23"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="21"/>
       <c r="E144" s="23"/>
       <c r="F144" s="23"/>
       <c r="G144" s="23"/>
@@ -5263,17 +5507,18 @@
       <c r="J144" s="23"/>
       <c r="K144" s="23"/>
       <c r="L144" s="23"/>
-      <c r="M144" s="24"/>
-    </row>
-    <row r="145" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M144" s="23"/>
+      <c r="N144" s="24"/>
+    </row>
+    <row r="145" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="C145" s="21"/>
-      <c r="D145" s="23"/>
+        <v>593</v>
+      </c>
+      <c r="C145" s="30"/>
+      <c r="D145" s="21"/>
       <c r="E145" s="23"/>
       <c r="F145" s="23"/>
       <c r="G145" s="23"/>
@@ -5282,95 +5527,138 @@
       <c r="J145" s="23"/>
       <c r="K145" s="23"/>
       <c r="L145" s="23"/>
-      <c r="M145" s="24"/>
-    </row>
-    <row r="146" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
-        <v>590</v>
+      <c r="M145" s="23"/>
+      <c r="N145" s="24"/>
+    </row>
+    <row r="146" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="17" t="s">
+        <v>623</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="C146" s="21"/>
-      <c r="D146" s="23"/>
+        <v>628</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="D146" s="21"/>
       <c r="E146" s="23"/>
-      <c r="F146" s="23"/>
-      <c r="G146" s="23"/>
+      <c r="F146" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="G146" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="H146" s="23"/>
-      <c r="I146" s="23"/>
+      <c r="I146" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="J146" s="23"/>
       <c r="K146" s="23"/>
       <c r="L146" s="23"/>
-      <c r="M146" s="24"/>
-    </row>
-    <row r="147" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M146" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="N146" s="24"/>
+    </row>
+    <row r="147" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
-        <v>589</v>
+        <v>624</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="C147" s="21"/>
-      <c r="D147" s="23"/>
+        <v>625</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="D147" s="21"/>
       <c r="E147" s="23"/>
-      <c r="F147" s="23"/>
-      <c r="G147" s="23"/>
+      <c r="F147" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="G147" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="H147" s="23"/>
-      <c r="I147" s="23"/>
+      <c r="I147" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="J147" s="23"/>
       <c r="K147" s="23"/>
       <c r="L147" s="23"/>
-      <c r="M147" s="24"/>
-    </row>
-    <row r="148" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M147" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="N147" s="24"/>
+    </row>
+    <row r="148" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="C148" s="21"/>
-      <c r="D148" s="23"/>
+        <v>590</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="D148" s="21"/>
       <c r="E148" s="23"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="23"/>
+      <c r="F148" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="G148" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="H148" s="23"/>
-      <c r="I148" s="23"/>
+      <c r="I148" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="J148" s="23"/>
       <c r="K148" s="23"/>
       <c r="L148" s="23"/>
-      <c r="M148" s="24"/>
-    </row>
-    <row r="149" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B149" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C149" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="D149" s="23"/>
+      <c r="M148" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="N148" s="24"/>
+    </row>
+    <row r="149" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="D149" s="21"/>
       <c r="E149" s="23"/>
-      <c r="F149" s="23"/>
-      <c r="G149" s="23"/>
+      <c r="F149" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="G149" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="H149" s="23"/>
-      <c r="I149" s="23"/>
+      <c r="I149" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="J149" s="23"/>
       <c r="K149" s="23"/>
       <c r="L149" s="23"/>
-      <c r="M149" s="24"/>
-    </row>
-    <row r="150" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M149" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="N149" s="24"/>
+    </row>
+    <row r="150" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
-        <v>366</v>
+        <v>585</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="C150" s="21"/>
-      <c r="D150" s="23"/>
+        <v>586</v>
+      </c>
+      <c r="C150" s="30"/>
+      <c r="D150" s="21"/>
       <c r="E150" s="23"/>
       <c r="F150" s="23"/>
       <c r="G150" s="23"/>
@@ -5379,55 +5667,80 @@
       <c r="J150" s="23"/>
       <c r="K150" s="23"/>
       <c r="L150" s="23"/>
-      <c r="M150" s="24"/>
-    </row>
-    <row r="151" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M150" s="23"/>
+      <c r="N150" s="24"/>
+    </row>
+    <row r="151" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>370</v>
+        <v>629</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="C151" s="21"/>
-      <c r="D151" s="23"/>
+        <v>630</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="D151" s="21"/>
       <c r="E151" s="23"/>
-      <c r="F151" s="23"/>
-      <c r="G151" s="23"/>
+      <c r="F151" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="G151" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="H151" s="23"/>
-      <c r="I151" s="23"/>
+      <c r="I151" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="J151" s="23"/>
       <c r="K151" s="23"/>
       <c r="L151" s="23"/>
-      <c r="M151" s="24"/>
-    </row>
-    <row r="152" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="17" t="s">
-        <v>533</v>
+      <c r="M151" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="N151" s="24"/>
+    </row>
+    <row r="152" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="12" t="s">
+        <v>626</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="C152" s="21"/>
-      <c r="D152" s="23"/>
+        <v>627</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="D152" s="21"/>
       <c r="E152" s="23"/>
-      <c r="F152" s="23"/>
-      <c r="G152" s="23"/>
+      <c r="F152" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="G152" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="H152" s="23"/>
-      <c r="I152" s="23"/>
+      <c r="I152" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="J152" s="23"/>
       <c r="K152" s="23"/>
       <c r="L152" s="23"/>
-      <c r="M152" s="24"/>
-    </row>
-    <row r="153" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="C153" s="21"/>
-      <c r="D153" s="23"/>
+      <c r="M152" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="N152" s="24"/>
+    </row>
+    <row r="153" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C153" s="29"/>
+      <c r="D153" s="22" t="s">
+        <v>575</v>
+      </c>
       <c r="E153" s="23"/>
       <c r="F153" s="23"/>
       <c r="G153" s="23"/>
@@ -5436,17 +5749,18 @@
       <c r="J153" s="23"/>
       <c r="K153" s="23"/>
       <c r="L153" s="23"/>
-      <c r="M153" s="24"/>
-    </row>
-    <row r="154" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="17" t="s">
-        <v>431</v>
+      <c r="M153" s="23"/>
+      <c r="N153" s="24"/>
+    </row>
+    <row r="154" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="C154" s="21"/>
-      <c r="D154" s="23"/>
+        <v>423</v>
+      </c>
+      <c r="C154" s="30"/>
+      <c r="D154" s="21"/>
       <c r="E154" s="23"/>
       <c r="F154" s="23"/>
       <c r="G154" s="23"/>
@@ -5455,17 +5769,18 @@
       <c r="J154" s="23"/>
       <c r="K154" s="23"/>
       <c r="L154" s="23"/>
-      <c r="M154" s="24"/>
-    </row>
-    <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M154" s="23"/>
+      <c r="N154" s="24"/>
+    </row>
+    <row r="155" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="C155" s="21"/>
-      <c r="D155" s="23"/>
+        <v>424</v>
+      </c>
+      <c r="C155" s="30"/>
+      <c r="D155" s="21"/>
       <c r="E155" s="23"/>
       <c r="F155" s="23"/>
       <c r="G155" s="23"/>
@@ -5474,17 +5789,18 @@
       <c r="J155" s="23"/>
       <c r="K155" s="23"/>
       <c r="L155" s="23"/>
-      <c r="M155" s="24"/>
-    </row>
-    <row r="156" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M155" s="23"/>
+      <c r="N155" s="24"/>
+    </row>
+    <row r="156" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
-        <v>430</v>
+        <v>533</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="C156" s="21"/>
-      <c r="D156" s="23"/>
+        <v>534</v>
+      </c>
+      <c r="C156" s="30"/>
+      <c r="D156" s="21"/>
       <c r="E156" s="23"/>
       <c r="F156" s="23"/>
       <c r="G156" s="23"/>
@@ -5493,17 +5809,18 @@
       <c r="J156" s="23"/>
       <c r="K156" s="23"/>
       <c r="L156" s="23"/>
-      <c r="M156" s="24"/>
-    </row>
-    <row r="157" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M156" s="23"/>
+      <c r="N156" s="24"/>
+    </row>
+    <row r="157" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="C157" s="21"/>
-      <c r="D157" s="23"/>
+        <v>425</v>
+      </c>
+      <c r="C157" s="30"/>
+      <c r="D157" s="21"/>
       <c r="E157" s="23"/>
       <c r="F157" s="23"/>
       <c r="G157" s="23"/>
@@ -5512,17 +5829,18 @@
       <c r="J157" s="23"/>
       <c r="K157" s="23"/>
       <c r="L157" s="23"/>
-      <c r="M157" s="24"/>
-    </row>
-    <row r="158" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="12" t="s">
-        <v>371</v>
+      <c r="M157" s="23"/>
+      <c r="N157" s="24"/>
+    </row>
+    <row r="158" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="17" t="s">
+        <v>431</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="C158" s="21"/>
-      <c r="D158" s="23"/>
+        <v>434</v>
+      </c>
+      <c r="C158" s="30"/>
+      <c r="D158" s="21"/>
       <c r="E158" s="23"/>
       <c r="F158" s="23"/>
       <c r="G158" s="23"/>
@@ -5531,17 +5849,18 @@
       <c r="J158" s="23"/>
       <c r="K158" s="23"/>
       <c r="L158" s="23"/>
-      <c r="M158" s="24"/>
-    </row>
-    <row r="159" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="17" t="s">
-        <v>429</v>
+      <c r="M158" s="23"/>
+      <c r="N158" s="24"/>
+    </row>
+    <row r="159" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="C159" s="21"/>
-      <c r="D159" s="23"/>
+        <v>426</v>
+      </c>
+      <c r="C159" s="30"/>
+      <c r="D159" s="21"/>
       <c r="E159" s="23"/>
       <c r="F159" s="23"/>
       <c r="G159" s="23"/>
@@ -5550,17 +5869,18 @@
       <c r="J159" s="23"/>
       <c r="K159" s="23"/>
       <c r="L159" s="23"/>
-      <c r="M159" s="24"/>
-    </row>
-    <row r="160" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="12" t="s">
-        <v>229</v>
+      <c r="M159" s="23"/>
+      <c r="N159" s="24"/>
+    </row>
+    <row r="160" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="17" t="s">
+        <v>430</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C160" s="21"/>
-      <c r="D160" s="23"/>
+        <v>433</v>
+      </c>
+      <c r="C160" s="30"/>
+      <c r="D160" s="21"/>
       <c r="E160" s="23"/>
       <c r="F160" s="23"/>
       <c r="G160" s="23"/>
@@ -5569,17 +5889,18 @@
       <c r="J160" s="23"/>
       <c r="K160" s="23"/>
       <c r="L160" s="23"/>
-      <c r="M160" s="24"/>
-    </row>
-    <row r="161" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="17" t="s">
-        <v>501</v>
+      <c r="M160" s="23"/>
+      <c r="N160" s="24"/>
+    </row>
+    <row r="161" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="C161" s="21"/>
-      <c r="D161" s="23"/>
+        <v>427</v>
+      </c>
+      <c r="C161" s="30"/>
+      <c r="D161" s="21"/>
       <c r="E161" s="23"/>
       <c r="F161" s="23"/>
       <c r="G161" s="23"/>
@@ -5588,17 +5909,18 @@
       <c r="J161" s="23"/>
       <c r="K161" s="23"/>
       <c r="L161" s="23"/>
-      <c r="M161" s="24"/>
-    </row>
-    <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M161" s="23"/>
+      <c r="N161" s="24"/>
+    </row>
+    <row r="162" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
-        <v>498</v>
+        <v>371</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="C162" s="21"/>
-      <c r="D162" s="23"/>
+        <v>428</v>
+      </c>
+      <c r="C162" s="30"/>
+      <c r="D162" s="21"/>
       <c r="E162" s="23"/>
       <c r="F162" s="23"/>
       <c r="G162" s="23"/>
@@ -5607,17 +5929,18 @@
       <c r="J162" s="23"/>
       <c r="K162" s="23"/>
       <c r="L162" s="23"/>
-      <c r="M162" s="24"/>
-    </row>
-    <row r="163" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="12" t="s">
-        <v>230</v>
+      <c r="M162" s="23"/>
+      <c r="N162" s="24"/>
+    </row>
+    <row r="163" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="17" t="s">
+        <v>429</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C163" s="21"/>
-      <c r="D163" s="23"/>
+        <v>432</v>
+      </c>
+      <c r="C163" s="30"/>
+      <c r="D163" s="21"/>
       <c r="E163" s="23"/>
       <c r="F163" s="23"/>
       <c r="G163" s="23"/>
@@ -5626,17 +5949,18 @@
       <c r="J163" s="23"/>
       <c r="K163" s="23"/>
       <c r="L163" s="23"/>
-      <c r="M163" s="24"/>
-    </row>
-    <row r="164" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M163" s="23"/>
+      <c r="N163" s="24"/>
+    </row>
+    <row r="164" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
-        <v>497</v>
+        <v>229</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="C164" s="21"/>
-      <c r="D164" s="23"/>
+        <v>231</v>
+      </c>
+      <c r="C164" s="30"/>
+      <c r="D164" s="21"/>
       <c r="E164" s="23"/>
       <c r="F164" s="23"/>
       <c r="G164" s="23"/>
@@ -5645,17 +5969,18 @@
       <c r="J164" s="23"/>
       <c r="K164" s="23"/>
       <c r="L164" s="23"/>
-      <c r="M164" s="24"/>
-    </row>
-    <row r="165" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="12" t="s">
-        <v>233</v>
+      <c r="M164" s="23"/>
+      <c r="N164" s="24"/>
+    </row>
+    <row r="165" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="17" t="s">
+        <v>501</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C165" s="21"/>
-      <c r="D165" s="23"/>
+        <v>502</v>
+      </c>
+      <c r="C165" s="30"/>
+      <c r="D165" s="21"/>
       <c r="E165" s="23"/>
       <c r="F165" s="23"/>
       <c r="G165" s="23"/>
@@ -5664,17 +5989,18 @@
       <c r="J165" s="23"/>
       <c r="K165" s="23"/>
       <c r="L165" s="23"/>
-      <c r="M165" s="24"/>
-    </row>
-    <row r="166" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M165" s="23"/>
+      <c r="N165" s="24"/>
+    </row>
+    <row r="166" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
-        <v>235</v>
+        <v>498</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C166" s="21"/>
-      <c r="D166" s="23"/>
+        <v>500</v>
+      </c>
+      <c r="C166" s="30"/>
+      <c r="D166" s="21"/>
       <c r="E166" s="23"/>
       <c r="F166" s="23"/>
       <c r="G166" s="23"/>
@@ -5683,17 +6009,18 @@
       <c r="J166" s="23"/>
       <c r="K166" s="23"/>
       <c r="L166" s="23"/>
-      <c r="M166" s="24"/>
-    </row>
-    <row r="167" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M166" s="23"/>
+      <c r="N166" s="24"/>
+    </row>
+    <row r="167" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C167" s="21"/>
-      <c r="D167" s="23"/>
+        <v>232</v>
+      </c>
+      <c r="C167" s="30"/>
+      <c r="D167" s="21"/>
       <c r="E167" s="23"/>
       <c r="F167" s="23"/>
       <c r="G167" s="23"/>
@@ -5702,17 +6029,18 @@
       <c r="J167" s="23"/>
       <c r="K167" s="23"/>
       <c r="L167" s="23"/>
-      <c r="M167" s="24"/>
-    </row>
-    <row r="168" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M167" s="23"/>
+      <c r="N167" s="24"/>
+    </row>
+    <row r="168" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
-        <v>237</v>
+        <v>497</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C168" s="21"/>
-      <c r="D168" s="23"/>
+        <v>499</v>
+      </c>
+      <c r="C168" s="30"/>
+      <c r="D168" s="21"/>
       <c r="E168" s="23"/>
       <c r="F168" s="23"/>
       <c r="G168" s="23"/>
@@ -5721,19 +6049,18 @@
       <c r="J168" s="23"/>
       <c r="K168" s="23"/>
       <c r="L168" s="23"/>
-      <c r="M168" s="24"/>
-    </row>
-    <row r="169" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="18" t="s">
-        <v>564</v>
-      </c>
-      <c r="B169" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="C169" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="D169" s="23"/>
+      <c r="M168" s="23"/>
+      <c r="N168" s="24"/>
+    </row>
+    <row r="169" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C169" s="30"/>
+      <c r="D169" s="21"/>
       <c r="E169" s="23"/>
       <c r="F169" s="23"/>
       <c r="G169" s="23"/>
@@ -5742,17 +6069,18 @@
       <c r="J169" s="23"/>
       <c r="K169" s="23"/>
       <c r="L169" s="23"/>
-      <c r="M169" s="24"/>
-    </row>
-    <row r="170" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M169" s="23"/>
+      <c r="N169" s="24"/>
+    </row>
+    <row r="170" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="C170" s="21"/>
-      <c r="D170" s="23"/>
+        <v>238</v>
+      </c>
+      <c r="C170" s="30"/>
+      <c r="D170" s="21"/>
       <c r="E170" s="23"/>
       <c r="F170" s="23"/>
       <c r="G170" s="23"/>
@@ -5762,16 +6090,17 @@
       <c r="K170" s="23"/>
       <c r="L170" s="23"/>
       <c r="M170" s="23"/>
-    </row>
-    <row r="171" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N170" s="24"/>
+    </row>
+    <row r="171" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
-        <v>339</v>
+        <v>236</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="C171" s="21"/>
-      <c r="D171" s="23"/>
+        <v>239</v>
+      </c>
+      <c r="C171" s="30"/>
+      <c r="D171" s="21"/>
       <c r="E171" s="23"/>
       <c r="F171" s="23"/>
       <c r="G171" s="23"/>
@@ -5780,17 +6109,18 @@
       <c r="J171" s="23"/>
       <c r="K171" s="23"/>
       <c r="L171" s="23"/>
-      <c r="M171" s="24"/>
-    </row>
-    <row r="172" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M171" s="23"/>
+      <c r="N171" s="24"/>
+    </row>
+    <row r="172" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
-        <v>340</v>
+        <v>237</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="C172" s="21"/>
-      <c r="D172" s="23"/>
+        <v>240</v>
+      </c>
+      <c r="C172" s="30"/>
+      <c r="D172" s="21"/>
       <c r="E172" s="23"/>
       <c r="F172" s="23"/>
       <c r="G172" s="23"/>
@@ -5799,17 +6129,20 @@
       <c r="J172" s="23"/>
       <c r="K172" s="23"/>
       <c r="L172" s="23"/>
-      <c r="M172" s="24"/>
-    </row>
-    <row r="173" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="B173" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="C173" s="21"/>
-      <c r="D173" s="23"/>
+      <c r="M172" s="23"/>
+      <c r="N172" s="24"/>
+    </row>
+    <row r="173" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="C173" s="29"/>
+      <c r="D173" s="22" t="s">
+        <v>575</v>
+      </c>
       <c r="E173" s="23"/>
       <c r="F173" s="23"/>
       <c r="G173" s="23"/>
@@ -5818,17 +6151,18 @@
       <c r="J173" s="23"/>
       <c r="K173" s="23"/>
       <c r="L173" s="23"/>
-      <c r="M173" s="24"/>
-    </row>
-    <row r="174" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M173" s="23"/>
+      <c r="N173" s="24"/>
+    </row>
+    <row r="174" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="C174" s="21"/>
-      <c r="D174" s="23"/>
+        <v>435</v>
+      </c>
+      <c r="C174" s="30"/>
+      <c r="D174" s="21"/>
       <c r="E174" s="23"/>
       <c r="F174" s="23"/>
       <c r="G174" s="23"/>
@@ -5837,17 +6171,18 @@
       <c r="J174" s="23"/>
       <c r="K174" s="23"/>
       <c r="L174" s="23"/>
-      <c r="M174" s="24"/>
-    </row>
-    <row r="175" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M174" s="23"/>
+      <c r="N174" s="24"/>
+    </row>
+    <row r="175" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
-        <v>511</v>
+        <v>339</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C175" s="21"/>
-      <c r="D175" s="23"/>
+        <v>436</v>
+      </c>
+      <c r="C175" s="30"/>
+      <c r="D175" s="21"/>
       <c r="E175" s="23"/>
       <c r="F175" s="23"/>
       <c r="G175" s="23"/>
@@ -5856,17 +6191,18 @@
       <c r="J175" s="23"/>
       <c r="K175" s="23"/>
       <c r="L175" s="23"/>
-      <c r="M175" s="24"/>
-    </row>
-    <row r="176" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M175" s="23"/>
+      <c r="N175" s="24"/>
+    </row>
+    <row r="176" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="C176" s="21"/>
-      <c r="D176" s="23"/>
+        <v>437</v>
+      </c>
+      <c r="C176" s="30"/>
+      <c r="D176" s="21"/>
       <c r="E176" s="23"/>
       <c r="F176" s="23"/>
       <c r="G176" s="23"/>
@@ -5875,17 +6211,18 @@
       <c r="J176" s="23"/>
       <c r="K176" s="23"/>
       <c r="L176" s="23"/>
-      <c r="M176" s="24"/>
-    </row>
-    <row r="177" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M176" s="23"/>
+      <c r="N176" s="24"/>
+    </row>
+    <row r="177" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
-        <v>343</v>
+        <v>512</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="C177" s="21"/>
-      <c r="D177" s="23"/>
+        <v>515</v>
+      </c>
+      <c r="C177" s="30"/>
+      <c r="D177" s="21"/>
       <c r="E177" s="23"/>
       <c r="F177" s="23"/>
       <c r="G177" s="23"/>
@@ -5894,17 +6231,18 @@
       <c r="J177" s="23"/>
       <c r="K177" s="23"/>
       <c r="L177" s="23"/>
-      <c r="M177" s="24"/>
-    </row>
-    <row r="178" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M177" s="23"/>
+      <c r="N177" s="24"/>
+    </row>
+    <row r="178" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="C178" s="21"/>
-      <c r="D178" s="23"/>
+        <v>438</v>
+      </c>
+      <c r="C178" s="30"/>
+      <c r="D178" s="21"/>
       <c r="E178" s="23"/>
       <c r="F178" s="23"/>
       <c r="G178" s="23"/>
@@ -5913,17 +6251,18 @@
       <c r="J178" s="23"/>
       <c r="K178" s="23"/>
       <c r="L178" s="23"/>
-      <c r="M178" s="24"/>
-    </row>
-    <row r="179" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M178" s="23"/>
+      <c r="N178" s="24"/>
+    </row>
+    <row r="179" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="C179" s="21"/>
-      <c r="D179" s="23"/>
+        <v>514</v>
+      </c>
+      <c r="C179" s="30"/>
+      <c r="D179" s="21"/>
       <c r="E179" s="23"/>
       <c r="F179" s="23"/>
       <c r="G179" s="23"/>
@@ -5932,17 +6271,18 @@
       <c r="J179" s="23"/>
       <c r="K179" s="23"/>
       <c r="L179" s="23"/>
-      <c r="M179" s="24"/>
-    </row>
-    <row r="180" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M179" s="23"/>
+      <c r="N179" s="24"/>
+    </row>
+    <row r="180" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
-        <v>51</v>
+        <v>342</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C180" s="21"/>
-      <c r="D180" s="23"/>
+        <v>439</v>
+      </c>
+      <c r="C180" s="30"/>
+      <c r="D180" s="21"/>
       <c r="E180" s="23"/>
       <c r="F180" s="23"/>
       <c r="G180" s="23"/>
@@ -5951,17 +6291,18 @@
       <c r="J180" s="23"/>
       <c r="K180" s="23"/>
       <c r="L180" s="23"/>
-      <c r="M180" s="24"/>
-    </row>
-    <row r="181" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M180" s="23"/>
+      <c r="N180" s="24"/>
+    </row>
+    <row r="181" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
-        <v>53</v>
+        <v>343</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C181" s="21"/>
-      <c r="D181" s="23"/>
+        <v>440</v>
+      </c>
+      <c r="C181" s="30"/>
+      <c r="D181" s="21"/>
       <c r="E181" s="23"/>
       <c r="F181" s="23"/>
       <c r="G181" s="23"/>
@@ -5970,17 +6311,18 @@
       <c r="J181" s="23"/>
       <c r="K181" s="23"/>
       <c r="L181" s="23"/>
-      <c r="M181" s="24"/>
-    </row>
-    <row r="182" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M181" s="23"/>
+      <c r="N181" s="23"/>
+    </row>
+    <row r="182" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C182" s="21"/>
-      <c r="D182" s="23"/>
+        <v>441</v>
+      </c>
+      <c r="C182" s="30"/>
+      <c r="D182" s="21"/>
       <c r="E182" s="23"/>
       <c r="F182" s="23"/>
       <c r="G182" s="23"/>
@@ -5989,17 +6331,18 @@
       <c r="J182" s="23"/>
       <c r="K182" s="23"/>
       <c r="L182" s="23"/>
-      <c r="M182" s="24"/>
-    </row>
-    <row r="183" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M182" s="23"/>
+      <c r="N182" s="24"/>
+    </row>
+    <row r="183" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
-        <v>57</v>
+        <v>513</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C183" s="21"/>
-      <c r="D183" s="23"/>
+        <v>516</v>
+      </c>
+      <c r="C183" s="30"/>
+      <c r="D183" s="21"/>
       <c r="E183" s="23"/>
       <c r="F183" s="23"/>
       <c r="G183" s="23"/>
@@ -6008,17 +6351,18 @@
       <c r="J183" s="23"/>
       <c r="K183" s="23"/>
       <c r="L183" s="23"/>
-      <c r="M183" s="24"/>
-    </row>
-    <row r="184" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M183" s="23"/>
+      <c r="N183" s="24"/>
+    </row>
+    <row r="184" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C184" s="21"/>
-      <c r="D184" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="C184" s="30"/>
+      <c r="D184" s="21"/>
       <c r="E184" s="23"/>
       <c r="F184" s="23"/>
       <c r="G184" s="23"/>
@@ -6027,17 +6371,18 @@
       <c r="J184" s="23"/>
       <c r="K184" s="23"/>
       <c r="L184" s="23"/>
-      <c r="M184" s="24"/>
-    </row>
-    <row r="185" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M184" s="23"/>
+      <c r="N184" s="24"/>
+    </row>
+    <row r="185" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C185" s="21"/>
-      <c r="D185" s="23"/>
+        <v>54</v>
+      </c>
+      <c r="C185" s="30"/>
+      <c r="D185" s="21"/>
       <c r="E185" s="23"/>
       <c r="F185" s="23"/>
       <c r="G185" s="23"/>
@@ -6046,17 +6391,18 @@
       <c r="J185" s="23"/>
       <c r="K185" s="23"/>
       <c r="L185" s="23"/>
-      <c r="M185" s="24"/>
-    </row>
-    <row r="186" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M185" s="23"/>
+      <c r="N185" s="24"/>
+    </row>
+    <row r="186" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C186" s="21"/>
-      <c r="D186" s="23"/>
+        <v>56</v>
+      </c>
+      <c r="C186" s="30"/>
+      <c r="D186" s="21"/>
       <c r="E186" s="23"/>
       <c r="F186" s="23"/>
       <c r="G186" s="23"/>
@@ -6065,17 +6411,18 @@
       <c r="J186" s="23"/>
       <c r="K186" s="23"/>
       <c r="L186" s="23"/>
-      <c r="M186" s="24"/>
-    </row>
-    <row r="187" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M186" s="23"/>
+      <c r="N186" s="24"/>
+    </row>
+    <row r="187" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C187" s="21"/>
-      <c r="D187" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="C187" s="30"/>
+      <c r="D187" s="21"/>
       <c r="E187" s="23"/>
       <c r="F187" s="23"/>
       <c r="G187" s="23"/>
@@ -6084,17 +6431,18 @@
       <c r="J187" s="23"/>
       <c r="K187" s="23"/>
       <c r="L187" s="23"/>
-      <c r="M187" s="24"/>
-    </row>
-    <row r="188" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M187" s="23"/>
+      <c r="N187" s="24"/>
+    </row>
+    <row r="188" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C188" s="21"/>
-      <c r="D188" s="23"/>
+        <v>60</v>
+      </c>
+      <c r="C188" s="30"/>
+      <c r="D188" s="21"/>
       <c r="E188" s="23"/>
       <c r="F188" s="23"/>
       <c r="G188" s="23"/>
@@ -6103,17 +6451,18 @@
       <c r="J188" s="23"/>
       <c r="K188" s="23"/>
       <c r="L188" s="23"/>
-      <c r="M188" s="24"/>
-    </row>
-    <row r="189" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M188" s="23"/>
+      <c r="N188" s="24"/>
+    </row>
+    <row r="189" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C189" s="21"/>
-      <c r="D189" s="23"/>
+        <v>62</v>
+      </c>
+      <c r="C189" s="30"/>
+      <c r="D189" s="21"/>
       <c r="E189" s="23"/>
       <c r="F189" s="23"/>
       <c r="G189" s="23"/>
@@ -6122,17 +6471,18 @@
       <c r="J189" s="23"/>
       <c r="K189" s="23"/>
       <c r="L189" s="23"/>
-      <c r="M189" s="24"/>
-    </row>
-    <row r="190" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="17" t="s">
-        <v>509</v>
+      <c r="M189" s="23"/>
+      <c r="N189" s="24"/>
+    </row>
+    <row r="190" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>510</v>
-      </c>
-      <c r="C190" s="21"/>
-      <c r="D190" s="23"/>
+        <v>64</v>
+      </c>
+      <c r="C190" s="30"/>
+      <c r="D190" s="21"/>
       <c r="E190" s="23"/>
       <c r="F190" s="23"/>
       <c r="G190" s="23"/>
@@ -6141,17 +6491,18 @@
       <c r="J190" s="23"/>
       <c r="K190" s="23"/>
       <c r="L190" s="23"/>
-      <c r="M190" s="24"/>
-    </row>
-    <row r="191" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M190" s="23"/>
+      <c r="N190" s="24"/>
+    </row>
+    <row r="191" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C191" s="21"/>
-      <c r="D191" s="23"/>
+        <v>66</v>
+      </c>
+      <c r="C191" s="30"/>
+      <c r="D191" s="21"/>
       <c r="E191" s="23"/>
       <c r="F191" s="23"/>
       <c r="G191" s="23"/>
@@ -6160,17 +6511,18 @@
       <c r="J191" s="23"/>
       <c r="K191" s="23"/>
       <c r="L191" s="23"/>
-      <c r="M191" s="24"/>
-    </row>
-    <row r="192" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M191" s="23"/>
+      <c r="N191" s="24"/>
+    </row>
+    <row r="192" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C192" s="21"/>
-      <c r="D192" s="23"/>
+        <v>68</v>
+      </c>
+      <c r="C192" s="30"/>
+      <c r="D192" s="21"/>
       <c r="E192" s="23"/>
       <c r="F192" s="23"/>
       <c r="G192" s="23"/>
@@ -6179,17 +6531,18 @@
       <c r="J192" s="23"/>
       <c r="K192" s="23"/>
       <c r="L192" s="23"/>
-      <c r="M192" s="24"/>
-    </row>
-    <row r="193" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M192" s="23"/>
+      <c r="N192" s="24"/>
+    </row>
+    <row r="193" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C193" s="21"/>
-      <c r="D193" s="23"/>
+        <v>70</v>
+      </c>
+      <c r="C193" s="30"/>
+      <c r="D193" s="21"/>
       <c r="E193" s="23"/>
       <c r="F193" s="23"/>
       <c r="G193" s="23"/>
@@ -6198,17 +6551,18 @@
       <c r="J193" s="23"/>
       <c r="K193" s="23"/>
       <c r="L193" s="23"/>
-      <c r="M193" s="24"/>
-    </row>
-    <row r="194" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="12" t="s">
-        <v>77</v>
+      <c r="M193" s="23"/>
+      <c r="N193" s="24"/>
+    </row>
+    <row r="194" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="17" t="s">
+        <v>509</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C194" s="21"/>
-      <c r="D194" s="23"/>
+        <v>510</v>
+      </c>
+      <c r="C194" s="30"/>
+      <c r="D194" s="21"/>
       <c r="E194" s="23"/>
       <c r="F194" s="23"/>
       <c r="G194" s="23"/>
@@ -6217,17 +6571,18 @@
       <c r="J194" s="23"/>
       <c r="K194" s="23"/>
       <c r="L194" s="23"/>
-      <c r="M194" s="24"/>
-    </row>
-    <row r="195" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M194" s="23"/>
+      <c r="N194" s="24"/>
+    </row>
+    <row r="195" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C195" s="21"/>
-      <c r="D195" s="23"/>
+        <v>72</v>
+      </c>
+      <c r="C195" s="30"/>
+      <c r="D195" s="21"/>
       <c r="E195" s="23"/>
       <c r="F195" s="23"/>
       <c r="G195" s="23"/>
@@ -6236,17 +6591,18 @@
       <c r="J195" s="23"/>
       <c r="K195" s="23"/>
       <c r="L195" s="23"/>
-      <c r="M195" s="24"/>
-    </row>
-    <row r="196" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="17" t="s">
-        <v>606</v>
+      <c r="M195" s="23"/>
+      <c r="N195" s="24"/>
+    </row>
+    <row r="196" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>607</v>
-      </c>
-      <c r="C196" s="21"/>
-      <c r="D196" s="23"/>
+        <v>74</v>
+      </c>
+      <c r="C196" s="30"/>
+      <c r="D196" s="21"/>
       <c r="E196" s="23"/>
       <c r="F196" s="23"/>
       <c r="G196" s="23"/>
@@ -6255,17 +6611,18 @@
       <c r="J196" s="23"/>
       <c r="K196" s="23"/>
       <c r="L196" s="23"/>
-      <c r="M196" s="24"/>
-    </row>
-    <row r="197" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M196" s="23"/>
+      <c r="N196" s="24"/>
+    </row>
+    <row r="197" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C197" s="21"/>
-      <c r="D197" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="C197" s="30"/>
+      <c r="D197" s="21"/>
       <c r="E197" s="23"/>
       <c r="F197" s="23"/>
       <c r="G197" s="23"/>
@@ -6274,17 +6631,18 @@
       <c r="J197" s="23"/>
       <c r="K197" s="23"/>
       <c r="L197" s="23"/>
-      <c r="M197" s="24"/>
-    </row>
-    <row r="198" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M197" s="23"/>
+      <c r="N197" s="24"/>
+    </row>
+    <row r="198" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C198" s="21"/>
-      <c r="D198" s="23"/>
+        <v>78</v>
+      </c>
+      <c r="C198" s="30"/>
+      <c r="D198" s="21"/>
       <c r="E198" s="23"/>
       <c r="F198" s="23"/>
       <c r="G198" s="23"/>
@@ -6293,17 +6651,18 @@
       <c r="J198" s="23"/>
       <c r="K198" s="23"/>
       <c r="L198" s="23"/>
-      <c r="M198" s="24"/>
-    </row>
-    <row r="199" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M198" s="23"/>
+      <c r="N198" s="24"/>
+    </row>
+    <row r="199" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="17" t="s">
-        <v>507</v>
+        <v>605</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="C199" s="21"/>
-      <c r="D199" s="23"/>
+        <v>606</v>
+      </c>
+      <c r="C199" s="30"/>
+      <c r="D199" s="21"/>
       <c r="E199" s="23"/>
       <c r="F199" s="23"/>
       <c r="G199" s="23"/>
@@ -6312,17 +6671,18 @@
       <c r="J199" s="23"/>
       <c r="K199" s="23"/>
       <c r="L199" s="23"/>
-      <c r="M199" s="24"/>
-    </row>
-    <row r="200" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M199" s="23"/>
+      <c r="N199" s="24"/>
+    </row>
+    <row r="200" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C200" s="21"/>
-      <c r="D200" s="23"/>
+        <v>80</v>
+      </c>
+      <c r="C200" s="30"/>
+      <c r="D200" s="21"/>
       <c r="E200" s="23"/>
       <c r="F200" s="23"/>
       <c r="G200" s="23"/>
@@ -6331,17 +6691,18 @@
       <c r="J200" s="23"/>
       <c r="K200" s="23"/>
       <c r="L200" s="23"/>
-      <c r="M200" s="24"/>
-    </row>
-    <row r="201" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M200" s="23"/>
+      <c r="N200" s="24"/>
+    </row>
+    <row r="201" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C201" s="21"/>
-      <c r="D201" s="23"/>
+        <v>138</v>
+      </c>
+      <c r="C201" s="30"/>
+      <c r="D201" s="21"/>
       <c r="E201" s="23"/>
       <c r="F201" s="23"/>
       <c r="G201" s="23"/>
@@ -6350,17 +6711,18 @@
       <c r="J201" s="23"/>
       <c r="K201" s="23"/>
       <c r="L201" s="23"/>
-      <c r="M201" s="24"/>
-    </row>
-    <row r="202" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M201" s="23"/>
+      <c r="N201" s="24"/>
+    </row>
+    <row r="202" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C202" s="21"/>
-      <c r="D202" s="23"/>
+        <v>139</v>
+      </c>
+      <c r="C202" s="30"/>
+      <c r="D202" s="21"/>
       <c r="E202" s="23"/>
       <c r="F202" s="23"/>
       <c r="G202" s="23"/>
@@ -6369,17 +6731,18 @@
       <c r="J202" s="23"/>
       <c r="K202" s="23"/>
       <c r="L202" s="23"/>
-      <c r="M202" s="24"/>
-    </row>
-    <row r="203" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="12" t="s">
-        <v>133</v>
+      <c r="M202" s="23"/>
+      <c r="N202" s="24"/>
+    </row>
+    <row r="203" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="17" t="s">
+        <v>507</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C203" s="21"/>
-      <c r="D203" s="23"/>
+        <v>508</v>
+      </c>
+      <c r="C203" s="30"/>
+      <c r="D203" s="21"/>
       <c r="E203" s="23"/>
       <c r="F203" s="23"/>
       <c r="G203" s="23"/>
@@ -6388,17 +6751,18 @@
       <c r="J203" s="23"/>
       <c r="K203" s="23"/>
       <c r="L203" s="23"/>
-      <c r="M203" s="24"/>
-    </row>
-    <row r="204" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M203" s="23"/>
+      <c r="N203" s="24"/>
+    </row>
+    <row r="204" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C204" s="21"/>
-      <c r="D204" s="23"/>
+        <v>140</v>
+      </c>
+      <c r="C204" s="30"/>
+      <c r="D204" s="21"/>
       <c r="E204" s="23"/>
       <c r="F204" s="23"/>
       <c r="G204" s="23"/>
@@ -6407,17 +6771,18 @@
       <c r="J204" s="23"/>
       <c r="K204" s="23"/>
       <c r="L204" s="23"/>
-      <c r="M204" s="24"/>
-    </row>
-    <row r="205" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M204" s="23"/>
+      <c r="N204" s="24"/>
+    </row>
+    <row r="205" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>505</v>
+        <v>132</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="C205" s="21"/>
-      <c r="D205" s="23"/>
+        <v>141</v>
+      </c>
+      <c r="C205" s="30"/>
+      <c r="D205" s="21"/>
       <c r="E205" s="23"/>
       <c r="F205" s="23"/>
       <c r="G205" s="23"/>
@@ -6426,17 +6791,18 @@
       <c r="J205" s="23"/>
       <c r="K205" s="23"/>
       <c r="L205" s="23"/>
-      <c r="M205" s="24"/>
-    </row>
-    <row r="206" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M205" s="23"/>
+      <c r="N205" s="24"/>
+    </row>
+    <row r="206" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C206" s="21"/>
-      <c r="D206" s="23"/>
+        <v>137</v>
+      </c>
+      <c r="C206" s="30"/>
+      <c r="D206" s="21"/>
       <c r="E206" s="23"/>
       <c r="F206" s="23"/>
       <c r="G206" s="23"/>
@@ -6445,17 +6811,18 @@
       <c r="J206" s="23"/>
       <c r="K206" s="23"/>
       <c r="L206" s="23"/>
-      <c r="M206" s="24"/>
-    </row>
-    <row r="207" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M206" s="23"/>
+      <c r="N206" s="24"/>
+    </row>
+    <row r="207" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C207" s="21"/>
-      <c r="D207" s="23"/>
+        <v>142</v>
+      </c>
+      <c r="C207" s="30"/>
+      <c r="D207" s="21"/>
       <c r="E207" s="23"/>
       <c r="F207" s="23"/>
       <c r="G207" s="23"/>
@@ -6464,17 +6831,18 @@
       <c r="J207" s="23"/>
       <c r="K207" s="23"/>
       <c r="L207" s="23"/>
-      <c r="M207" s="24"/>
-    </row>
-    <row r="208" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M207" s="23"/>
+      <c r="N207" s="24"/>
+    </row>
+    <row r="208" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C208" s="21"/>
-      <c r="D208" s="23"/>
+        <v>143</v>
+      </c>
+      <c r="C208" s="30"/>
+      <c r="D208" s="21"/>
       <c r="E208" s="23"/>
       <c r="F208" s="23"/>
       <c r="G208" s="23"/>
@@ -6483,17 +6851,18 @@
       <c r="J208" s="23"/>
       <c r="K208" s="23"/>
       <c r="L208" s="23"/>
-      <c r="M208" s="24"/>
-    </row>
-    <row r="209" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M208" s="23"/>
+      <c r="N208" s="24"/>
+    </row>
+    <row r="209" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
-        <v>85</v>
+        <v>505</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C209" s="21"/>
-      <c r="D209" s="23"/>
+        <v>506</v>
+      </c>
+      <c r="C209" s="30"/>
+      <c r="D209" s="21"/>
       <c r="E209" s="23"/>
       <c r="F209" s="23"/>
       <c r="G209" s="23"/>
@@ -6502,17 +6871,18 @@
       <c r="J209" s="23"/>
       <c r="K209" s="23"/>
       <c r="L209" s="23"/>
-      <c r="M209" s="24"/>
-    </row>
-    <row r="210" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M209" s="23"/>
+      <c r="N209" s="24"/>
+    </row>
+    <row r="210" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C210" s="21"/>
-      <c r="D210" s="23"/>
+        <v>144</v>
+      </c>
+      <c r="C210" s="30"/>
+      <c r="D210" s="21"/>
       <c r="E210" s="23"/>
       <c r="F210" s="23"/>
       <c r="G210" s="23"/>
@@ -6521,17 +6891,18 @@
       <c r="J210" s="23"/>
       <c r="K210" s="23"/>
       <c r="L210" s="23"/>
-      <c r="M210" s="24"/>
-    </row>
-    <row r="211" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M210" s="23"/>
+      <c r="N210" s="24"/>
+    </row>
+    <row r="211" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C211" s="21"/>
-      <c r="D211" s="23"/>
+        <v>82</v>
+      </c>
+      <c r="C211" s="30"/>
+      <c r="D211" s="21"/>
       <c r="E211" s="23"/>
       <c r="F211" s="23"/>
       <c r="G211" s="23"/>
@@ -6540,17 +6911,18 @@
       <c r="J211" s="23"/>
       <c r="K211" s="23"/>
       <c r="L211" s="23"/>
-      <c r="M211" s="24"/>
-    </row>
-    <row r="212" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M211" s="23"/>
+      <c r="N211" s="24"/>
+    </row>
+    <row r="212" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C212" s="21"/>
-      <c r="D212" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="C212" s="30"/>
+      <c r="D212" s="21"/>
       <c r="E212" s="23"/>
       <c r="F212" s="23"/>
       <c r="G212" s="23"/>
@@ -6559,17 +6931,18 @@
       <c r="J212" s="23"/>
       <c r="K212" s="23"/>
       <c r="L212" s="23"/>
-      <c r="M212" s="24"/>
-    </row>
-    <row r="213" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M212" s="23"/>
+      <c r="N212" s="24"/>
+    </row>
+    <row r="213" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C213" s="21"/>
-      <c r="D213" s="23"/>
+        <v>86</v>
+      </c>
+      <c r="C213" s="30"/>
+      <c r="D213" s="21"/>
       <c r="E213" s="23"/>
       <c r="F213" s="23"/>
       <c r="G213" s="23"/>
@@ -6578,17 +6951,18 @@
       <c r="J213" s="23"/>
       <c r="K213" s="23"/>
       <c r="L213" s="23"/>
-      <c r="M213" s="24"/>
-    </row>
-    <row r="214" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M213" s="23"/>
+      <c r="N213" s="24"/>
+    </row>
+    <row r="214" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C214" s="21"/>
-      <c r="D214" s="23"/>
+        <v>88</v>
+      </c>
+      <c r="C214" s="30"/>
+      <c r="D214" s="21"/>
       <c r="E214" s="23"/>
       <c r="F214" s="23"/>
       <c r="G214" s="23"/>
@@ -6597,17 +6971,18 @@
       <c r="J214" s="23"/>
       <c r="K214" s="23"/>
       <c r="L214" s="23"/>
-      <c r="M214" s="24"/>
-    </row>
-    <row r="215" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M214" s="23"/>
+      <c r="N214" s="24"/>
+    </row>
+    <row r="215" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C215" s="21"/>
-      <c r="D215" s="23"/>
+        <v>90</v>
+      </c>
+      <c r="C215" s="30"/>
+      <c r="D215" s="21"/>
       <c r="E215" s="23"/>
       <c r="F215" s="23"/>
       <c r="G215" s="23"/>
@@ -6616,17 +6991,18 @@
       <c r="J215" s="23"/>
       <c r="K215" s="23"/>
       <c r="L215" s="23"/>
-      <c r="M215" s="24"/>
-    </row>
-    <row r="216" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M215" s="23"/>
+      <c r="N215" s="24"/>
+    </row>
+    <row r="216" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C216" s="21"/>
-      <c r="D216" s="23"/>
+        <v>92</v>
+      </c>
+      <c r="C216" s="30"/>
+      <c r="D216" s="21"/>
       <c r="E216" s="23"/>
       <c r="F216" s="23"/>
       <c r="G216" s="23"/>
@@ -6635,17 +7011,18 @@
       <c r="J216" s="23"/>
       <c r="K216" s="23"/>
       <c r="L216" s="23"/>
-      <c r="M216" s="24"/>
-    </row>
-    <row r="217" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M216" s="23"/>
+      <c r="N216" s="24"/>
+    </row>
+    <row r="217" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C217" s="21"/>
-      <c r="D217" s="23"/>
+        <v>94</v>
+      </c>
+      <c r="C217" s="30"/>
+      <c r="D217" s="21"/>
       <c r="E217" s="23"/>
       <c r="F217" s="23"/>
       <c r="G217" s="23"/>
@@ -6654,17 +7031,18 @@
       <c r="J217" s="23"/>
       <c r="K217" s="23"/>
       <c r="L217" s="23"/>
-      <c r="M217" s="24"/>
-    </row>
-    <row r="218" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="17" t="s">
-        <v>535</v>
+      <c r="M217" s="23"/>
+      <c r="N217" s="24"/>
+    </row>
+    <row r="218" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="C218" s="21"/>
-      <c r="D218" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="C218" s="30"/>
+      <c r="D218" s="21"/>
       <c r="E218" s="23"/>
       <c r="F218" s="23"/>
       <c r="G218" s="23"/>
@@ -6673,17 +7051,18 @@
       <c r="J218" s="23"/>
       <c r="K218" s="23"/>
       <c r="L218" s="23"/>
-      <c r="M218" s="24"/>
-    </row>
-    <row r="219" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="17" t="s">
-        <v>573</v>
+      <c r="M218" s="23"/>
+      <c r="N218" s="24"/>
+    </row>
+    <row r="219" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="C219" s="21"/>
-      <c r="D219" s="23"/>
+        <v>146</v>
+      </c>
+      <c r="C219" s="30"/>
+      <c r="D219" s="21"/>
       <c r="E219" s="23"/>
       <c r="F219" s="23"/>
       <c r="G219" s="23"/>
@@ -6692,17 +7071,18 @@
       <c r="J219" s="23"/>
       <c r="K219" s="23"/>
       <c r="L219" s="23"/>
-      <c r="M219" s="24"/>
-    </row>
-    <row r="220" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="17" t="s">
-        <v>572</v>
+      <c r="M219" s="23"/>
+      <c r="N219" s="24"/>
+    </row>
+    <row r="220" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="C220" s="21"/>
-      <c r="D220" s="23"/>
+        <v>150</v>
+      </c>
+      <c r="C220" s="30"/>
+      <c r="D220" s="21"/>
       <c r="E220" s="23"/>
       <c r="F220" s="23"/>
       <c r="G220" s="23"/>
@@ -6711,17 +7091,18 @@
       <c r="J220" s="23"/>
       <c r="K220" s="23"/>
       <c r="L220" s="23"/>
-      <c r="M220" s="24"/>
-    </row>
-    <row r="221" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="17" t="s">
-        <v>538</v>
+      <c r="M220" s="23"/>
+      <c r="N220" s="24"/>
+    </row>
+    <row r="221" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="C221" s="21"/>
-      <c r="D221" s="23"/>
+        <v>98</v>
+      </c>
+      <c r="C221" s="30"/>
+      <c r="D221" s="21"/>
       <c r="E221" s="23"/>
       <c r="F221" s="23"/>
       <c r="G221" s="23"/>
@@ -6730,17 +7111,18 @@
       <c r="J221" s="23"/>
       <c r="K221" s="23"/>
       <c r="L221" s="23"/>
-      <c r="M221" s="24"/>
-    </row>
-    <row r="222" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M221" s="23"/>
+      <c r="N221" s="24"/>
+    </row>
+    <row r="222" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="17" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="C222" s="21"/>
-      <c r="D222" s="23"/>
+        <v>543</v>
+      </c>
+      <c r="C222" s="30"/>
+      <c r="D222" s="21"/>
       <c r="E222" s="23"/>
       <c r="F222" s="23"/>
       <c r="G222" s="23"/>
@@ -6749,17 +7131,18 @@
       <c r="J222" s="23"/>
       <c r="K222" s="23"/>
       <c r="L222" s="23"/>
-      <c r="M222" s="24"/>
-    </row>
-    <row r="223" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M222" s="23"/>
+      <c r="N222" s="24"/>
+    </row>
+    <row r="223" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="17" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="C223" s="21"/>
-      <c r="D223" s="23"/>
+        <v>574</v>
+      </c>
+      <c r="C223" s="30"/>
+      <c r="D223" s="21"/>
       <c r="E223" s="23"/>
       <c r="F223" s="23"/>
       <c r="G223" s="23"/>
@@ -6768,17 +7151,18 @@
       <c r="J223" s="23"/>
       <c r="K223" s="23"/>
       <c r="L223" s="23"/>
-      <c r="M223" s="24"/>
-    </row>
-    <row r="224" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M223" s="23"/>
+      <c r="N223" s="24"/>
+    </row>
+    <row r="224" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="17" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="C224" s="21"/>
-      <c r="D224" s="23"/>
+        <v>573</v>
+      </c>
+      <c r="C224" s="30"/>
+      <c r="D224" s="21"/>
       <c r="E224" s="23"/>
       <c r="F224" s="23"/>
       <c r="G224" s="23"/>
@@ -6787,17 +7171,18 @@
       <c r="J224" s="23"/>
       <c r="K224" s="23"/>
       <c r="L224" s="23"/>
-      <c r="M224" s="24"/>
-    </row>
-    <row r="225" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M224" s="23"/>
+      <c r="N224" s="24"/>
+    </row>
+    <row r="225" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="17" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="C225" s="21"/>
-      <c r="D225" s="23"/>
+        <v>546</v>
+      </c>
+      <c r="C225" s="30"/>
+      <c r="D225" s="21"/>
       <c r="E225" s="23"/>
       <c r="F225" s="23"/>
       <c r="G225" s="23"/>
@@ -6806,17 +7191,18 @@
       <c r="J225" s="23"/>
       <c r="K225" s="23"/>
       <c r="L225" s="23"/>
-      <c r="M225" s="24"/>
-    </row>
-    <row r="226" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M225" s="23"/>
+      <c r="N225" s="24"/>
+    </row>
+    <row r="226" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="C226" s="21"/>
-      <c r="D226" s="23"/>
+        <v>549</v>
+      </c>
+      <c r="C226" s="30"/>
+      <c r="D226" s="21"/>
       <c r="E226" s="23"/>
       <c r="F226" s="23"/>
       <c r="G226" s="23"/>
@@ -6825,17 +7211,18 @@
       <c r="J226" s="23"/>
       <c r="K226" s="23"/>
       <c r="L226" s="23"/>
-      <c r="M226" s="24"/>
-    </row>
-    <row r="227" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M226" s="23"/>
+      <c r="N226" s="24"/>
+    </row>
+    <row r="227" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="17" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="C227" s="21"/>
-      <c r="D227" s="23"/>
+        <v>547</v>
+      </c>
+      <c r="C227" s="30"/>
+      <c r="D227" s="21"/>
       <c r="E227" s="23"/>
       <c r="F227" s="23"/>
       <c r="G227" s="23"/>
@@ -6844,17 +7231,18 @@
       <c r="J227" s="23"/>
       <c r="K227" s="23"/>
       <c r="L227" s="23"/>
-      <c r="M227" s="24"/>
-    </row>
-    <row r="228" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="12" t="s">
-        <v>181</v>
+      <c r="M227" s="23"/>
+      <c r="N227" s="24"/>
+    </row>
+    <row r="228" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C228" s="21"/>
-      <c r="D228" s="23"/>
+        <v>545</v>
+      </c>
+      <c r="C228" s="30"/>
+      <c r="D228" s="21"/>
       <c r="E228" s="23"/>
       <c r="F228" s="23"/>
       <c r="G228" s="23"/>
@@ -6863,17 +7251,18 @@
       <c r="J228" s="23"/>
       <c r="K228" s="23"/>
       <c r="L228" s="23"/>
-      <c r="M228" s="24"/>
-    </row>
-    <row r="229" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="12" t="s">
-        <v>327</v>
+      <c r="M228" s="23"/>
+      <c r="N228" s="24"/>
+    </row>
+    <row r="229" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="C229" s="21"/>
-      <c r="D229" s="23"/>
+        <v>544</v>
+      </c>
+      <c r="C229" s="30"/>
+      <c r="D229" s="21"/>
       <c r="E229" s="23"/>
       <c r="F229" s="23"/>
       <c r="G229" s="23"/>
@@ -6882,17 +7271,18 @@
       <c r="J229" s="23"/>
       <c r="K229" s="23"/>
       <c r="L229" s="23"/>
-      <c r="M229" s="24"/>
-    </row>
-    <row r="230" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="12" t="s">
-        <v>325</v>
+      <c r="M229" s="23"/>
+      <c r="N229" s="24"/>
+    </row>
+    <row r="230" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="17" t="s">
+        <v>540</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="C230" s="21"/>
-      <c r="D230" s="23"/>
+        <v>548</v>
+      </c>
+      <c r="C230" s="30"/>
+      <c r="D230" s="21"/>
       <c r="E230" s="23"/>
       <c r="F230" s="23"/>
       <c r="G230" s="23"/>
@@ -6901,17 +7291,18 @@
       <c r="J230" s="23"/>
       <c r="K230" s="23"/>
       <c r="L230" s="23"/>
-      <c r="M230" s="24"/>
-    </row>
-    <row r="231" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="12" t="s">
-        <v>323</v>
+      <c r="M230" s="23"/>
+      <c r="N230" s="24"/>
+    </row>
+    <row r="231" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="17" t="s">
+        <v>542</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="C231" s="21"/>
-      <c r="D231" s="23"/>
+        <v>550</v>
+      </c>
+      <c r="C231" s="30"/>
+      <c r="D231" s="21"/>
       <c r="E231" s="23"/>
       <c r="F231" s="23"/>
       <c r="G231" s="23"/>
@@ -6920,17 +7311,18 @@
       <c r="J231" s="23"/>
       <c r="K231" s="23"/>
       <c r="L231" s="23"/>
-      <c r="M231" s="24"/>
-    </row>
-    <row r="232" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="12" t="s">
-        <v>328</v>
+      <c r="M231" s="23"/>
+      <c r="N231" s="24"/>
+    </row>
+    <row r="232" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="17" t="s">
+        <v>607</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C232" s="21"/>
-      <c r="D232" s="23"/>
+        <v>608</v>
+      </c>
+      <c r="C232" s="30"/>
+      <c r="D232" s="21"/>
       <c r="E232" s="23"/>
       <c r="F232" s="23"/>
       <c r="G232" s="23"/>
@@ -6939,17 +7331,18 @@
       <c r="J232" s="23"/>
       <c r="K232" s="23"/>
       <c r="L232" s="23"/>
-      <c r="M232" s="24"/>
-    </row>
-    <row r="233" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="12" t="s">
-        <v>321</v>
+      <c r="M232" s="23"/>
+      <c r="N232" s="24"/>
+    </row>
+    <row r="233" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="C233" s="21"/>
-      <c r="D233" s="23"/>
+        <v>618</v>
+      </c>
+      <c r="C233" s="30"/>
+      <c r="D233" s="21"/>
       <c r="E233" s="23"/>
       <c r="F233" s="23"/>
       <c r="G233" s="23"/>
@@ -6958,17 +7351,18 @@
       <c r="J233" s="23"/>
       <c r="K233" s="23"/>
       <c r="L233" s="23"/>
-      <c r="M233" s="24"/>
-    </row>
-    <row r="234" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="12" t="s">
-        <v>319</v>
+      <c r="M233" s="23"/>
+      <c r="N233" s="24"/>
+    </row>
+    <row r="234" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="17" t="s">
+        <v>613</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="C234" s="21"/>
-      <c r="D234" s="23"/>
+        <v>614</v>
+      </c>
+      <c r="C234" s="30"/>
+      <c r="D234" s="21"/>
       <c r="E234" s="23"/>
       <c r="F234" s="23"/>
       <c r="G234" s="23"/>
@@ -6977,17 +7371,18 @@
       <c r="J234" s="23"/>
       <c r="K234" s="23"/>
       <c r="L234" s="23"/>
-      <c r="M234" s="24"/>
-    </row>
-    <row r="235" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="12" t="s">
-        <v>276</v>
+      <c r="M234" s="23"/>
+      <c r="N234" s="24"/>
+    </row>
+    <row r="235" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="17" t="s">
+        <v>615</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C235" s="21"/>
-      <c r="D235" s="23"/>
+        <v>616</v>
+      </c>
+      <c r="C235" s="30"/>
+      <c r="D235" s="21"/>
       <c r="E235" s="23"/>
       <c r="F235" s="23"/>
       <c r="G235" s="23"/>
@@ -6996,17 +7391,18 @@
       <c r="J235" s="23"/>
       <c r="K235" s="23"/>
       <c r="L235" s="23"/>
-      <c r="M235" s="24"/>
-    </row>
-    <row r="236" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="12" t="s">
-        <v>285</v>
+      <c r="M235" s="23"/>
+      <c r="N235" s="24"/>
+    </row>
+    <row r="236" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="17" t="s">
+        <v>609</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="C236" s="21"/>
-      <c r="D236" s="23"/>
+        <v>610</v>
+      </c>
+      <c r="C236" s="30"/>
+      <c r="D236" s="21"/>
       <c r="E236" s="23"/>
       <c r="F236" s="23"/>
       <c r="G236" s="23"/>
@@ -7015,17 +7411,18 @@
       <c r="J236" s="23"/>
       <c r="K236" s="23"/>
       <c r="L236" s="23"/>
-      <c r="M236" s="24"/>
-    </row>
-    <row r="237" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="12" t="s">
-        <v>283</v>
+      <c r="M236" s="23"/>
+      <c r="N236" s="24"/>
+    </row>
+    <row r="237" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="17" t="s">
+        <v>611</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="C237" s="21"/>
-      <c r="D237" s="23"/>
+        <v>612</v>
+      </c>
+      <c r="C237" s="30"/>
+      <c r="D237" s="21"/>
       <c r="E237" s="23"/>
       <c r="F237" s="23"/>
       <c r="G237" s="23"/>
@@ -7034,17 +7431,18 @@
       <c r="J237" s="23"/>
       <c r="K237" s="23"/>
       <c r="L237" s="23"/>
-      <c r="M237" s="24"/>
-    </row>
-    <row r="238" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M237" s="23"/>
+      <c r="N237" s="24"/>
+    </row>
+    <row r="238" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C238" s="21"/>
-      <c r="D238" s="23"/>
+        <v>182</v>
+      </c>
+      <c r="C238" s="30"/>
+      <c r="D238" s="21"/>
       <c r="E238" s="23"/>
       <c r="F238" s="23"/>
       <c r="G238" s="23"/>
@@ -7053,17 +7451,18 @@
       <c r="J238" s="23"/>
       <c r="K238" s="23"/>
       <c r="L238" s="23"/>
-      <c r="M238" s="24"/>
-    </row>
-    <row r="239" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M238" s="23"/>
+      <c r="N238" s="24"/>
+    </row>
+    <row r="239" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="C239" s="21"/>
-      <c r="D239" s="23"/>
+        <v>473</v>
+      </c>
+      <c r="C239" s="30"/>
+      <c r="D239" s="21"/>
       <c r="E239" s="23"/>
       <c r="F239" s="23"/>
       <c r="G239" s="23"/>
@@ -7072,17 +7471,18 @@
       <c r="J239" s="23"/>
       <c r="K239" s="23"/>
       <c r="L239" s="23"/>
-      <c r="M239" s="24"/>
-    </row>
-    <row r="240" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M239" s="23"/>
+      <c r="N239" s="24"/>
+    </row>
+    <row r="240" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="C240" s="21"/>
-      <c r="D240" s="23"/>
+        <v>326</v>
+      </c>
+      <c r="C240" s="30"/>
+      <c r="D240" s="21"/>
       <c r="E240" s="23"/>
       <c r="F240" s="23"/>
       <c r="G240" s="23"/>
@@ -7091,17 +7491,18 @@
       <c r="J240" s="23"/>
       <c r="K240" s="23"/>
       <c r="L240" s="23"/>
-      <c r="M240" s="24"/>
-    </row>
-    <row r="241" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M240" s="23"/>
+      <c r="N240" s="24"/>
+    </row>
+    <row r="241" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
-        <v>595</v>
+        <v>323</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="C241" s="21"/>
-      <c r="D241" s="23"/>
+        <v>324</v>
+      </c>
+      <c r="C241" s="30"/>
+      <c r="D241" s="21"/>
       <c r="E241" s="23"/>
       <c r="F241" s="23"/>
       <c r="G241" s="23"/>
@@ -7110,17 +7511,18 @@
       <c r="J241" s="23"/>
       <c r="K241" s="23"/>
       <c r="L241" s="23"/>
-      <c r="M241" s="24"/>
-    </row>
-    <row r="242" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M241" s="23"/>
+      <c r="N241" s="24"/>
+    </row>
+    <row r="242" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
-        <v>596</v>
+        <v>328</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C242" s="21"/>
-      <c r="D242" s="23"/>
+        <v>329</v>
+      </c>
+      <c r="C242" s="30"/>
+      <c r="D242" s="21"/>
       <c r="E242" s="23"/>
       <c r="F242" s="23"/>
       <c r="G242" s="23"/>
@@ -7129,17 +7531,18 @@
       <c r="J242" s="23"/>
       <c r="K242" s="23"/>
       <c r="L242" s="23"/>
-      <c r="M242" s="24"/>
-    </row>
-    <row r="243" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M242" s="23"/>
+      <c r="N242" s="24"/>
+    </row>
+    <row r="243" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
-        <v>597</v>
+        <v>321</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C243" s="21"/>
-      <c r="D243" s="23"/>
+        <v>322</v>
+      </c>
+      <c r="C243" s="30"/>
+      <c r="D243" s="21"/>
       <c r="E243" s="23"/>
       <c r="F243" s="23"/>
       <c r="G243" s="23"/>
@@ -7148,17 +7551,18 @@
       <c r="J243" s="23"/>
       <c r="K243" s="23"/>
       <c r="L243" s="23"/>
-      <c r="M243" s="24"/>
-    </row>
-    <row r="244" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="17" t="s">
-        <v>602</v>
+      <c r="M243" s="23"/>
+      <c r="N243" s="24"/>
+    </row>
+    <row r="244" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="C244" s="21"/>
-      <c r="D244" s="23"/>
+        <v>320</v>
+      </c>
+      <c r="C244" s="30"/>
+      <c r="D244" s="21"/>
       <c r="E244" s="23"/>
       <c r="F244" s="23"/>
       <c r="G244" s="23"/>
@@ -7167,17 +7571,18 @@
       <c r="J244" s="23"/>
       <c r="K244" s="23"/>
       <c r="L244" s="23"/>
-      <c r="M244" s="24"/>
-    </row>
-    <row r="245" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M244" s="23"/>
+      <c r="N244" s="24"/>
+    </row>
+    <row r="245" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C245" s="21"/>
-      <c r="D245" s="23"/>
+        <v>277</v>
+      </c>
+      <c r="C245" s="30"/>
+      <c r="D245" s="21"/>
       <c r="E245" s="23"/>
       <c r="F245" s="23"/>
       <c r="G245" s="23"/>
@@ -7186,17 +7591,18 @@
       <c r="J245" s="23"/>
       <c r="K245" s="23"/>
       <c r="L245" s="23"/>
-      <c r="M245" s="24"/>
-    </row>
-    <row r="246" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M245" s="23"/>
+      <c r="N245" s="24"/>
+    </row>
+    <row r="246" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="C246" s="21"/>
-      <c r="D246" s="23"/>
+        <v>286</v>
+      </c>
+      <c r="C246" s="30"/>
+      <c r="D246" s="21"/>
       <c r="E246" s="23"/>
       <c r="F246" s="23"/>
       <c r="G246" s="23"/>
@@ -7205,17 +7611,18 @@
       <c r="J246" s="23"/>
       <c r="K246" s="23"/>
       <c r="L246" s="23"/>
-      <c r="M246" s="24"/>
-    </row>
-    <row r="247" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M246" s="23"/>
+      <c r="N246" s="24"/>
+    </row>
+    <row r="247" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="C247" s="21"/>
-      <c r="D247" s="23"/>
+        <v>284</v>
+      </c>
+      <c r="C247" s="30"/>
+      <c r="D247" s="21"/>
       <c r="E247" s="23"/>
       <c r="F247" s="23"/>
       <c r="G247" s="23"/>
@@ -7224,17 +7631,18 @@
       <c r="J247" s="23"/>
       <c r="K247" s="23"/>
       <c r="L247" s="23"/>
-      <c r="M247" s="24"/>
-    </row>
-    <row r="248" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M247" s="23"/>
+      <c r="N247" s="24"/>
+    </row>
+    <row r="248" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
-        <v>304</v>
+        <v>596</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C248" s="21"/>
-      <c r="D248" s="23"/>
+        <v>600</v>
+      </c>
+      <c r="C248" s="30"/>
+      <c r="D248" s="21"/>
       <c r="E248" s="23"/>
       <c r="F248" s="23"/>
       <c r="G248" s="23"/>
@@ -7243,17 +7651,18 @@
       <c r="J248" s="23"/>
       <c r="K248" s="23"/>
       <c r="L248" s="23"/>
-      <c r="M248" s="24"/>
-    </row>
-    <row r="249" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M248" s="23"/>
+      <c r="N248" s="24"/>
+    </row>
+    <row r="249" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="C249" s="21"/>
-      <c r="D249" s="23"/>
+        <v>279</v>
+      </c>
+      <c r="C249" s="30"/>
+      <c r="D249" s="21"/>
       <c r="E249" s="23"/>
       <c r="F249" s="23"/>
       <c r="G249" s="23"/>
@@ -7262,17 +7671,18 @@
       <c r="J249" s="23"/>
       <c r="K249" s="23"/>
       <c r="L249" s="23"/>
-      <c r="M249" s="24"/>
-    </row>
-    <row r="250" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M249" s="23"/>
+      <c r="N249" s="24"/>
+    </row>
+    <row r="250" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
-        <v>306</v>
+        <v>595</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C250" s="21"/>
-      <c r="D250" s="23"/>
+        <v>599</v>
+      </c>
+      <c r="C250" s="30"/>
+      <c r="D250" s="21"/>
       <c r="E250" s="23"/>
       <c r="F250" s="23"/>
       <c r="G250" s="23"/>
@@ -7281,17 +7691,18 @@
       <c r="J250" s="23"/>
       <c r="K250" s="23"/>
       <c r="L250" s="23"/>
-      <c r="M250" s="24"/>
-    </row>
-    <row r="251" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M250" s="23"/>
+      <c r="N250" s="24"/>
+    </row>
+    <row r="251" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C251" s="21"/>
-      <c r="D251" s="23"/>
+        <v>282</v>
+      </c>
+      <c r="C251" s="30"/>
+      <c r="D251" s="21"/>
       <c r="E251" s="23"/>
       <c r="F251" s="23"/>
       <c r="G251" s="23"/>
@@ -7300,17 +7711,18 @@
       <c r="J251" s="23"/>
       <c r="K251" s="23"/>
       <c r="L251" s="23"/>
-      <c r="M251" s="24"/>
-    </row>
-    <row r="252" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M251" s="23"/>
+      <c r="N251" s="24"/>
+    </row>
+    <row r="252" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C252" s="21"/>
-      <c r="D252" s="23"/>
+        <v>597</v>
+      </c>
+      <c r="C252" s="30"/>
+      <c r="D252" s="21"/>
       <c r="E252" s="23"/>
       <c r="F252" s="23"/>
       <c r="G252" s="23"/>
@@ -7319,17 +7731,18 @@
       <c r="J252" s="23"/>
       <c r="K252" s="23"/>
       <c r="L252" s="23"/>
-      <c r="M252" s="24"/>
-    </row>
-    <row r="253" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M252" s="23"/>
+      <c r="N252" s="24"/>
+    </row>
+    <row r="253" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
-        <v>309</v>
+        <v>594</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="C253" s="21"/>
-      <c r="D253" s="23"/>
+        <v>598</v>
+      </c>
+      <c r="C253" s="30"/>
+      <c r="D253" s="21"/>
       <c r="E253" s="23"/>
       <c r="F253" s="23"/>
       <c r="G253" s="23"/>
@@ -7338,17 +7751,18 @@
       <c r="J253" s="23"/>
       <c r="K253" s="23"/>
       <c r="L253" s="23"/>
-      <c r="M253" s="24"/>
-    </row>
-    <row r="254" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="12" t="s">
-        <v>310</v>
+      <c r="M253" s="23"/>
+      <c r="N253" s="24"/>
+    </row>
+    <row r="254" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="17" t="s">
+        <v>601</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="C254" s="21"/>
-      <c r="D254" s="23"/>
+        <v>602</v>
+      </c>
+      <c r="C254" s="30"/>
+      <c r="D254" s="21"/>
       <c r="E254" s="23"/>
       <c r="F254" s="23"/>
       <c r="G254" s="23"/>
@@ -7357,17 +7771,18 @@
       <c r="J254" s="23"/>
       <c r="K254" s="23"/>
       <c r="L254" s="23"/>
-      <c r="M254" s="24"/>
-    </row>
-    <row r="255" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M254" s="23"/>
+      <c r="N254" s="24"/>
+    </row>
+    <row r="255" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="C255" s="21"/>
-      <c r="D255" s="23"/>
+        <v>287</v>
+      </c>
+      <c r="C255" s="30"/>
+      <c r="D255" s="21"/>
       <c r="E255" s="23"/>
       <c r="F255" s="23"/>
       <c r="G255" s="23"/>
@@ -7376,17 +7791,18 @@
       <c r="J255" s="23"/>
       <c r="K255" s="23"/>
       <c r="L255" s="23"/>
-      <c r="M255" s="24"/>
-    </row>
-    <row r="256" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M255" s="23"/>
+      <c r="N255" s="24"/>
+    </row>
+    <row r="256" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C256" s="21"/>
-      <c r="D256" s="23"/>
+        <v>292</v>
+      </c>
+      <c r="C256" s="30"/>
+      <c r="D256" s="21"/>
       <c r="E256" s="23"/>
       <c r="F256" s="23"/>
       <c r="G256" s="23"/>
@@ -7395,17 +7811,18 @@
       <c r="J256" s="23"/>
       <c r="K256" s="23"/>
       <c r="L256" s="23"/>
-      <c r="M256" s="24"/>
-    </row>
-    <row r="257" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M256" s="23"/>
+      <c r="N256" s="24"/>
+    </row>
+    <row r="257" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="C257" s="21"/>
-      <c r="D257" s="23"/>
+        <v>291</v>
+      </c>
+      <c r="C257" s="30"/>
+      <c r="D257" s="21"/>
       <c r="E257" s="23"/>
       <c r="F257" s="23"/>
       <c r="G257" s="23"/>
@@ -7414,17 +7831,18 @@
       <c r="J257" s="23"/>
       <c r="K257" s="23"/>
       <c r="L257" s="23"/>
-      <c r="M257" s="24"/>
-    </row>
-    <row r="258" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M257" s="23"/>
+      <c r="N257" s="24"/>
+    </row>
+    <row r="258" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="C258" s="21"/>
-      <c r="D258" s="23"/>
+        <v>288</v>
+      </c>
+      <c r="C258" s="30"/>
+      <c r="D258" s="21"/>
       <c r="E258" s="23"/>
       <c r="F258" s="23"/>
       <c r="G258" s="23"/>
@@ -7433,17 +7851,18 @@
       <c r="J258" s="23"/>
       <c r="K258" s="23"/>
       <c r="L258" s="23"/>
-      <c r="M258" s="24"/>
-    </row>
-    <row r="259" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M258" s="23"/>
+      <c r="N258" s="24"/>
+    </row>
+    <row r="259" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="C259" s="21"/>
-      <c r="D259" s="23"/>
+        <v>290</v>
+      </c>
+      <c r="C259" s="30"/>
+      <c r="D259" s="21"/>
       <c r="E259" s="23"/>
       <c r="F259" s="23"/>
       <c r="G259" s="23"/>
@@ -7452,17 +7871,18 @@
       <c r="J259" s="23"/>
       <c r="K259" s="23"/>
       <c r="L259" s="23"/>
-      <c r="M259" s="24"/>
-    </row>
-    <row r="260" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M259" s="23"/>
+      <c r="N259" s="24"/>
+    </row>
+    <row r="260" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="C260" s="21"/>
-      <c r="D260" s="23"/>
+        <v>289</v>
+      </c>
+      <c r="C260" s="30"/>
+      <c r="D260" s="21"/>
       <c r="E260" s="23"/>
       <c r="F260" s="23"/>
       <c r="G260" s="23"/>
@@ -7471,17 +7891,18 @@
       <c r="J260" s="23"/>
       <c r="K260" s="23"/>
       <c r="L260" s="23"/>
-      <c r="M260" s="24"/>
-    </row>
-    <row r="261" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M260" s="23"/>
+      <c r="N260" s="24"/>
+    </row>
+    <row r="261" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="C261" s="21"/>
-      <c r="D261" s="23"/>
+        <v>293</v>
+      </c>
+      <c r="C261" s="30"/>
+      <c r="D261" s="21"/>
       <c r="E261" s="23"/>
       <c r="F261" s="23"/>
       <c r="G261" s="23"/>
@@ -7490,17 +7911,18 @@
       <c r="J261" s="23"/>
       <c r="K261" s="23"/>
       <c r="L261" s="23"/>
-      <c r="M261" s="24"/>
-    </row>
-    <row r="262" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M261" s="23"/>
+      <c r="N261" s="24"/>
+    </row>
+    <row r="262" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="C262" s="21"/>
-      <c r="D262" s="23"/>
+        <v>298</v>
+      </c>
+      <c r="C262" s="30"/>
+      <c r="D262" s="21"/>
       <c r="E262" s="23"/>
       <c r="F262" s="23"/>
       <c r="G262" s="23"/>
@@ -7509,17 +7931,18 @@
       <c r="J262" s="23"/>
       <c r="K262" s="23"/>
       <c r="L262" s="23"/>
-      <c r="M262" s="24"/>
-    </row>
-    <row r="263" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M262" s="23"/>
+      <c r="N262" s="24"/>
+    </row>
+    <row r="263" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>99</v>
+        <v>309</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C263" s="21"/>
-      <c r="D263" s="23"/>
+        <v>297</v>
+      </c>
+      <c r="C263" s="30"/>
+      <c r="D263" s="21"/>
       <c r="E263" s="23"/>
       <c r="F263" s="23"/>
       <c r="G263" s="23"/>
@@ -7528,17 +7951,18 @@
       <c r="J263" s="23"/>
       <c r="K263" s="23"/>
       <c r="L263" s="23"/>
-      <c r="M263" s="24"/>
-    </row>
-    <row r="264" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A264" s="17" t="s">
-        <v>569</v>
+      <c r="M263" s="23"/>
+      <c r="N263" s="24"/>
+    </row>
+    <row r="264" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="C264" s="21"/>
-      <c r="D264" s="23"/>
+        <v>294</v>
+      </c>
+      <c r="C264" s="30"/>
+      <c r="D264" s="21"/>
       <c r="E264" s="23"/>
       <c r="F264" s="23"/>
       <c r="G264" s="23"/>
@@ -7547,17 +7971,18 @@
       <c r="J264" s="23"/>
       <c r="K264" s="23"/>
       <c r="L264" s="23"/>
-      <c r="M264" s="24"/>
-    </row>
-    <row r="265" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M264" s="23"/>
+      <c r="N264" s="24"/>
+    </row>
+    <row r="265" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="C265" s="21"/>
-      <c r="D265" s="23"/>
+        <v>296</v>
+      </c>
+      <c r="C265" s="30"/>
+      <c r="D265" s="21"/>
       <c r="E265" s="23"/>
       <c r="F265" s="23"/>
       <c r="G265" s="23"/>
@@ -7566,17 +7991,18 @@
       <c r="J265" s="23"/>
       <c r="K265" s="23"/>
       <c r="L265" s="23"/>
-      <c r="M265" s="24"/>
-    </row>
-    <row r="266" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="17" t="s">
-        <v>568</v>
+      <c r="M265" s="23"/>
+      <c r="N265" s="24"/>
+    </row>
+    <row r="266" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="C266" s="21"/>
-      <c r="D266" s="23"/>
+        <v>295</v>
+      </c>
+      <c r="C266" s="30"/>
+      <c r="D266" s="21"/>
       <c r="E266" s="23"/>
       <c r="F266" s="23"/>
       <c r="G266" s="23"/>
@@ -7585,17 +8011,18 @@
       <c r="J266" s="23"/>
       <c r="K266" s="23"/>
       <c r="L266" s="23"/>
-      <c r="M266" s="24"/>
-    </row>
-    <row r="267" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A267" s="16" t="s">
-        <v>214</v>
+      <c r="M266" s="23"/>
+      <c r="N266" s="24"/>
+    </row>
+    <row r="267" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A267" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C267" s="21"/>
-      <c r="D267" s="23"/>
+        <v>553</v>
+      </c>
+      <c r="C267" s="30"/>
+      <c r="D267" s="21"/>
       <c r="E267" s="23"/>
       <c r="F267" s="23"/>
       <c r="G267" s="23"/>
@@ -7604,17 +8031,18 @@
       <c r="J267" s="23"/>
       <c r="K267" s="23"/>
       <c r="L267" s="23"/>
-      <c r="M267" s="24"/>
-    </row>
-    <row r="268" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A268" s="17" t="s">
-        <v>449</v>
+      <c r="M267" s="23"/>
+      <c r="N267" s="24"/>
+    </row>
+    <row r="268" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="C268" s="21"/>
-      <c r="D268" s="23"/>
+        <v>554</v>
+      </c>
+      <c r="C268" s="30"/>
+      <c r="D268" s="21"/>
       <c r="E268" s="23"/>
       <c r="F268" s="23"/>
       <c r="G268" s="23"/>
@@ -7623,17 +8051,18 @@
       <c r="J268" s="23"/>
       <c r="K268" s="23"/>
       <c r="L268" s="23"/>
-      <c r="M268" s="24"/>
-    </row>
-    <row r="269" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M268" s="23"/>
+      <c r="N268" s="24"/>
+    </row>
+    <row r="269" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C269" s="21"/>
-      <c r="D269" s="23"/>
+        <v>555</v>
+      </c>
+      <c r="C269" s="30"/>
+      <c r="D269" s="21"/>
       <c r="E269" s="23"/>
       <c r="F269" s="23"/>
       <c r="G269" s="23"/>
@@ -7642,17 +8071,18 @@
       <c r="J269" s="23"/>
       <c r="K269" s="23"/>
       <c r="L269" s="23"/>
-      <c r="M269" s="24"/>
-    </row>
-    <row r="270" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A270" s="17" t="s">
-        <v>448</v>
+      <c r="M269" s="23"/>
+      <c r="N269" s="24"/>
+    </row>
+    <row r="270" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="C270" s="21"/>
-      <c r="D270" s="23"/>
+        <v>556</v>
+      </c>
+      <c r="C270" s="30"/>
+      <c r="D270" s="21"/>
       <c r="E270" s="23"/>
       <c r="F270" s="23"/>
       <c r="G270" s="23"/>
@@ -7661,17 +8091,18 @@
       <c r="J270" s="23"/>
       <c r="K270" s="23"/>
       <c r="L270" s="23"/>
-      <c r="M270" s="24"/>
-    </row>
-    <row r="271" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M270" s="23"/>
+      <c r="N270" s="24"/>
+    </row>
+    <row r="271" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>103</v>
+        <v>316</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C271" s="21"/>
-      <c r="D271" s="23"/>
+        <v>557</v>
+      </c>
+      <c r="C271" s="30"/>
+      <c r="D271" s="21"/>
       <c r="E271" s="23"/>
       <c r="F271" s="23"/>
       <c r="G271" s="23"/>
@@ -7680,17 +8111,18 @@
       <c r="J271" s="23"/>
       <c r="K271" s="23"/>
       <c r="L271" s="23"/>
-      <c r="M271" s="24"/>
-    </row>
-    <row r="272" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M271" s="23"/>
+      <c r="N271" s="24"/>
+    </row>
+    <row r="272" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C272" s="21"/>
-      <c r="D272" s="23"/>
+        <v>558</v>
+      </c>
+      <c r="C272" s="30"/>
+      <c r="D272" s="21"/>
       <c r="E272" s="23"/>
       <c r="F272" s="23"/>
       <c r="G272" s="23"/>
@@ -7699,17 +8131,18 @@
       <c r="J272" s="23"/>
       <c r="K272" s="23"/>
       <c r="L272" s="23"/>
-      <c r="M272" s="24"/>
-    </row>
-    <row r="273" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M272" s="23"/>
+      <c r="N272" s="24"/>
+    </row>
+    <row r="273" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C273" s="21"/>
-      <c r="D273" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="C273" s="30"/>
+      <c r="D273" s="21"/>
       <c r="E273" s="23"/>
       <c r="F273" s="23"/>
       <c r="G273" s="23"/>
@@ -7718,17 +8151,18 @@
       <c r="J273" s="23"/>
       <c r="K273" s="23"/>
       <c r="L273" s="23"/>
-      <c r="M273" s="24"/>
-    </row>
-    <row r="274" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A274" s="12" t="s">
-        <v>109</v>
+      <c r="M273" s="23"/>
+      <c r="N273" s="24"/>
+    </row>
+    <row r="274" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A274" s="17" t="s">
+        <v>568</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C274" s="21"/>
-      <c r="D274" s="23"/>
+        <v>570</v>
+      </c>
+      <c r="C274" s="30"/>
+      <c r="D274" s="21"/>
       <c r="E274" s="23"/>
       <c r="F274" s="23"/>
       <c r="G274" s="23"/>
@@ -7737,17 +8171,18 @@
       <c r="J274" s="23"/>
       <c r="K274" s="23"/>
       <c r="L274" s="23"/>
-      <c r="M274" s="24"/>
-    </row>
-    <row r="275" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M274" s="23"/>
+      <c r="N274" s="24"/>
+    </row>
+    <row r="275" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C275" s="21"/>
-      <c r="D275" s="23"/>
+        <v>272</v>
+      </c>
+      <c r="C275" s="30"/>
+      <c r="D275" s="21"/>
       <c r="E275" s="23"/>
       <c r="F275" s="23"/>
       <c r="G275" s="23"/>
@@ -7756,17 +8191,18 @@
       <c r="J275" s="23"/>
       <c r="K275" s="23"/>
       <c r="L275" s="23"/>
-      <c r="M275" s="24"/>
-    </row>
-    <row r="276" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A276" s="12" t="s">
-        <v>604</v>
+      <c r="M275" s="23"/>
+      <c r="N275" s="24"/>
+    </row>
+    <row r="276" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="17" t="s">
+        <v>567</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="C276" s="21"/>
-      <c r="D276" s="23"/>
+        <v>569</v>
+      </c>
+      <c r="C276" s="30"/>
+      <c r="D276" s="21"/>
       <c r="E276" s="23"/>
       <c r="F276" s="23"/>
       <c r="G276" s="23"/>
@@ -7775,17 +8211,18 @@
       <c r="J276" s="23"/>
       <c r="K276" s="23"/>
       <c r="L276" s="23"/>
-      <c r="M276" s="24"/>
-    </row>
-    <row r="277" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A277" s="12" t="s">
-        <v>113</v>
+      <c r="M276" s="23"/>
+      <c r="N276" s="24"/>
+    </row>
+    <row r="277" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C277" s="21"/>
-      <c r="D277" s="23"/>
+        <v>215</v>
+      </c>
+      <c r="C277" s="30"/>
+      <c r="D277" s="21"/>
       <c r="E277" s="23"/>
       <c r="F277" s="23"/>
       <c r="G277" s="23"/>
@@ -7794,17 +8231,18 @@
       <c r="J277" s="23"/>
       <c r="K277" s="23"/>
       <c r="L277" s="23"/>
-      <c r="M277" s="24"/>
-    </row>
-    <row r="278" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M277" s="23"/>
+      <c r="N277" s="24"/>
+    </row>
+    <row r="278" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="17" t="s">
-        <v>551</v>
+        <v>449</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C278" s="21"/>
-      <c r="D278" s="23"/>
+        <v>451</v>
+      </c>
+      <c r="C278" s="30"/>
+      <c r="D278" s="21"/>
       <c r="E278" s="23"/>
       <c r="F278" s="23"/>
       <c r="G278" s="23"/>
@@ -7813,17 +8251,18 @@
       <c r="J278" s="23"/>
       <c r="K278" s="23"/>
       <c r="L278" s="23"/>
-      <c r="M278" s="24"/>
-    </row>
-    <row r="279" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M278" s="23"/>
+      <c r="N278" s="24"/>
+    </row>
+    <row r="279" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>397</v>
+        <v>101</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C279" s="21"/>
-      <c r="D279" s="23"/>
+        <v>102</v>
+      </c>
+      <c r="C279" s="30"/>
+      <c r="D279" s="21"/>
       <c r="E279" s="23"/>
       <c r="F279" s="23"/>
       <c r="G279" s="23"/>
@@ -7832,17 +8271,18 @@
       <c r="J279" s="23"/>
       <c r="K279" s="23"/>
       <c r="L279" s="23"/>
-      <c r="M279" s="24"/>
-    </row>
-    <row r="280" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M279" s="23"/>
+      <c r="N279" s="24"/>
+    </row>
+    <row r="280" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="17" t="s">
-        <v>552</v>
+        <v>448</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="C280" s="21"/>
-      <c r="D280" s="23"/>
+        <v>450</v>
+      </c>
+      <c r="C280" s="30"/>
+      <c r="D280" s="21"/>
       <c r="E280" s="23"/>
       <c r="F280" s="23"/>
       <c r="G280" s="23"/>
@@ -7851,17 +8291,18 @@
       <c r="J280" s="23"/>
       <c r="K280" s="23"/>
       <c r="L280" s="23"/>
-      <c r="M280" s="24"/>
-    </row>
-    <row r="281" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M280" s="23"/>
+      <c r="N280" s="24"/>
+    </row>
+    <row r="281" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C281" s="21"/>
-      <c r="D281" s="23"/>
+        <v>104</v>
+      </c>
+      <c r="C281" s="30"/>
+      <c r="D281" s="21"/>
       <c r="E281" s="23"/>
       <c r="F281" s="23"/>
       <c r="G281" s="23"/>
@@ -7870,36 +8311,50 @@
       <c r="J281" s="23"/>
       <c r="K281" s="23"/>
       <c r="L281" s="23"/>
-      <c r="M281" s="24"/>
-    </row>
-    <row r="282" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M281" s="23"/>
+      <c r="N281" s="24"/>
+    </row>
+    <row r="282" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="17" t="s">
-        <v>394</v>
+        <v>621</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="C282" s="21"/>
-      <c r="D282" s="23"/>
-      <c r="E282" s="23"/>
-      <c r="F282" s="23"/>
+        <v>622</v>
+      </c>
+      <c r="C282" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="D282" s="21"/>
+      <c r="E282" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="F282" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="G282" s="23"/>
       <c r="H282" s="23"/>
-      <c r="I282" s="23"/>
+      <c r="I282" s="23" t="s">
+        <v>575</v>
+      </c>
       <c r="J282" s="23"/>
       <c r="K282" s="23"/>
-      <c r="L282" s="23"/>
-      <c r="M282" s="24"/>
-    </row>
-    <row r="283" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L282" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="M282" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="N282" s="24"/>
+    </row>
+    <row r="283" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C283" s="21"/>
-      <c r="D283" s="23"/>
+        <v>106</v>
+      </c>
+      <c r="C283" s="30"/>
+      <c r="D283" s="21"/>
       <c r="E283" s="23"/>
       <c r="F283" s="23"/>
       <c r="G283" s="23"/>
@@ -7908,17 +8363,18 @@
       <c r="J283" s="23"/>
       <c r="K283" s="23"/>
       <c r="L283" s="23"/>
-      <c r="M283" s="24"/>
-    </row>
-    <row r="284" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A284" s="17" t="s">
-        <v>393</v>
+      <c r="M283" s="23"/>
+      <c r="N283" s="24"/>
+    </row>
+    <row r="284" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A284" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="C284" s="21"/>
-      <c r="D284" s="23"/>
+        <v>108</v>
+      </c>
+      <c r="C284" s="30"/>
+      <c r="D284" s="21"/>
       <c r="E284" s="23"/>
       <c r="F284" s="23"/>
       <c r="G284" s="23"/>
@@ -7927,17 +8383,18 @@
       <c r="J284" s="23"/>
       <c r="K284" s="23"/>
       <c r="L284" s="23"/>
-      <c r="M284" s="24"/>
-    </row>
-    <row r="285" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M284" s="23"/>
+      <c r="N284" s="24"/>
+    </row>
+    <row r="285" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C285" s="21"/>
-      <c r="D285" s="23"/>
+        <v>110</v>
+      </c>
+      <c r="C285" s="30"/>
+      <c r="D285" s="21"/>
       <c r="E285" s="23"/>
       <c r="F285" s="23"/>
       <c r="G285" s="23"/>
@@ -7946,17 +8403,18 @@
       <c r="J285" s="23"/>
       <c r="K285" s="23"/>
       <c r="L285" s="23"/>
-      <c r="M285" s="24"/>
-    </row>
-    <row r="286" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M285" s="23"/>
+      <c r="N285" s="24"/>
+    </row>
+    <row r="286" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C286" s="21"/>
-      <c r="D286" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="C286" s="30"/>
+      <c r="D286" s="21"/>
       <c r="E286" s="23"/>
       <c r="F286" s="23"/>
       <c r="G286" s="23"/>
@@ -7965,17 +8423,18 @@
       <c r="J286" s="23"/>
       <c r="K286" s="23"/>
       <c r="L286" s="23"/>
-      <c r="M286" s="24"/>
-    </row>
-    <row r="287" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A287" s="17" t="s">
-        <v>446</v>
+      <c r="M286" s="23"/>
+      <c r="N286" s="24"/>
+    </row>
+    <row r="287" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A287" s="12" t="s">
+        <v>603</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="C287" s="21"/>
-      <c r="D287" s="23"/>
+        <v>604</v>
+      </c>
+      <c r="C287" s="30"/>
+      <c r="D287" s="21"/>
       <c r="E287" s="23"/>
       <c r="F287" s="23"/>
       <c r="G287" s="23"/>
@@ -7984,17 +8443,18 @@
       <c r="J287" s="23"/>
       <c r="K287" s="23"/>
       <c r="L287" s="23"/>
-      <c r="M287" s="24"/>
-    </row>
-    <row r="288" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M287" s="23"/>
+      <c r="N287" s="24"/>
+    </row>
+    <row r="288" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C288" s="21"/>
-      <c r="D288" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="C288" s="30"/>
+      <c r="D288" s="21"/>
       <c r="E288" s="23"/>
       <c r="F288" s="23"/>
       <c r="G288" s="23"/>
@@ -8003,17 +8463,18 @@
       <c r="J288" s="23"/>
       <c r="K288" s="23"/>
       <c r="L288" s="23"/>
-      <c r="M288" s="24"/>
-    </row>
-    <row r="289" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M288" s="23"/>
+      <c r="N288" s="24"/>
+    </row>
+    <row r="289" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="17" t="s">
-        <v>442</v>
+        <v>551</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="C289" s="21"/>
-      <c r="D289" s="23"/>
+        <v>559</v>
+      </c>
+      <c r="C289" s="30"/>
+      <c r="D289" s="21"/>
       <c r="E289" s="23"/>
       <c r="F289" s="23"/>
       <c r="G289" s="23"/>
@@ -8022,17 +8483,18 @@
       <c r="J289" s="23"/>
       <c r="K289" s="23"/>
       <c r="L289" s="23"/>
-      <c r="M289" s="24"/>
-    </row>
-    <row r="290" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M289" s="23"/>
+      <c r="N289" s="24"/>
+    </row>
+    <row r="290" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
-        <v>269</v>
+        <v>397</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="C290" s="21"/>
-      <c r="D290" s="23"/>
+        <v>241</v>
+      </c>
+      <c r="C290" s="30"/>
+      <c r="D290" s="21"/>
       <c r="E290" s="23"/>
       <c r="F290" s="23"/>
       <c r="G290" s="23"/>
@@ -8041,17 +8503,18 @@
       <c r="J290" s="23"/>
       <c r="K290" s="23"/>
       <c r="L290" s="23"/>
-      <c r="M290" s="24"/>
-    </row>
-    <row r="291" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M290" s="23"/>
+      <c r="N290" s="24"/>
+    </row>
+    <row r="291" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="17" t="s">
-        <v>443</v>
+        <v>552</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="C291" s="21"/>
-      <c r="D291" s="23"/>
+        <v>560</v>
+      </c>
+      <c r="C291" s="30"/>
+      <c r="D291" s="21"/>
       <c r="E291" s="23"/>
       <c r="F291" s="23"/>
       <c r="G291" s="23"/>
@@ -8060,17 +8523,18 @@
       <c r="J291" s="23"/>
       <c r="K291" s="23"/>
       <c r="L291" s="23"/>
-      <c r="M291" s="24"/>
-    </row>
-    <row r="292" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M291" s="23"/>
+      <c r="N291" s="24"/>
+    </row>
+    <row r="292" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
-        <v>267</v>
+        <v>115</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C292" s="21"/>
-      <c r="D292" s="23"/>
+        <v>116</v>
+      </c>
+      <c r="C292" s="30"/>
+      <c r="D292" s="21"/>
       <c r="E292" s="23"/>
       <c r="F292" s="23"/>
       <c r="G292" s="23"/>
@@ -8079,17 +8543,18 @@
       <c r="J292" s="23"/>
       <c r="K292" s="23"/>
       <c r="L292" s="23"/>
-      <c r="M292" s="24"/>
-    </row>
-    <row r="293" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M292" s="23"/>
+      <c r="N292" s="24"/>
+    </row>
+    <row r="293" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="17" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="C293" s="21"/>
-      <c r="D293" s="23"/>
+        <v>396</v>
+      </c>
+      <c r="C293" s="30"/>
+      <c r="D293" s="21"/>
       <c r="E293" s="23"/>
       <c r="F293" s="23"/>
       <c r="G293" s="23"/>
@@ -8098,17 +8563,18 @@
       <c r="J293" s="23"/>
       <c r="K293" s="23"/>
       <c r="L293" s="23"/>
-      <c r="M293" s="24"/>
-    </row>
-    <row r="294" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M293" s="23"/>
+      <c r="N293" s="24"/>
+    </row>
+    <row r="294" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C294" s="21"/>
-      <c r="D294" s="23"/>
+        <v>118</v>
+      </c>
+      <c r="C294" s="30"/>
+      <c r="D294" s="21"/>
       <c r="E294" s="23"/>
       <c r="F294" s="23"/>
       <c r="G294" s="23"/>
@@ -8117,17 +8583,18 @@
       <c r="J294" s="23"/>
       <c r="K294" s="23"/>
       <c r="L294" s="23"/>
-      <c r="M294" s="24"/>
-    </row>
-    <row r="295" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M294" s="23"/>
+      <c r="N294" s="24"/>
+    </row>
+    <row r="295" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="17" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="C295" s="21"/>
-      <c r="D295" s="23"/>
+        <v>395</v>
+      </c>
+      <c r="C295" s="30"/>
+      <c r="D295" s="21"/>
       <c r="E295" s="23"/>
       <c r="F295" s="23"/>
       <c r="G295" s="23"/>
@@ -8136,17 +8603,18 @@
       <c r="J295" s="23"/>
       <c r="K295" s="23"/>
       <c r="L295" s="23"/>
-      <c r="M295" s="24"/>
-    </row>
-    <row r="296" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M295" s="23"/>
+      <c r="N295" s="24"/>
+    </row>
+    <row r="296" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C296" s="21"/>
-      <c r="D296" s="23"/>
+        <v>120</v>
+      </c>
+      <c r="C296" s="30"/>
+      <c r="D296" s="21"/>
       <c r="E296" s="23"/>
       <c r="F296" s="23"/>
       <c r="G296" s="23"/>
@@ -8155,17 +8623,18 @@
       <c r="J296" s="23"/>
       <c r="K296" s="23"/>
       <c r="L296" s="23"/>
-      <c r="M296" s="24"/>
-    </row>
-    <row r="297" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M296" s="23"/>
+      <c r="N296" s="24"/>
+    </row>
+    <row r="297" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C297" s="21"/>
-      <c r="D297" s="23"/>
+        <v>122</v>
+      </c>
+      <c r="C297" s="30"/>
+      <c r="D297" s="21"/>
       <c r="E297" s="23"/>
       <c r="F297" s="23"/>
       <c r="G297" s="23"/>
@@ -8174,17 +8643,18 @@
       <c r="J297" s="23"/>
       <c r="K297" s="23"/>
       <c r="L297" s="23"/>
-      <c r="M297" s="24"/>
-    </row>
-    <row r="298" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A298" s="12" t="s">
-        <v>355</v>
+      <c r="M297" s="23"/>
+      <c r="N297" s="24"/>
+    </row>
+    <row r="298" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A298" s="17" t="s">
+        <v>446</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C298" s="21"/>
-      <c r="D298" s="23"/>
+        <v>447</v>
+      </c>
+      <c r="C298" s="30"/>
+      <c r="D298" s="21"/>
       <c r="E298" s="23"/>
       <c r="F298" s="23"/>
       <c r="G298" s="23"/>
@@ -8193,15 +8663,236 @@
       <c r="J298" s="23"/>
       <c r="K298" s="23"/>
       <c r="L298" s="23"/>
-      <c r="M298" s="24"/>
+      <c r="M298" s="23"/>
+      <c r="N298" s="24"/>
+    </row>
+    <row r="299" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A299" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B299" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C299" s="30"/>
+      <c r="D299" s="21"/>
+      <c r="E299" s="23"/>
+      <c r="F299" s="23"/>
+      <c r="G299" s="23"/>
+      <c r="H299" s="23"/>
+      <c r="I299" s="23"/>
+      <c r="J299" s="23"/>
+      <c r="K299" s="23"/>
+      <c r="L299" s="23"/>
+      <c r="M299" s="23"/>
+      <c r="N299" s="24"/>
+    </row>
+    <row r="300" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A300" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="B300" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C300" s="30"/>
+      <c r="D300" s="21"/>
+      <c r="E300" s="23"/>
+      <c r="F300" s="23"/>
+      <c r="G300" s="23"/>
+      <c r="H300" s="23"/>
+      <c r="I300" s="23"/>
+      <c r="J300" s="23"/>
+      <c r="K300" s="23"/>
+      <c r="L300" s="23"/>
+      <c r="M300" s="23"/>
+      <c r="N300" s="24"/>
+    </row>
+    <row r="301" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A301" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B301" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C301" s="30"/>
+      <c r="D301" s="21"/>
+      <c r="E301" s="23"/>
+      <c r="F301" s="23"/>
+      <c r="G301" s="23"/>
+      <c r="H301" s="23"/>
+      <c r="I301" s="23"/>
+      <c r="J301" s="23"/>
+      <c r="K301" s="23"/>
+      <c r="L301" s="23"/>
+      <c r="M301" s="23"/>
+      <c r="N301" s="24"/>
+    </row>
+    <row r="302" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A302" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="B302" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="C302" s="30"/>
+      <c r="D302" s="21"/>
+      <c r="E302" s="23"/>
+      <c r="F302" s="23"/>
+      <c r="G302" s="23"/>
+      <c r="H302" s="23"/>
+      <c r="I302" s="23"/>
+      <c r="J302" s="23"/>
+      <c r="K302" s="23"/>
+      <c r="L302" s="23"/>
+      <c r="M302" s="23"/>
+      <c r="N302" s="24"/>
+    </row>
+    <row r="303" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A303" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B303" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C303" s="30"/>
+      <c r="D303" s="21"/>
+      <c r="E303" s="23"/>
+      <c r="F303" s="23"/>
+      <c r="G303" s="23"/>
+      <c r="H303" s="23"/>
+      <c r="I303" s="23"/>
+      <c r="J303" s="23"/>
+      <c r="K303" s="23"/>
+      <c r="L303" s="23"/>
+      <c r="M303" s="23"/>
+      <c r="N303" s="24"/>
+    </row>
+    <row r="304" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A304" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="B304" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C304" s="30"/>
+      <c r="D304" s="21"/>
+      <c r="E304" s="23"/>
+      <c r="F304" s="23"/>
+      <c r="G304" s="23"/>
+      <c r="H304" s="23"/>
+      <c r="I304" s="23"/>
+      <c r="J304" s="23"/>
+      <c r="K304" s="23"/>
+      <c r="L304" s="23"/>
+      <c r="M304" s="23"/>
+      <c r="N304" s="24"/>
+    </row>
+    <row r="305" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A305" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B305" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C305" s="30"/>
+      <c r="D305" s="21"/>
+      <c r="E305" s="23"/>
+      <c r="F305" s="23"/>
+      <c r="G305" s="23"/>
+      <c r="H305" s="23"/>
+      <c r="I305" s="23"/>
+      <c r="J305" s="23"/>
+      <c r="K305" s="23"/>
+      <c r="L305" s="23"/>
+      <c r="M305" s="23"/>
+      <c r="N305" s="24"/>
+    </row>
+    <row r="306" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A306" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B306" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C306" s="30"/>
+      <c r="D306" s="21"/>
+      <c r="E306" s="23"/>
+      <c r="F306" s="23"/>
+      <c r="G306" s="23"/>
+      <c r="H306" s="23"/>
+      <c r="I306" s="23"/>
+      <c r="J306" s="23"/>
+      <c r="K306" s="23"/>
+      <c r="L306" s="23"/>
+      <c r="M306" s="23"/>
+      <c r="N306" s="24"/>
+    </row>
+    <row r="307" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A307" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B307" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C307" s="30"/>
+      <c r="D307" s="21"/>
+      <c r="E307" s="23"/>
+      <c r="F307" s="23"/>
+      <c r="G307" s="23"/>
+      <c r="H307" s="23"/>
+      <c r="I307" s="23"/>
+      <c r="J307" s="23"/>
+      <c r="K307" s="23"/>
+      <c r="L307" s="23"/>
+      <c r="M307" s="23"/>
+      <c r="N307" s="24"/>
+    </row>
+    <row r="308" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A308" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B308" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C308" s="30"/>
+      <c r="D308" s="21"/>
+      <c r="E308" s="23"/>
+      <c r="F308" s="23"/>
+      <c r="G308" s="23"/>
+      <c r="H308" s="23"/>
+      <c r="I308" s="23"/>
+      <c r="J308" s="23"/>
+      <c r="K308" s="23"/>
+      <c r="L308" s="23"/>
+      <c r="M308" s="23"/>
+      <c r="N308" s="24"/>
+    </row>
+    <row r="309" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A309" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B309" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C309" s="30"/>
+      <c r="D309" s="21"/>
+      <c r="E309" s="23"/>
+      <c r="F309" s="23"/>
+      <c r="G309" s="23"/>
+      <c r="H309" s="23"/>
+      <c r="I309" s="23"/>
+      <c r="J309" s="23"/>
+      <c r="K309" s="23"/>
+      <c r="L309" s="23"/>
+      <c r="M309" s="23"/>
+      <c r="N309" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M298" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M298">
-      <sortCondition ref="A1:A298"/>
+  <autoFilter ref="A1:N309" xr:uid="{5C14EEF4-8523-4B58-8E08-5E0D41EFADDB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N309">
+      <sortCondition ref="A1:A309"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:M298">
+  <conditionalFormatting sqref="A2:N309">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(), 2) = 0</formula>
     </cfRule>
